--- a/web/excel/book_bank/book_bank_format.xlsx
+++ b/web/excel/book_bank/book_bank_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-admon\web\excel\book_bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C94C63-E4A4-47C4-8E8E-70648E91DF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A134C5-E30A-4FDA-8E8A-84E3A1A11D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,12 +218,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -239,6 +233,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G635"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -533,48 +533,48 @@
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.140625" customWidth="1"/>
     <col min="4" max="4" width="58.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="22" style="26" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="22" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -589,13 +589,13 @@
       <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -640,5634 +640,5634 @@
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="18"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="18"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="18"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="18"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="18"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="18"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="18"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="18"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="18"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
       <c r="D98" s="19"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="18"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
       <c r="D99" s="19"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="18"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
       <c r="D100" s="19"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="18"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
       <c r="D101" s="19"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="18"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
       <c r="D102" s="19"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="18"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="18"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="18"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="18"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="18"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="18"/>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="18"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
       <c r="D111" s="19"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="18"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
       <c r="D112" s="19"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="18"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="18"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="18"/>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="18"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
       <c r="D116" s="19"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
       <c r="D117" s="19"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="18"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
       <c r="D118" s="19"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="18"/>
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
       <c r="D119" s="19"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="18"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
       <c r="D120" s="19"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="18"/>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
       <c r="D121" s="19"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="18"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
       <c r="D122" s="19"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="24"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="18"/>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
       <c r="D123" s="19"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="18"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="18"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="18"/>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="18"/>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="18"/>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
       <c r="D128" s="19"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="18"/>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
       <c r="D129" s="19"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="18"/>
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
       <c r="D130" s="19"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="18"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
       <c r="D131" s="19"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="18"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
       <c r="D132" s="19"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="18"/>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="18"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="18"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="18"/>
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="24"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="22"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="18"/>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
       <c r="D137" s="19"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="24"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="22"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="18"/>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="24"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="18"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
       <c r="D139" s="19"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="24"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="22"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="18"/>
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
       <c r="D140" s="19"/>
-      <c r="E140" s="24"/>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="18"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="22"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="18"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="24"/>
-      <c r="G142" s="24"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="18"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="24"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="18"/>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
       <c r="D144" s="19"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="24"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="18"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
       <c r="D145" s="19"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="24"/>
-      <c r="G145" s="24"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="18"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
       <c r="D146" s="19"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="24"/>
-      <c r="G146" s="24"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="18"/>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
       <c r="D147" s="19"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="24"/>
-      <c r="G147" s="24"/>
+      <c r="E147" s="22"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="18"/>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
       <c r="D148" s="19"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="24"/>
-      <c r="G148" s="24"/>
+      <c r="E148" s="22"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="18"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
       <c r="D149" s="19"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="24"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="22"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="18"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
       <c r="D150" s="19"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24"/>
+      <c r="E150" s="22"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="22"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="18"/>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
       <c r="D151" s="19"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="24"/>
-      <c r="G151" s="24"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="18"/>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
       <c r="D152" s="19"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="24"/>
-      <c r="G152" s="24"/>
+      <c r="E152" s="22"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="22"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="18"/>
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
       <c r="D153" s="19"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="24"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="22"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="18"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
       <c r="D154" s="19"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="24"/>
-      <c r="G154" s="24"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="22"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="18"/>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
       <c r="D155" s="19"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="24"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="18"/>
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
       <c r="D156" s="19"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="24"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="22"/>
+      <c r="G156" s="22"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="18"/>
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
       <c r="D157" s="19"/>
-      <c r="E157" s="24"/>
-      <c r="F157" s="24"/>
-      <c r="G157" s="24"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="22"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="18"/>
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="24"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="22"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="18"/>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
       <c r="D159" s="19"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="24"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="22"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="18"/>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
       <c r="D160" s="19"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="24"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="22"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="18"/>
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
       <c r="D161" s="19"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="24"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="22"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="18"/>
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
       <c r="D162" s="19"/>
-      <c r="E162" s="24"/>
-      <c r="F162" s="24"/>
-      <c r="G162" s="24"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="22"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="18"/>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
       <c r="D163" s="19"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="18"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
       <c r="D164" s="19"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="24"/>
-      <c r="G164" s="24"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="18"/>
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
       <c r="D165" s="19"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24"/>
-      <c r="G165" s="24"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="18"/>
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
       <c r="D166" s="19"/>
-      <c r="E166" s="24"/>
-      <c r="F166" s="24"/>
-      <c r="G166" s="24"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="22"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="18"/>
       <c r="B167" s="19"/>
       <c r="C167" s="19"/>
       <c r="D167" s="19"/>
-      <c r="E167" s="24"/>
-      <c r="F167" s="24"/>
-      <c r="G167" s="24"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="22"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="18"/>
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
       <c r="D168" s="19"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24"/>
+      <c r="E168" s="22"/>
+      <c r="F168" s="22"/>
+      <c r="G168" s="22"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="18"/>
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
       <c r="D169" s="19"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="22"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="18"/>
       <c r="B170" s="19"/>
       <c r="C170" s="19"/>
       <c r="D170" s="19"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="24"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="22"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="18"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
       <c r="D171" s="19"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="18"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
       <c r="D172" s="19"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="24"/>
-      <c r="G172" s="24"/>
+      <c r="E172" s="22"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="22"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="18"/>
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
       <c r="D173" s="19"/>
-      <c r="E173" s="24"/>
-      <c r="F173" s="24"/>
-      <c r="G173" s="24"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="18"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
       <c r="D174" s="19"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="24"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="22"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="18"/>
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
       <c r="D175" s="19"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="24"/>
-      <c r="G175" s="24"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="22"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="18"/>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
       <c r="D176" s="19"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="24"/>
-      <c r="G176" s="24"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="22"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="18"/>
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
       <c r="D177" s="19"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="24"/>
-      <c r="G177" s="24"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="22"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="18"/>
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
       <c r="D178" s="19"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="24"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="22"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="18"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
       <c r="D179" s="19"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="24"/>
-      <c r="G179" s="24"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="18"/>
       <c r="B180" s="19"/>
       <c r="C180" s="19"/>
       <c r="D180" s="19"/>
-      <c r="E180" s="24"/>
-      <c r="F180" s="24"/>
-      <c r="G180" s="24"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="18"/>
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
       <c r="D181" s="19"/>
-      <c r="E181" s="24"/>
-      <c r="F181" s="24"/>
-      <c r="G181" s="24"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="22"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="18"/>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
       <c r="D182" s="19"/>
-      <c r="E182" s="24"/>
-      <c r="F182" s="24"/>
-      <c r="G182" s="24"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="18"/>
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
       <c r="D183" s="19"/>
-      <c r="E183" s="24"/>
-      <c r="F183" s="24"/>
-      <c r="G183" s="24"/>
+      <c r="E183" s="22"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="22"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="18"/>
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
       <c r="D184" s="19"/>
-      <c r="E184" s="24"/>
-      <c r="F184" s="24"/>
-      <c r="G184" s="24"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="18"/>
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
       <c r="D185" s="19"/>
-      <c r="E185" s="24"/>
-      <c r="F185" s="24"/>
-      <c r="G185" s="24"/>
+      <c r="E185" s="22"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="22"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="18"/>
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
       <c r="D186" s="19"/>
-      <c r="E186" s="24"/>
-      <c r="F186" s="24"/>
-      <c r="G186" s="24"/>
+      <c r="E186" s="22"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="22"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="18"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
       <c r="D187" s="19"/>
-      <c r="E187" s="24"/>
-      <c r="F187" s="24"/>
-      <c r="G187" s="24"/>
+      <c r="E187" s="22"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="22"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="18"/>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
       <c r="D188" s="19"/>
-      <c r="E188" s="24"/>
-      <c r="F188" s="24"/>
-      <c r="G188" s="24"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="18"/>
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
       <c r="D189" s="19"/>
-      <c r="E189" s="24"/>
-      <c r="F189" s="24"/>
-      <c r="G189" s="24"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="18"/>
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
       <c r="D190" s="19"/>
-      <c r="E190" s="24"/>
-      <c r="F190" s="24"/>
-      <c r="G190" s="24"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="22"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="18"/>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
       <c r="D191" s="19"/>
-      <c r="E191" s="24"/>
-      <c r="F191" s="24"/>
-      <c r="G191" s="24"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="22"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="18"/>
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
       <c r="D192" s="19"/>
-      <c r="E192" s="24"/>
-      <c r="F192" s="24"/>
-      <c r="G192" s="24"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="22"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="18"/>
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
       <c r="D193" s="19"/>
-      <c r="E193" s="24"/>
-      <c r="F193" s="24"/>
-      <c r="G193" s="24"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="22"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="18"/>
       <c r="B194" s="19"/>
       <c r="C194" s="19"/>
       <c r="D194" s="19"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="24"/>
-      <c r="G194" s="24"/>
+      <c r="E194" s="22"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="22"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="18"/>
       <c r="B195" s="19"/>
       <c r="C195" s="19"/>
       <c r="D195" s="19"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="24"/>
-      <c r="G195" s="24"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="18"/>
       <c r="B196" s="19"/>
       <c r="C196" s="19"/>
       <c r="D196" s="19"/>
-      <c r="E196" s="24"/>
-      <c r="F196" s="24"/>
-      <c r="G196" s="24"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="18"/>
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
       <c r="D197" s="19"/>
-      <c r="E197" s="24"/>
-      <c r="F197" s="24"/>
-      <c r="G197" s="24"/>
+      <c r="E197" s="22"/>
+      <c r="F197" s="22"/>
+      <c r="G197" s="22"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="18"/>
       <c r="B198" s="19"/>
       <c r="C198" s="19"/>
       <c r="D198" s="19"/>
-      <c r="E198" s="24"/>
-      <c r="F198" s="24"/>
-      <c r="G198" s="24"/>
+      <c r="E198" s="22"/>
+      <c r="F198" s="22"/>
+      <c r="G198" s="22"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="18"/>
       <c r="B199" s="19"/>
       <c r="C199" s="19"/>
       <c r="D199" s="19"/>
-      <c r="E199" s="24"/>
-      <c r="F199" s="24"/>
-      <c r="G199" s="24"/>
+      <c r="E199" s="22"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="22"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="18"/>
       <c r="B200" s="19"/>
       <c r="C200" s="19"/>
       <c r="D200" s="19"/>
-      <c r="E200" s="24"/>
-      <c r="F200" s="24"/>
-      <c r="G200" s="24"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="22"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="18"/>
       <c r="B201" s="19"/>
       <c r="C201" s="19"/>
       <c r="D201" s="19"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="24"/>
-      <c r="G201" s="24"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="18"/>
       <c r="B202" s="19"/>
       <c r="C202" s="19"/>
       <c r="D202" s="19"/>
-      <c r="E202" s="24"/>
-      <c r="F202" s="24"/>
-      <c r="G202" s="24"/>
+      <c r="E202" s="22"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="22"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="18"/>
       <c r="B203" s="19"/>
       <c r="C203" s="19"/>
       <c r="D203" s="19"/>
-      <c r="E203" s="24"/>
-      <c r="F203" s="24"/>
-      <c r="G203" s="24"/>
+      <c r="E203" s="22"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="18"/>
       <c r="B204" s="19"/>
       <c r="C204" s="19"/>
       <c r="D204" s="19"/>
-      <c r="E204" s="24"/>
-      <c r="F204" s="24"/>
-      <c r="G204" s="24"/>
+      <c r="E204" s="22"/>
+      <c r="F204" s="22"/>
+      <c r="G204" s="22"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="18"/>
       <c r="B205" s="19"/>
       <c r="C205" s="19"/>
       <c r="D205" s="19"/>
-      <c r="E205" s="24"/>
-      <c r="F205" s="24"/>
-      <c r="G205" s="24"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="18"/>
       <c r="B206" s="19"/>
       <c r="C206" s="19"/>
       <c r="D206" s="19"/>
-      <c r="E206" s="24"/>
-      <c r="F206" s="24"/>
-      <c r="G206" s="24"/>
+      <c r="E206" s="22"/>
+      <c r="F206" s="22"/>
+      <c r="G206" s="22"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="18"/>
       <c r="B207" s="19"/>
       <c r="C207" s="19"/>
       <c r="D207" s="19"/>
-      <c r="E207" s="24"/>
-      <c r="F207" s="24"/>
-      <c r="G207" s="24"/>
+      <c r="E207" s="22"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="22"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="18"/>
       <c r="B208" s="19"/>
       <c r="C208" s="19"/>
       <c r="D208" s="19"/>
-      <c r="E208" s="24"/>
-      <c r="F208" s="24"/>
-      <c r="G208" s="24"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="22"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="18"/>
       <c r="B209" s="19"/>
       <c r="C209" s="19"/>
       <c r="D209" s="19"/>
-      <c r="E209" s="24"/>
-      <c r="F209" s="24"/>
-      <c r="G209" s="24"/>
+      <c r="E209" s="22"/>
+      <c r="F209" s="22"/>
+      <c r="G209" s="22"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="18"/>
       <c r="B210" s="19"/>
       <c r="C210" s="19"/>
       <c r="D210" s="19"/>
-      <c r="E210" s="24"/>
-      <c r="F210" s="24"/>
-      <c r="G210" s="24"/>
+      <c r="E210" s="22"/>
+      <c r="F210" s="22"/>
+      <c r="G210" s="22"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="18"/>
       <c r="B211" s="19"/>
       <c r="C211" s="19"/>
       <c r="D211" s="19"/>
-      <c r="E211" s="24"/>
-      <c r="F211" s="24"/>
-      <c r="G211" s="24"/>
+      <c r="E211" s="22"/>
+      <c r="F211" s="22"/>
+      <c r="G211" s="22"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="18"/>
       <c r="B212" s="19"/>
       <c r="C212" s="19"/>
       <c r="D212" s="19"/>
-      <c r="E212" s="24"/>
-      <c r="F212" s="24"/>
-      <c r="G212" s="24"/>
+      <c r="E212" s="22"/>
+      <c r="F212" s="22"/>
+      <c r="G212" s="22"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="18"/>
       <c r="B213" s="19"/>
       <c r="C213" s="19"/>
       <c r="D213" s="19"/>
-      <c r="E213" s="24"/>
-      <c r="F213" s="24"/>
-      <c r="G213" s="24"/>
+      <c r="E213" s="22"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="22"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="18"/>
       <c r="B214" s="19"/>
       <c r="C214" s="19"/>
       <c r="D214" s="19"/>
-      <c r="E214" s="24"/>
-      <c r="F214" s="24"/>
-      <c r="G214" s="24"/>
+      <c r="E214" s="22"/>
+      <c r="F214" s="22"/>
+      <c r="G214" s="22"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="18"/>
       <c r="B215" s="19"/>
       <c r="C215" s="19"/>
       <c r="D215" s="19"/>
-      <c r="E215" s="24"/>
-      <c r="F215" s="24"/>
-      <c r="G215" s="24"/>
+      <c r="E215" s="22"/>
+      <c r="F215" s="22"/>
+      <c r="G215" s="22"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="18"/>
       <c r="B216" s="19"/>
       <c r="C216" s="19"/>
       <c r="D216" s="19"/>
-      <c r="E216" s="24"/>
-      <c r="F216" s="24"/>
-      <c r="G216" s="24"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22"/>
+      <c r="G216" s="22"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="18"/>
       <c r="B217" s="19"/>
       <c r="C217" s="19"/>
       <c r="D217" s="19"/>
-      <c r="E217" s="24"/>
-      <c r="F217" s="24"/>
-      <c r="G217" s="24"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="22"/>
+      <c r="G217" s="22"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="18"/>
       <c r="B218" s="19"/>
       <c r="C218" s="19"/>
       <c r="D218" s="19"/>
-      <c r="E218" s="24"/>
-      <c r="F218" s="24"/>
-      <c r="G218" s="24"/>
+      <c r="E218" s="22"/>
+      <c r="F218" s="22"/>
+      <c r="G218" s="22"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="18"/>
       <c r="B219" s="19"/>
       <c r="C219" s="19"/>
       <c r="D219" s="19"/>
-      <c r="E219" s="24"/>
-      <c r="F219" s="24"/>
-      <c r="G219" s="24"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="22"/>
+      <c r="G219" s="22"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="18"/>
       <c r="B220" s="19"/>
       <c r="C220" s="19"/>
       <c r="D220" s="19"/>
-      <c r="E220" s="24"/>
-      <c r="F220" s="24"/>
-      <c r="G220" s="24"/>
+      <c r="E220" s="22"/>
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="18"/>
       <c r="B221" s="19"/>
       <c r="C221" s="19"/>
       <c r="D221" s="19"/>
-      <c r="E221" s="24"/>
-      <c r="F221" s="24"/>
-      <c r="G221" s="24"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="18"/>
       <c r="B222" s="19"/>
       <c r="C222" s="19"/>
       <c r="D222" s="19"/>
-      <c r="E222" s="24"/>
-      <c r="F222" s="24"/>
-      <c r="G222" s="24"/>
+      <c r="E222" s="22"/>
+      <c r="F222" s="22"/>
+      <c r="G222" s="22"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="18"/>
       <c r="B223" s="19"/>
       <c r="C223" s="19"/>
       <c r="D223" s="19"/>
-      <c r="E223" s="24"/>
-      <c r="F223" s="24"/>
-      <c r="G223" s="24"/>
+      <c r="E223" s="22"/>
+      <c r="F223" s="22"/>
+      <c r="G223" s="22"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="18"/>
       <c r="B224" s="19"/>
       <c r="C224" s="19"/>
       <c r="D224" s="19"/>
-      <c r="E224" s="24"/>
-      <c r="F224" s="24"/>
-      <c r="G224" s="24"/>
+      <c r="E224" s="22"/>
+      <c r="F224" s="22"/>
+      <c r="G224" s="22"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="18"/>
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
       <c r="D225" s="19"/>
-      <c r="E225" s="24"/>
-      <c r="F225" s="24"/>
-      <c r="G225" s="24"/>
+      <c r="E225" s="22"/>
+      <c r="F225" s="22"/>
+      <c r="G225" s="22"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="18"/>
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
       <c r="D226" s="19"/>
-      <c r="E226" s="24"/>
-      <c r="F226" s="24"/>
-      <c r="G226" s="24"/>
+      <c r="E226" s="22"/>
+      <c r="F226" s="22"/>
+      <c r="G226" s="22"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="18"/>
       <c r="B227" s="19"/>
       <c r="C227" s="19"/>
       <c r="D227" s="19"/>
-      <c r="E227" s="24"/>
-      <c r="F227" s="24"/>
-      <c r="G227" s="24"/>
+      <c r="E227" s="22"/>
+      <c r="F227" s="22"/>
+      <c r="G227" s="22"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="18"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19"/>
       <c r="D228" s="19"/>
-      <c r="E228" s="24"/>
-      <c r="F228" s="24"/>
-      <c r="G228" s="24"/>
+      <c r="E228" s="22"/>
+      <c r="F228" s="22"/>
+      <c r="G228" s="22"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="18"/>
       <c r="B229" s="19"/>
       <c r="C229" s="19"/>
       <c r="D229" s="19"/>
-      <c r="E229" s="24"/>
-      <c r="F229" s="24"/>
-      <c r="G229" s="24"/>
+      <c r="E229" s="22"/>
+      <c r="F229" s="22"/>
+      <c r="G229" s="22"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="18"/>
       <c r="B230" s="19"/>
       <c r="C230" s="19"/>
       <c r="D230" s="19"/>
-      <c r="E230" s="24"/>
-      <c r="F230" s="24"/>
-      <c r="G230" s="24"/>
+      <c r="E230" s="22"/>
+      <c r="F230" s="22"/>
+      <c r="G230" s="22"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="18"/>
       <c r="B231" s="19"/>
       <c r="C231" s="19"/>
       <c r="D231" s="19"/>
-      <c r="E231" s="24"/>
-      <c r="F231" s="24"/>
-      <c r="G231" s="24"/>
+      <c r="E231" s="22"/>
+      <c r="F231" s="22"/>
+      <c r="G231" s="22"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="18"/>
       <c r="B232" s="19"/>
       <c r="C232" s="19"/>
       <c r="D232" s="19"/>
-      <c r="E232" s="24"/>
-      <c r="F232" s="24"/>
-      <c r="G232" s="24"/>
+      <c r="E232" s="22"/>
+      <c r="F232" s="22"/>
+      <c r="G232" s="22"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="18"/>
       <c r="B233" s="19"/>
       <c r="C233" s="19"/>
       <c r="D233" s="19"/>
-      <c r="E233" s="24"/>
-      <c r="F233" s="24"/>
-      <c r="G233" s="24"/>
+      <c r="E233" s="22"/>
+      <c r="F233" s="22"/>
+      <c r="G233" s="22"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="18"/>
       <c r="B234" s="19"/>
       <c r="C234" s="19"/>
       <c r="D234" s="19"/>
-      <c r="E234" s="24"/>
-      <c r="F234" s="24"/>
-      <c r="G234" s="24"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="22"/>
+      <c r="G234" s="22"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="18"/>
       <c r="B235" s="19"/>
       <c r="C235" s="19"/>
       <c r="D235" s="19"/>
-      <c r="E235" s="24"/>
-      <c r="F235" s="24"/>
-      <c r="G235" s="24"/>
+      <c r="E235" s="22"/>
+      <c r="F235" s="22"/>
+      <c r="G235" s="22"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="18"/>
       <c r="B236" s="19"/>
       <c r="C236" s="19"/>
       <c r="D236" s="19"/>
-      <c r="E236" s="24"/>
-      <c r="F236" s="24"/>
-      <c r="G236" s="24"/>
+      <c r="E236" s="22"/>
+      <c r="F236" s="22"/>
+      <c r="G236" s="22"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="18"/>
       <c r="B237" s="19"/>
       <c r="C237" s="19"/>
       <c r="D237" s="19"/>
-      <c r="E237" s="24"/>
-      <c r="F237" s="24"/>
-      <c r="G237" s="24"/>
+      <c r="E237" s="22"/>
+      <c r="F237" s="22"/>
+      <c r="G237" s="22"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="18"/>
       <c r="B238" s="19"/>
       <c r="C238" s="19"/>
       <c r="D238" s="19"/>
-      <c r="E238" s="24"/>
-      <c r="F238" s="24"/>
-      <c r="G238" s="24"/>
+      <c r="E238" s="22"/>
+      <c r="F238" s="22"/>
+      <c r="G238" s="22"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="18"/>
       <c r="B239" s="19"/>
       <c r="C239" s="19"/>
       <c r="D239" s="19"/>
-      <c r="E239" s="24"/>
-      <c r="F239" s="24"/>
-      <c r="G239" s="24"/>
+      <c r="E239" s="22"/>
+      <c r="F239" s="22"/>
+      <c r="G239" s="22"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="18"/>
       <c r="B240" s="19"/>
       <c r="C240" s="19"/>
       <c r="D240" s="19"/>
-      <c r="E240" s="24"/>
-      <c r="F240" s="24"/>
-      <c r="G240" s="24"/>
+      <c r="E240" s="22"/>
+      <c r="F240" s="22"/>
+      <c r="G240" s="22"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="18"/>
       <c r="B241" s="19"/>
       <c r="C241" s="19"/>
       <c r="D241" s="19"/>
-      <c r="E241" s="24"/>
-      <c r="F241" s="24"/>
-      <c r="G241" s="24"/>
+      <c r="E241" s="22"/>
+      <c r="F241" s="22"/>
+      <c r="G241" s="22"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="18"/>
       <c r="B242" s="19"/>
       <c r="C242" s="19"/>
       <c r="D242" s="19"/>
-      <c r="E242" s="24"/>
-      <c r="F242" s="24"/>
-      <c r="G242" s="24"/>
+      <c r="E242" s="22"/>
+      <c r="F242" s="22"/>
+      <c r="G242" s="22"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="18"/>
       <c r="B243" s="19"/>
       <c r="C243" s="19"/>
       <c r="D243" s="19"/>
-      <c r="E243" s="24"/>
-      <c r="F243" s="24"/>
-      <c r="G243" s="24"/>
+      <c r="E243" s="22"/>
+      <c r="F243" s="22"/>
+      <c r="G243" s="22"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="18"/>
       <c r="B244" s="19"/>
       <c r="C244" s="19"/>
       <c r="D244" s="19"/>
-      <c r="E244" s="24"/>
-      <c r="F244" s="24"/>
-      <c r="G244" s="24"/>
+      <c r="E244" s="22"/>
+      <c r="F244" s="22"/>
+      <c r="G244" s="22"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="18"/>
       <c r="B245" s="19"/>
       <c r="C245" s="19"/>
       <c r="D245" s="19"/>
-      <c r="E245" s="24"/>
-      <c r="F245" s="24"/>
-      <c r="G245" s="24"/>
+      <c r="E245" s="22"/>
+      <c r="F245" s="22"/>
+      <c r="G245" s="22"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="18"/>
       <c r="B246" s="19"/>
       <c r="C246" s="19"/>
       <c r="D246" s="19"/>
-      <c r="E246" s="24"/>
-      <c r="F246" s="24"/>
-      <c r="G246" s="24"/>
+      <c r="E246" s="22"/>
+      <c r="F246" s="22"/>
+      <c r="G246" s="22"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="18"/>
       <c r="B247" s="19"/>
       <c r="C247" s="19"/>
       <c r="D247" s="19"/>
-      <c r="E247" s="24"/>
-      <c r="F247" s="24"/>
-      <c r="G247" s="24"/>
+      <c r="E247" s="22"/>
+      <c r="F247" s="22"/>
+      <c r="G247" s="22"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="18"/>
       <c r="B248" s="19"/>
       <c r="C248" s="19"/>
       <c r="D248" s="19"/>
-      <c r="E248" s="24"/>
-      <c r="F248" s="24"/>
-      <c r="G248" s="24"/>
+      <c r="E248" s="22"/>
+      <c r="F248" s="22"/>
+      <c r="G248" s="22"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="18"/>
       <c r="B249" s="19"/>
       <c r="C249" s="19"/>
       <c r="D249" s="19"/>
-      <c r="E249" s="24"/>
-      <c r="F249" s="24"/>
-      <c r="G249" s="24"/>
+      <c r="E249" s="22"/>
+      <c r="F249" s="22"/>
+      <c r="G249" s="22"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="18"/>
       <c r="B250" s="19"/>
       <c r="C250" s="19"/>
       <c r="D250" s="19"/>
-      <c r="E250" s="24"/>
-      <c r="F250" s="24"/>
-      <c r="G250" s="24"/>
+      <c r="E250" s="22"/>
+      <c r="F250" s="22"/>
+      <c r="G250" s="22"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="18"/>
       <c r="B251" s="19"/>
       <c r="C251" s="19"/>
       <c r="D251" s="19"/>
-      <c r="E251" s="24"/>
-      <c r="F251" s="24"/>
-      <c r="G251" s="24"/>
+      <c r="E251" s="22"/>
+      <c r="F251" s="22"/>
+      <c r="G251" s="22"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="18"/>
       <c r="B252" s="19"/>
       <c r="C252" s="19"/>
       <c r="D252" s="19"/>
-      <c r="E252" s="24"/>
-      <c r="F252" s="24"/>
-      <c r="G252" s="24"/>
+      <c r="E252" s="22"/>
+      <c r="F252" s="22"/>
+      <c r="G252" s="22"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="18"/>
       <c r="B253" s="19"/>
       <c r="C253" s="19"/>
       <c r="D253" s="19"/>
-      <c r="E253" s="24"/>
-      <c r="F253" s="24"/>
-      <c r="G253" s="24"/>
+      <c r="E253" s="22"/>
+      <c r="F253" s="22"/>
+      <c r="G253" s="22"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="18"/>
       <c r="B254" s="19"/>
       <c r="C254" s="19"/>
       <c r="D254" s="19"/>
-      <c r="E254" s="24"/>
-      <c r="F254" s="24"/>
-      <c r="G254" s="24"/>
+      <c r="E254" s="22"/>
+      <c r="F254" s="22"/>
+      <c r="G254" s="22"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="18"/>
       <c r="B255" s="19"/>
       <c r="C255" s="19"/>
       <c r="D255" s="19"/>
-      <c r="E255" s="24"/>
-      <c r="F255" s="24"/>
-      <c r="G255" s="24"/>
+      <c r="E255" s="22"/>
+      <c r="F255" s="22"/>
+      <c r="G255" s="22"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="18"/>
       <c r="B256" s="19"/>
       <c r="C256" s="19"/>
       <c r="D256" s="19"/>
-      <c r="E256" s="24"/>
-      <c r="F256" s="24"/>
-      <c r="G256" s="24"/>
+      <c r="E256" s="22"/>
+      <c r="F256" s="22"/>
+      <c r="G256" s="22"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="18"/>
       <c r="B257" s="19"/>
       <c r="C257" s="19"/>
       <c r="D257" s="19"/>
-      <c r="E257" s="24"/>
-      <c r="F257" s="24"/>
-      <c r="G257" s="24"/>
+      <c r="E257" s="22"/>
+      <c r="F257" s="22"/>
+      <c r="G257" s="22"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="18"/>
       <c r="B258" s="19"/>
       <c r="C258" s="19"/>
       <c r="D258" s="19"/>
-      <c r="E258" s="24"/>
-      <c r="F258" s="24"/>
-      <c r="G258" s="24"/>
+      <c r="E258" s="22"/>
+      <c r="F258" s="22"/>
+      <c r="G258" s="22"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="18"/>
       <c r="B259" s="19"/>
       <c r="C259" s="19"/>
       <c r="D259" s="19"/>
-      <c r="E259" s="24"/>
-      <c r="F259" s="24"/>
-      <c r="G259" s="24"/>
+      <c r="E259" s="22"/>
+      <c r="F259" s="22"/>
+      <c r="G259" s="22"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="18"/>
       <c r="B260" s="19"/>
       <c r="C260" s="19"/>
       <c r="D260" s="19"/>
-      <c r="E260" s="24"/>
-      <c r="F260" s="24"/>
-      <c r="G260" s="24"/>
+      <c r="E260" s="22"/>
+      <c r="F260" s="22"/>
+      <c r="G260" s="22"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="18"/>
       <c r="B261" s="19"/>
       <c r="C261" s="19"/>
       <c r="D261" s="19"/>
-      <c r="E261" s="24"/>
-      <c r="F261" s="24"/>
-      <c r="G261" s="24"/>
+      <c r="E261" s="22"/>
+      <c r="F261" s="22"/>
+      <c r="G261" s="22"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="18"/>
       <c r="B262" s="19"/>
       <c r="C262" s="19"/>
       <c r="D262" s="19"/>
-      <c r="E262" s="24"/>
-      <c r="F262" s="24"/>
-      <c r="G262" s="24"/>
+      <c r="E262" s="22"/>
+      <c r="F262" s="22"/>
+      <c r="G262" s="22"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="18"/>
       <c r="B263" s="19"/>
       <c r="C263" s="19"/>
       <c r="D263" s="19"/>
-      <c r="E263" s="24"/>
-      <c r="F263" s="24"/>
-      <c r="G263" s="24"/>
+      <c r="E263" s="22"/>
+      <c r="F263" s="22"/>
+      <c r="G263" s="22"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="18"/>
       <c r="B264" s="19"/>
       <c r="C264" s="19"/>
       <c r="D264" s="19"/>
-      <c r="E264" s="24"/>
-      <c r="F264" s="24"/>
-      <c r="G264" s="24"/>
+      <c r="E264" s="22"/>
+      <c r="F264" s="22"/>
+      <c r="G264" s="22"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="18"/>
       <c r="B265" s="19"/>
       <c r="C265" s="19"/>
       <c r="D265" s="19"/>
-      <c r="E265" s="24"/>
-      <c r="F265" s="24"/>
-      <c r="G265" s="24"/>
+      <c r="E265" s="22"/>
+      <c r="F265" s="22"/>
+      <c r="G265" s="22"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="18"/>
       <c r="B266" s="19"/>
       <c r="C266" s="19"/>
       <c r="D266" s="19"/>
-      <c r="E266" s="24"/>
-      <c r="F266" s="24"/>
-      <c r="G266" s="24"/>
+      <c r="E266" s="22"/>
+      <c r="F266" s="22"/>
+      <c r="G266" s="22"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="18"/>
       <c r="B267" s="19"/>
       <c r="C267" s="19"/>
       <c r="D267" s="19"/>
-      <c r="E267" s="24"/>
-      <c r="F267" s="24"/>
-      <c r="G267" s="24"/>
+      <c r="E267" s="22"/>
+      <c r="F267" s="22"/>
+      <c r="G267" s="22"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="18"/>
       <c r="B268" s="19"/>
       <c r="C268" s="19"/>
       <c r="D268" s="19"/>
-      <c r="E268" s="24"/>
-      <c r="F268" s="24"/>
-      <c r="G268" s="24"/>
+      <c r="E268" s="22"/>
+      <c r="F268" s="22"/>
+      <c r="G268" s="22"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="18"/>
       <c r="B269" s="19"/>
       <c r="C269" s="19"/>
       <c r="D269" s="19"/>
-      <c r="E269" s="24"/>
-      <c r="F269" s="24"/>
-      <c r="G269" s="24"/>
+      <c r="E269" s="22"/>
+      <c r="F269" s="22"/>
+      <c r="G269" s="22"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="18"/>
       <c r="B270" s="19"/>
       <c r="C270" s="19"/>
       <c r="D270" s="19"/>
-      <c r="E270" s="24"/>
-      <c r="F270" s="24"/>
-      <c r="G270" s="24"/>
+      <c r="E270" s="22"/>
+      <c r="F270" s="22"/>
+      <c r="G270" s="22"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="18"/>
       <c r="B271" s="19"/>
       <c r="C271" s="19"/>
       <c r="D271" s="19"/>
-      <c r="E271" s="24"/>
-      <c r="F271" s="24"/>
-      <c r="G271" s="24"/>
+      <c r="E271" s="22"/>
+      <c r="F271" s="22"/>
+      <c r="G271" s="22"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="18"/>
       <c r="B272" s="19"/>
       <c r="C272" s="19"/>
       <c r="D272" s="19"/>
-      <c r="E272" s="24"/>
-      <c r="F272" s="24"/>
-      <c r="G272" s="24"/>
+      <c r="E272" s="22"/>
+      <c r="F272" s="22"/>
+      <c r="G272" s="22"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="18"/>
       <c r="B273" s="19"/>
       <c r="C273" s="19"/>
       <c r="D273" s="19"/>
-      <c r="E273" s="24"/>
-      <c r="F273" s="24"/>
-      <c r="G273" s="24"/>
+      <c r="E273" s="22"/>
+      <c r="F273" s="22"/>
+      <c r="G273" s="22"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="18"/>
       <c r="B274" s="19"/>
       <c r="C274" s="19"/>
       <c r="D274" s="19"/>
-      <c r="E274" s="24"/>
-      <c r="F274" s="24"/>
-      <c r="G274" s="24"/>
+      <c r="E274" s="22"/>
+      <c r="F274" s="22"/>
+      <c r="G274" s="22"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="18"/>
       <c r="B275" s="19"/>
       <c r="C275" s="19"/>
       <c r="D275" s="19"/>
-      <c r="E275" s="24"/>
-      <c r="F275" s="24"/>
-      <c r="G275" s="24"/>
+      <c r="E275" s="22"/>
+      <c r="F275" s="22"/>
+      <c r="G275" s="22"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="18"/>
       <c r="B276" s="19"/>
       <c r="C276" s="19"/>
       <c r="D276" s="19"/>
-      <c r="E276" s="24"/>
-      <c r="F276" s="24"/>
-      <c r="G276" s="24"/>
+      <c r="E276" s="22"/>
+      <c r="F276" s="22"/>
+      <c r="G276" s="22"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="18"/>
       <c r="B277" s="19"/>
       <c r="C277" s="19"/>
       <c r="D277" s="19"/>
-      <c r="E277" s="24"/>
-      <c r="F277" s="24"/>
-      <c r="G277" s="24"/>
+      <c r="E277" s="22"/>
+      <c r="F277" s="22"/>
+      <c r="G277" s="22"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="18"/>
       <c r="B278" s="19"/>
       <c r="C278" s="19"/>
       <c r="D278" s="19"/>
-      <c r="E278" s="24"/>
-      <c r="F278" s="24"/>
-      <c r="G278" s="24"/>
+      <c r="E278" s="22"/>
+      <c r="F278" s="22"/>
+      <c r="G278" s="22"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="18"/>
       <c r="B279" s="19"/>
       <c r="C279" s="19"/>
       <c r="D279" s="19"/>
-      <c r="E279" s="24"/>
-      <c r="F279" s="24"/>
-      <c r="G279" s="24"/>
+      <c r="E279" s="22"/>
+      <c r="F279" s="22"/>
+      <c r="G279" s="22"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="18"/>
       <c r="B280" s="19"/>
       <c r="C280" s="19"/>
       <c r="D280" s="19"/>
-      <c r="E280" s="24"/>
-      <c r="F280" s="24"/>
-      <c r="G280" s="24"/>
+      <c r="E280" s="22"/>
+      <c r="F280" s="22"/>
+      <c r="G280" s="22"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="18"/>
       <c r="B281" s="19"/>
       <c r="C281" s="19"/>
       <c r="D281" s="19"/>
-      <c r="E281" s="24"/>
-      <c r="F281" s="24"/>
-      <c r="G281" s="24"/>
+      <c r="E281" s="22"/>
+      <c r="F281" s="22"/>
+      <c r="G281" s="22"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="18"/>
       <c r="B282" s="19"/>
       <c r="C282" s="19"/>
       <c r="D282" s="19"/>
-      <c r="E282" s="24"/>
-      <c r="F282" s="24"/>
-      <c r="G282" s="24"/>
+      <c r="E282" s="22"/>
+      <c r="F282" s="22"/>
+      <c r="G282" s="22"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="18"/>
       <c r="B283" s="19"/>
       <c r="C283" s="19"/>
       <c r="D283" s="19"/>
-      <c r="E283" s="24"/>
-      <c r="F283" s="24"/>
-      <c r="G283" s="24"/>
+      <c r="E283" s="22"/>
+      <c r="F283" s="22"/>
+      <c r="G283" s="22"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="18"/>
       <c r="B284" s="19"/>
       <c r="C284" s="19"/>
       <c r="D284" s="19"/>
-      <c r="E284" s="24"/>
-      <c r="F284" s="24"/>
-      <c r="G284" s="24"/>
+      <c r="E284" s="22"/>
+      <c r="F284" s="22"/>
+      <c r="G284" s="22"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="18"/>
       <c r="B285" s="19"/>
       <c r="C285" s="19"/>
       <c r="D285" s="19"/>
-      <c r="E285" s="24"/>
-      <c r="F285" s="24"/>
-      <c r="G285" s="24"/>
+      <c r="E285" s="22"/>
+      <c r="F285" s="22"/>
+      <c r="G285" s="22"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="18"/>
       <c r="B286" s="19"/>
       <c r="C286" s="19"/>
       <c r="D286" s="19"/>
-      <c r="E286" s="24"/>
-      <c r="F286" s="24"/>
-      <c r="G286" s="24"/>
+      <c r="E286" s="22"/>
+      <c r="F286" s="22"/>
+      <c r="G286" s="22"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="18"/>
       <c r="B287" s="19"/>
       <c r="C287" s="19"/>
       <c r="D287" s="19"/>
-      <c r="E287" s="24"/>
-      <c r="F287" s="24"/>
-      <c r="G287" s="24"/>
+      <c r="E287" s="22"/>
+      <c r="F287" s="22"/>
+      <c r="G287" s="22"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="18"/>
       <c r="B288" s="19"/>
       <c r="C288" s="19"/>
       <c r="D288" s="19"/>
-      <c r="E288" s="24"/>
-      <c r="F288" s="24"/>
-      <c r="G288" s="24"/>
+      <c r="E288" s="22"/>
+      <c r="F288" s="22"/>
+      <c r="G288" s="22"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="18"/>
       <c r="B289" s="19"/>
       <c r="C289" s="19"/>
       <c r="D289" s="19"/>
-      <c r="E289" s="24"/>
-      <c r="F289" s="24"/>
-      <c r="G289" s="24"/>
+      <c r="E289" s="22"/>
+      <c r="F289" s="22"/>
+      <c r="G289" s="22"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="18"/>
       <c r="B290" s="19"/>
       <c r="C290" s="19"/>
       <c r="D290" s="19"/>
-      <c r="E290" s="24"/>
-      <c r="F290" s="24"/>
-      <c r="G290" s="24"/>
+      <c r="E290" s="22"/>
+      <c r="F290" s="22"/>
+      <c r="G290" s="22"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="18"/>
       <c r="B291" s="19"/>
       <c r="C291" s="19"/>
       <c r="D291" s="19"/>
-      <c r="E291" s="24"/>
-      <c r="F291" s="24"/>
-      <c r="G291" s="24"/>
+      <c r="E291" s="22"/>
+      <c r="F291" s="22"/>
+      <c r="G291" s="22"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="18"/>
       <c r="B292" s="19"/>
       <c r="C292" s="19"/>
       <c r="D292" s="19"/>
-      <c r="E292" s="24"/>
-      <c r="F292" s="24"/>
-      <c r="G292" s="24"/>
+      <c r="E292" s="22"/>
+      <c r="F292" s="22"/>
+      <c r="G292" s="22"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="18"/>
       <c r="B293" s="19"/>
       <c r="C293" s="19"/>
       <c r="D293" s="19"/>
-      <c r="E293" s="24"/>
-      <c r="F293" s="24"/>
-      <c r="G293" s="24"/>
+      <c r="E293" s="22"/>
+      <c r="F293" s="22"/>
+      <c r="G293" s="22"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="18"/>
       <c r="B294" s="19"/>
       <c r="C294" s="19"/>
       <c r="D294" s="19"/>
-      <c r="E294" s="24"/>
-      <c r="F294" s="24"/>
-      <c r="G294" s="24"/>
+      <c r="E294" s="22"/>
+      <c r="F294" s="22"/>
+      <c r="G294" s="22"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="18"/>
       <c r="B295" s="19"/>
       <c r="C295" s="19"/>
       <c r="D295" s="19"/>
-      <c r="E295" s="24"/>
-      <c r="F295" s="24"/>
-      <c r="G295" s="24"/>
+      <c r="E295" s="22"/>
+      <c r="F295" s="22"/>
+      <c r="G295" s="22"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="18"/>
       <c r="B296" s="19"/>
       <c r="C296" s="19"/>
       <c r="D296" s="19"/>
-      <c r="E296" s="24"/>
-      <c r="F296" s="24"/>
-      <c r="G296" s="24"/>
+      <c r="E296" s="22"/>
+      <c r="F296" s="22"/>
+      <c r="G296" s="22"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="18"/>
       <c r="B297" s="19"/>
       <c r="C297" s="19"/>
       <c r="D297" s="19"/>
-      <c r="E297" s="24"/>
-      <c r="F297" s="24"/>
-      <c r="G297" s="24"/>
+      <c r="E297" s="22"/>
+      <c r="F297" s="22"/>
+      <c r="G297" s="22"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="18"/>
       <c r="B298" s="19"/>
       <c r="C298" s="19"/>
       <c r="D298" s="19"/>
-      <c r="E298" s="24"/>
-      <c r="F298" s="24"/>
-      <c r="G298" s="24"/>
+      <c r="E298" s="22"/>
+      <c r="F298" s="22"/>
+      <c r="G298" s="22"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="18"/>
       <c r="B299" s="19"/>
       <c r="C299" s="19"/>
       <c r="D299" s="19"/>
-      <c r="E299" s="24"/>
-      <c r="F299" s="24"/>
-      <c r="G299" s="24"/>
+      <c r="E299" s="22"/>
+      <c r="F299" s="22"/>
+      <c r="G299" s="22"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="18"/>
       <c r="B300" s="19"/>
       <c r="C300" s="19"/>
       <c r="D300" s="19"/>
-      <c r="E300" s="24"/>
-      <c r="F300" s="24"/>
-      <c r="G300" s="24"/>
+      <c r="E300" s="22"/>
+      <c r="F300" s="22"/>
+      <c r="G300" s="22"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="18"/>
       <c r="B301" s="19"/>
       <c r="C301" s="19"/>
       <c r="D301" s="19"/>
-      <c r="E301" s="24"/>
-      <c r="F301" s="24"/>
-      <c r="G301" s="24"/>
+      <c r="E301" s="22"/>
+      <c r="F301" s="22"/>
+      <c r="G301" s="22"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="18"/>
       <c r="B302" s="19"/>
       <c r="C302" s="19"/>
       <c r="D302" s="19"/>
-      <c r="E302" s="24"/>
-      <c r="F302" s="24"/>
-      <c r="G302" s="24"/>
+      <c r="E302" s="22"/>
+      <c r="F302" s="22"/>
+      <c r="G302" s="22"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="18"/>
       <c r="B303" s="19"/>
       <c r="C303" s="19"/>
       <c r="D303" s="19"/>
-      <c r="E303" s="24"/>
-      <c r="F303" s="24"/>
-      <c r="G303" s="24"/>
+      <c r="E303" s="22"/>
+      <c r="F303" s="22"/>
+      <c r="G303" s="22"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="18"/>
       <c r="B304" s="19"/>
       <c r="C304" s="19"/>
       <c r="D304" s="19"/>
-      <c r="E304" s="24"/>
-      <c r="F304" s="24"/>
-      <c r="G304" s="24"/>
+      <c r="E304" s="22"/>
+      <c r="F304" s="22"/>
+      <c r="G304" s="22"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="18"/>
       <c r="B305" s="19"/>
       <c r="C305" s="19"/>
       <c r="D305" s="19"/>
-      <c r="E305" s="24"/>
-      <c r="F305" s="24"/>
-      <c r="G305" s="24"/>
+      <c r="E305" s="22"/>
+      <c r="F305" s="22"/>
+      <c r="G305" s="22"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="18"/>
       <c r="B306" s="19"/>
       <c r="C306" s="19"/>
       <c r="D306" s="19"/>
-      <c r="E306" s="24"/>
-      <c r="F306" s="24"/>
-      <c r="G306" s="24"/>
+      <c r="E306" s="22"/>
+      <c r="F306" s="22"/>
+      <c r="G306" s="22"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="18"/>
       <c r="B307" s="19"/>
       <c r="C307" s="19"/>
       <c r="D307" s="19"/>
-      <c r="E307" s="24"/>
-      <c r="F307" s="24"/>
-      <c r="G307" s="24"/>
+      <c r="E307" s="22"/>
+      <c r="F307" s="22"/>
+      <c r="G307" s="22"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="18"/>
       <c r="B308" s="19"/>
       <c r="C308" s="19"/>
       <c r="D308" s="19"/>
-      <c r="E308" s="24"/>
-      <c r="F308" s="24"/>
-      <c r="G308" s="24"/>
+      <c r="E308" s="22"/>
+      <c r="F308" s="22"/>
+      <c r="G308" s="22"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="18"/>
       <c r="B309" s="19"/>
       <c r="C309" s="19"/>
       <c r="D309" s="19"/>
-      <c r="E309" s="24"/>
-      <c r="F309" s="24"/>
-      <c r="G309" s="24"/>
+      <c r="E309" s="22"/>
+      <c r="F309" s="22"/>
+      <c r="G309" s="22"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="18"/>
       <c r="B310" s="19"/>
       <c r="C310" s="19"/>
       <c r="D310" s="19"/>
-      <c r="E310" s="24"/>
-      <c r="F310" s="24"/>
-      <c r="G310" s="24"/>
+      <c r="E310" s="22"/>
+      <c r="F310" s="22"/>
+      <c r="G310" s="22"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="18"/>
       <c r="B311" s="19"/>
       <c r="C311" s="19"/>
       <c r="D311" s="19"/>
-      <c r="E311" s="24"/>
-      <c r="F311" s="24"/>
-      <c r="G311" s="24"/>
+      <c r="E311" s="22"/>
+      <c r="F311" s="22"/>
+      <c r="G311" s="22"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="18"/>
       <c r="B312" s="19"/>
       <c r="C312" s="19"/>
       <c r="D312" s="19"/>
-      <c r="E312" s="24"/>
-      <c r="F312" s="24"/>
-      <c r="G312" s="24"/>
+      <c r="E312" s="22"/>
+      <c r="F312" s="22"/>
+      <c r="G312" s="22"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="18"/>
       <c r="B313" s="19"/>
       <c r="C313" s="19"/>
       <c r="D313" s="19"/>
-      <c r="E313" s="24"/>
-      <c r="F313" s="24"/>
-      <c r="G313" s="24"/>
+      <c r="E313" s="22"/>
+      <c r="F313" s="22"/>
+      <c r="G313" s="22"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="18"/>
       <c r="B314" s="19"/>
       <c r="C314" s="19"/>
       <c r="D314" s="19"/>
-      <c r="E314" s="24"/>
-      <c r="F314" s="24"/>
-      <c r="G314" s="24"/>
+      <c r="E314" s="22"/>
+      <c r="F314" s="22"/>
+      <c r="G314" s="22"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="18"/>
       <c r="B315" s="19"/>
       <c r="C315" s="19"/>
       <c r="D315" s="19"/>
-      <c r="E315" s="24"/>
-      <c r="F315" s="24"/>
-      <c r="G315" s="24"/>
+      <c r="E315" s="22"/>
+      <c r="F315" s="22"/>
+      <c r="G315" s="22"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="18"/>
       <c r="B316" s="19"/>
       <c r="C316" s="19"/>
       <c r="D316" s="19"/>
-      <c r="E316" s="24"/>
-      <c r="F316" s="24"/>
-      <c r="G316" s="24"/>
+      <c r="E316" s="22"/>
+      <c r="F316" s="22"/>
+      <c r="G316" s="22"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="18"/>
       <c r="B317" s="19"/>
       <c r="C317" s="19"/>
       <c r="D317" s="19"/>
-      <c r="E317" s="24"/>
-      <c r="F317" s="24"/>
-      <c r="G317" s="24"/>
+      <c r="E317" s="22"/>
+      <c r="F317" s="22"/>
+      <c r="G317" s="22"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="18"/>
       <c r="B318" s="19"/>
       <c r="C318" s="19"/>
       <c r="D318" s="19"/>
-      <c r="E318" s="24"/>
-      <c r="F318" s="24"/>
-      <c r="G318" s="24"/>
+      <c r="E318" s="22"/>
+      <c r="F318" s="22"/>
+      <c r="G318" s="22"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="18"/>
       <c r="B319" s="19"/>
       <c r="C319" s="19"/>
       <c r="D319" s="19"/>
-      <c r="E319" s="24"/>
-      <c r="F319" s="24"/>
-      <c r="G319" s="24"/>
+      <c r="E319" s="22"/>
+      <c r="F319" s="22"/>
+      <c r="G319" s="22"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="18"/>
       <c r="B320" s="19"/>
       <c r="C320" s="19"/>
       <c r="D320" s="19"/>
-      <c r="E320" s="24"/>
-      <c r="F320" s="24"/>
-      <c r="G320" s="24"/>
+      <c r="E320" s="22"/>
+      <c r="F320" s="22"/>
+      <c r="G320" s="22"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="18"/>
       <c r="B321" s="19"/>
       <c r="C321" s="19"/>
       <c r="D321" s="19"/>
-      <c r="E321" s="24"/>
-      <c r="F321" s="24"/>
-      <c r="G321" s="24"/>
+      <c r="E321" s="22"/>
+      <c r="F321" s="22"/>
+      <c r="G321" s="22"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="18"/>
       <c r="B322" s="19"/>
       <c r="C322" s="19"/>
       <c r="D322" s="19"/>
-      <c r="E322" s="24"/>
-      <c r="F322" s="24"/>
-      <c r="G322" s="24"/>
+      <c r="E322" s="22"/>
+      <c r="F322" s="22"/>
+      <c r="G322" s="22"/>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="18"/>
       <c r="B323" s="19"/>
       <c r="C323" s="19"/>
       <c r="D323" s="19"/>
-      <c r="E323" s="24"/>
-      <c r="F323" s="24"/>
-      <c r="G323" s="24"/>
+      <c r="E323" s="22"/>
+      <c r="F323" s="22"/>
+      <c r="G323" s="22"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="18"/>
       <c r="B324" s="19"/>
       <c r="C324" s="19"/>
       <c r="D324" s="19"/>
-      <c r="E324" s="24"/>
-      <c r="F324" s="24"/>
-      <c r="G324" s="24"/>
+      <c r="E324" s="22"/>
+      <c r="F324" s="22"/>
+      <c r="G324" s="22"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="18"/>
       <c r="B325" s="19"/>
       <c r="C325" s="19"/>
       <c r="D325" s="19"/>
-      <c r="E325" s="24"/>
-      <c r="F325" s="24"/>
-      <c r="G325" s="24"/>
+      <c r="E325" s="22"/>
+      <c r="F325" s="22"/>
+      <c r="G325" s="22"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="18"/>
       <c r="B326" s="19"/>
       <c r="C326" s="19"/>
       <c r="D326" s="19"/>
-      <c r="E326" s="24"/>
-      <c r="F326" s="24"/>
-      <c r="G326" s="24"/>
+      <c r="E326" s="22"/>
+      <c r="F326" s="22"/>
+      <c r="G326" s="22"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="18"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19"/>
       <c r="D327" s="19"/>
-      <c r="E327" s="24"/>
-      <c r="F327" s="24"/>
-      <c r="G327" s="24"/>
+      <c r="E327" s="22"/>
+      <c r="F327" s="22"/>
+      <c r="G327" s="22"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="18"/>
       <c r="B328" s="19"/>
       <c r="C328" s="19"/>
       <c r="D328" s="19"/>
-      <c r="E328" s="24"/>
-      <c r="F328" s="24"/>
-      <c r="G328" s="24"/>
+      <c r="E328" s="22"/>
+      <c r="F328" s="22"/>
+      <c r="G328" s="22"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="18"/>
       <c r="B329" s="19"/>
       <c r="C329" s="19"/>
       <c r="D329" s="19"/>
-      <c r="E329" s="24"/>
-      <c r="F329" s="24"/>
-      <c r="G329" s="24"/>
+      <c r="E329" s="22"/>
+      <c r="F329" s="22"/>
+      <c r="G329" s="22"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="18"/>
       <c r="B330" s="19"/>
       <c r="C330" s="19"/>
       <c r="D330" s="19"/>
-      <c r="E330" s="24"/>
-      <c r="F330" s="24"/>
-      <c r="G330" s="24"/>
+      <c r="E330" s="22"/>
+      <c r="F330" s="22"/>
+      <c r="G330" s="22"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="18"/>
       <c r="B331" s="19"/>
       <c r="C331" s="19"/>
       <c r="D331" s="19"/>
-      <c r="E331" s="24"/>
-      <c r="F331" s="24"/>
-      <c r="G331" s="24"/>
+      <c r="E331" s="22"/>
+      <c r="F331" s="22"/>
+      <c r="G331" s="22"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="18"/>
       <c r="B332" s="19"/>
       <c r="C332" s="19"/>
       <c r="D332" s="19"/>
-      <c r="E332" s="24"/>
-      <c r="F332" s="24"/>
-      <c r="G332" s="24"/>
+      <c r="E332" s="22"/>
+      <c r="F332" s="22"/>
+      <c r="G332" s="22"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="18"/>
       <c r="B333" s="19"/>
       <c r="C333" s="19"/>
       <c r="D333" s="19"/>
-      <c r="E333" s="24"/>
-      <c r="F333" s="24"/>
-      <c r="G333" s="24"/>
+      <c r="E333" s="22"/>
+      <c r="F333" s="22"/>
+      <c r="G333" s="22"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="18"/>
       <c r="B334" s="19"/>
       <c r="C334" s="19"/>
       <c r="D334" s="19"/>
-      <c r="E334" s="24"/>
-      <c r="F334" s="24"/>
-      <c r="G334" s="24"/>
+      <c r="E334" s="22"/>
+      <c r="F334" s="22"/>
+      <c r="G334" s="22"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="18"/>
       <c r="B335" s="19"/>
       <c r="C335" s="19"/>
       <c r="D335" s="19"/>
-      <c r="E335" s="24"/>
-      <c r="F335" s="24"/>
-      <c r="G335" s="24"/>
+      <c r="E335" s="22"/>
+      <c r="F335" s="22"/>
+      <c r="G335" s="22"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="18"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19"/>
       <c r="D336" s="19"/>
-      <c r="E336" s="24"/>
-      <c r="F336" s="24"/>
-      <c r="G336" s="24"/>
+      <c r="E336" s="22"/>
+      <c r="F336" s="22"/>
+      <c r="G336" s="22"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="18"/>
       <c r="B337" s="19"/>
       <c r="C337" s="19"/>
       <c r="D337" s="19"/>
-      <c r="E337" s="24"/>
-      <c r="F337" s="24"/>
-      <c r="G337" s="24"/>
+      <c r="E337" s="22"/>
+      <c r="F337" s="22"/>
+      <c r="G337" s="22"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="18"/>
       <c r="B338" s="19"/>
       <c r="C338" s="19"/>
       <c r="D338" s="19"/>
-      <c r="E338" s="24"/>
-      <c r="F338" s="24"/>
-      <c r="G338" s="24"/>
+      <c r="E338" s="22"/>
+      <c r="F338" s="22"/>
+      <c r="G338" s="22"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="18"/>
       <c r="B339" s="19"/>
       <c r="C339" s="19"/>
       <c r="D339" s="19"/>
-      <c r="E339" s="24"/>
-      <c r="F339" s="24"/>
-      <c r="G339" s="24"/>
+      <c r="E339" s="22"/>
+      <c r="F339" s="22"/>
+      <c r="G339" s="22"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="18"/>
       <c r="B340" s="19"/>
       <c r="C340" s="19"/>
       <c r="D340" s="19"/>
-      <c r="E340" s="24"/>
-      <c r="F340" s="24"/>
-      <c r="G340" s="24"/>
+      <c r="E340" s="22"/>
+      <c r="F340" s="22"/>
+      <c r="G340" s="22"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="18"/>
       <c r="B341" s="19"/>
       <c r="C341" s="19"/>
       <c r="D341" s="19"/>
-      <c r="E341" s="24"/>
-      <c r="F341" s="24"/>
-      <c r="G341" s="24"/>
+      <c r="E341" s="22"/>
+      <c r="F341" s="22"/>
+      <c r="G341" s="22"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="18"/>
       <c r="B342" s="19"/>
       <c r="C342" s="19"/>
       <c r="D342" s="19"/>
-      <c r="E342" s="24"/>
-      <c r="F342" s="24"/>
-      <c r="G342" s="24"/>
+      <c r="E342" s="22"/>
+      <c r="F342" s="22"/>
+      <c r="G342" s="22"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="18"/>
       <c r="B343" s="19"/>
       <c r="C343" s="19"/>
       <c r="D343" s="19"/>
-      <c r="E343" s="24"/>
-      <c r="F343" s="24"/>
-      <c r="G343" s="24"/>
+      <c r="E343" s="22"/>
+      <c r="F343" s="22"/>
+      <c r="G343" s="22"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="18"/>
       <c r="B344" s="19"/>
       <c r="C344" s="19"/>
       <c r="D344" s="19"/>
-      <c r="E344" s="24"/>
-      <c r="F344" s="24"/>
-      <c r="G344" s="24"/>
+      <c r="E344" s="22"/>
+      <c r="F344" s="22"/>
+      <c r="G344" s="22"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="18"/>
       <c r="B345" s="19"/>
       <c r="C345" s="19"/>
       <c r="D345" s="19"/>
-      <c r="E345" s="24"/>
-      <c r="F345" s="24"/>
-      <c r="G345" s="24"/>
+      <c r="E345" s="22"/>
+      <c r="F345" s="22"/>
+      <c r="G345" s="22"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="18"/>
       <c r="B346" s="19"/>
       <c r="C346" s="19"/>
       <c r="D346" s="19"/>
-      <c r="E346" s="24"/>
-      <c r="F346" s="24"/>
-      <c r="G346" s="24"/>
+      <c r="E346" s="22"/>
+      <c r="F346" s="22"/>
+      <c r="G346" s="22"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="18"/>
       <c r="B347" s="19"/>
       <c r="C347" s="19"/>
       <c r="D347" s="19"/>
-      <c r="E347" s="24"/>
-      <c r="F347" s="24"/>
-      <c r="G347" s="24"/>
+      <c r="E347" s="22"/>
+      <c r="F347" s="22"/>
+      <c r="G347" s="22"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="18"/>
       <c r="B348" s="19"/>
       <c r="C348" s="19"/>
       <c r="D348" s="19"/>
-      <c r="E348" s="24"/>
-      <c r="F348" s="24"/>
-      <c r="G348" s="24"/>
+      <c r="E348" s="22"/>
+      <c r="F348" s="22"/>
+      <c r="G348" s="22"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="18"/>
       <c r="B349" s="19"/>
       <c r="C349" s="19"/>
       <c r="D349" s="19"/>
-      <c r="E349" s="24"/>
-      <c r="F349" s="24"/>
-      <c r="G349" s="24"/>
+      <c r="E349" s="22"/>
+      <c r="F349" s="22"/>
+      <c r="G349" s="22"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="18"/>
       <c r="B350" s="19"/>
       <c r="C350" s="19"/>
       <c r="D350" s="19"/>
-      <c r="E350" s="24"/>
-      <c r="F350" s="24"/>
-      <c r="G350" s="24"/>
+      <c r="E350" s="22"/>
+      <c r="F350" s="22"/>
+      <c r="G350" s="22"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="18"/>
       <c r="B351" s="19"/>
       <c r="C351" s="19"/>
       <c r="D351" s="19"/>
-      <c r="E351" s="24"/>
-      <c r="F351" s="24"/>
-      <c r="G351" s="24"/>
+      <c r="E351" s="22"/>
+      <c r="F351" s="22"/>
+      <c r="G351" s="22"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="18"/>
       <c r="B352" s="19"/>
       <c r="C352" s="19"/>
       <c r="D352" s="19"/>
-      <c r="E352" s="24"/>
-      <c r="F352" s="24"/>
-      <c r="G352" s="24"/>
+      <c r="E352" s="22"/>
+      <c r="F352" s="22"/>
+      <c r="G352" s="22"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="18"/>
       <c r="B353" s="19"/>
       <c r="C353" s="19"/>
       <c r="D353" s="19"/>
-      <c r="E353" s="24"/>
-      <c r="F353" s="24"/>
-      <c r="G353" s="24"/>
+      <c r="E353" s="22"/>
+      <c r="F353" s="22"/>
+      <c r="G353" s="22"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="18"/>
       <c r="B354" s="19"/>
       <c r="C354" s="19"/>
       <c r="D354" s="19"/>
-      <c r="E354" s="24"/>
-      <c r="F354" s="24"/>
-      <c r="G354" s="24"/>
+      <c r="E354" s="22"/>
+      <c r="F354" s="22"/>
+      <c r="G354" s="22"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="18"/>
       <c r="B355" s="19"/>
       <c r="C355" s="19"/>
       <c r="D355" s="19"/>
-      <c r="E355" s="24"/>
-      <c r="F355" s="24"/>
-      <c r="G355" s="24"/>
+      <c r="E355" s="22"/>
+      <c r="F355" s="22"/>
+      <c r="G355" s="22"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="18"/>
       <c r="B356" s="19"/>
       <c r="C356" s="19"/>
       <c r="D356" s="19"/>
-      <c r="E356" s="24"/>
-      <c r="F356" s="24"/>
-      <c r="G356" s="24"/>
+      <c r="E356" s="22"/>
+      <c r="F356" s="22"/>
+      <c r="G356" s="22"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="18"/>
       <c r="B357" s="19"/>
       <c r="C357" s="19"/>
       <c r="D357" s="19"/>
-      <c r="E357" s="24"/>
-      <c r="F357" s="24"/>
-      <c r="G357" s="24"/>
+      <c r="E357" s="22"/>
+      <c r="F357" s="22"/>
+      <c r="G357" s="22"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="18"/>
       <c r="B358" s="19"/>
       <c r="C358" s="19"/>
       <c r="D358" s="19"/>
-      <c r="E358" s="24"/>
-      <c r="F358" s="24"/>
-      <c r="G358" s="24"/>
+      <c r="E358" s="22"/>
+      <c r="F358" s="22"/>
+      <c r="G358" s="22"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="18"/>
       <c r="B359" s="19"/>
       <c r="C359" s="19"/>
       <c r="D359" s="19"/>
-      <c r="E359" s="24"/>
-      <c r="F359" s="24"/>
-      <c r="G359" s="24"/>
+      <c r="E359" s="22"/>
+      <c r="F359" s="22"/>
+      <c r="G359" s="22"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="18"/>
       <c r="B360" s="19"/>
       <c r="C360" s="19"/>
       <c r="D360" s="19"/>
-      <c r="E360" s="24"/>
-      <c r="F360" s="24"/>
-      <c r="G360" s="24"/>
+      <c r="E360" s="22"/>
+      <c r="F360" s="22"/>
+      <c r="G360" s="22"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="18"/>
       <c r="B361" s="19"/>
       <c r="C361" s="19"/>
       <c r="D361" s="19"/>
-      <c r="E361" s="24"/>
-      <c r="F361" s="24"/>
-      <c r="G361" s="24"/>
+      <c r="E361" s="22"/>
+      <c r="F361" s="22"/>
+      <c r="G361" s="22"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="18"/>
       <c r="B362" s="19"/>
       <c r="C362" s="19"/>
       <c r="D362" s="19"/>
-      <c r="E362" s="24"/>
-      <c r="F362" s="24"/>
-      <c r="G362" s="24"/>
+      <c r="E362" s="22"/>
+      <c r="F362" s="22"/>
+      <c r="G362" s="22"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="18"/>
       <c r="B363" s="19"/>
       <c r="C363" s="19"/>
       <c r="D363" s="19"/>
-      <c r="E363" s="24"/>
-      <c r="F363" s="24"/>
-      <c r="G363" s="24"/>
+      <c r="E363" s="22"/>
+      <c r="F363" s="22"/>
+      <c r="G363" s="22"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="18"/>
       <c r="B364" s="19"/>
       <c r="C364" s="19"/>
       <c r="D364" s="19"/>
-      <c r="E364" s="24"/>
-      <c r="F364" s="24"/>
-      <c r="G364" s="24"/>
+      <c r="E364" s="22"/>
+      <c r="F364" s="22"/>
+      <c r="G364" s="22"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="18"/>
       <c r="B365" s="19"/>
       <c r="C365" s="19"/>
       <c r="D365" s="19"/>
-      <c r="E365" s="24"/>
-      <c r="F365" s="24"/>
-      <c r="G365" s="24"/>
+      <c r="E365" s="22"/>
+      <c r="F365" s="22"/>
+      <c r="G365" s="22"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="18"/>
       <c r="B366" s="19"/>
       <c r="C366" s="19"/>
       <c r="D366" s="19"/>
-      <c r="E366" s="24"/>
-      <c r="F366" s="24"/>
-      <c r="G366" s="24"/>
+      <c r="E366" s="22"/>
+      <c r="F366" s="22"/>
+      <c r="G366" s="22"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="18"/>
       <c r="B367" s="19"/>
       <c r="C367" s="19"/>
       <c r="D367" s="19"/>
-      <c r="E367" s="24"/>
-      <c r="F367" s="24"/>
-      <c r="G367" s="24"/>
+      <c r="E367" s="22"/>
+      <c r="F367" s="22"/>
+      <c r="G367" s="22"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="18"/>
       <c r="B368" s="19"/>
       <c r="C368" s="19"/>
       <c r="D368" s="19"/>
-      <c r="E368" s="24"/>
-      <c r="F368" s="24"/>
-      <c r="G368" s="24"/>
+      <c r="E368" s="22"/>
+      <c r="F368" s="22"/>
+      <c r="G368" s="22"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="18"/>
       <c r="B369" s="19"/>
       <c r="C369" s="19"/>
       <c r="D369" s="19"/>
-      <c r="E369" s="24"/>
-      <c r="F369" s="24"/>
-      <c r="G369" s="24"/>
+      <c r="E369" s="22"/>
+      <c r="F369" s="22"/>
+      <c r="G369" s="22"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="18"/>
       <c r="B370" s="19"/>
       <c r="C370" s="19"/>
       <c r="D370" s="19"/>
-      <c r="E370" s="24"/>
-      <c r="F370" s="24"/>
-      <c r="G370" s="24"/>
+      <c r="E370" s="22"/>
+      <c r="F370" s="22"/>
+      <c r="G370" s="22"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="18"/>
       <c r="B371" s="19"/>
       <c r="C371" s="19"/>
       <c r="D371" s="19"/>
-      <c r="E371" s="24"/>
-      <c r="F371" s="24"/>
-      <c r="G371" s="24"/>
+      <c r="E371" s="22"/>
+      <c r="F371" s="22"/>
+      <c r="G371" s="22"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="18"/>
       <c r="B372" s="19"/>
       <c r="C372" s="19"/>
       <c r="D372" s="19"/>
-      <c r="E372" s="24"/>
-      <c r="F372" s="24"/>
-      <c r="G372" s="24"/>
+      <c r="E372" s="22"/>
+      <c r="F372" s="22"/>
+      <c r="G372" s="22"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="18"/>
       <c r="B373" s="19"/>
       <c r="C373" s="19"/>
       <c r="D373" s="19"/>
-      <c r="E373" s="24"/>
-      <c r="F373" s="24"/>
-      <c r="G373" s="24"/>
+      <c r="E373" s="22"/>
+      <c r="F373" s="22"/>
+      <c r="G373" s="22"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="18"/>
       <c r="B374" s="19"/>
       <c r="C374" s="19"/>
       <c r="D374" s="19"/>
-      <c r="E374" s="24"/>
-      <c r="F374" s="24"/>
-      <c r="G374" s="24"/>
+      <c r="E374" s="22"/>
+      <c r="F374" s="22"/>
+      <c r="G374" s="22"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="18"/>
       <c r="B375" s="19"/>
       <c r="C375" s="19"/>
       <c r="D375" s="19"/>
-      <c r="E375" s="24"/>
-      <c r="F375" s="24"/>
-      <c r="G375" s="24"/>
+      <c r="E375" s="22"/>
+      <c r="F375" s="22"/>
+      <c r="G375" s="22"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="18"/>
       <c r="B376" s="19"/>
       <c r="C376" s="19"/>
       <c r="D376" s="19"/>
-      <c r="E376" s="24"/>
-      <c r="F376" s="24"/>
-      <c r="G376" s="24"/>
+      <c r="E376" s="22"/>
+      <c r="F376" s="22"/>
+      <c r="G376" s="22"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="18"/>
       <c r="B377" s="19"/>
       <c r="C377" s="19"/>
       <c r="D377" s="19"/>
-      <c r="E377" s="24"/>
-      <c r="F377" s="24"/>
-      <c r="G377" s="24"/>
+      <c r="E377" s="22"/>
+      <c r="F377" s="22"/>
+      <c r="G377" s="22"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="18"/>
       <c r="B378" s="19"/>
       <c r="C378" s="19"/>
       <c r="D378" s="19"/>
-      <c r="E378" s="24"/>
-      <c r="F378" s="24"/>
-      <c r="G378" s="24"/>
+      <c r="E378" s="22"/>
+      <c r="F378" s="22"/>
+      <c r="G378" s="22"/>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="18"/>
       <c r="B379" s="19"/>
       <c r="C379" s="19"/>
       <c r="D379" s="19"/>
-      <c r="E379" s="24"/>
-      <c r="F379" s="24"/>
-      <c r="G379" s="24"/>
+      <c r="E379" s="22"/>
+      <c r="F379" s="22"/>
+      <c r="G379" s="22"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="18"/>
       <c r="B380" s="19"/>
       <c r="C380" s="19"/>
       <c r="D380" s="19"/>
-      <c r="E380" s="24"/>
-      <c r="F380" s="24"/>
-      <c r="G380" s="24"/>
+      <c r="E380" s="22"/>
+      <c r="F380" s="22"/>
+      <c r="G380" s="22"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="18"/>
       <c r="B381" s="19"/>
       <c r="C381" s="19"/>
       <c r="D381" s="19"/>
-      <c r="E381" s="24"/>
-      <c r="F381" s="24"/>
-      <c r="G381" s="24"/>
+      <c r="E381" s="22"/>
+      <c r="F381" s="22"/>
+      <c r="G381" s="22"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="18"/>
       <c r="B382" s="19"/>
       <c r="C382" s="19"/>
       <c r="D382" s="19"/>
-      <c r="E382" s="24"/>
-      <c r="F382" s="24"/>
-      <c r="G382" s="24"/>
+      <c r="E382" s="22"/>
+      <c r="F382" s="22"/>
+      <c r="G382" s="22"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="18"/>
       <c r="B383" s="19"/>
       <c r="C383" s="19"/>
       <c r="D383" s="19"/>
-      <c r="E383" s="24"/>
-      <c r="F383" s="24"/>
-      <c r="G383" s="24"/>
+      <c r="E383" s="22"/>
+      <c r="F383" s="22"/>
+      <c r="G383" s="22"/>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="18"/>
       <c r="B384" s="19"/>
       <c r="C384" s="19"/>
       <c r="D384" s="19"/>
-      <c r="E384" s="24"/>
-      <c r="F384" s="24"/>
-      <c r="G384" s="24"/>
+      <c r="E384" s="22"/>
+      <c r="F384" s="22"/>
+      <c r="G384" s="22"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="18"/>
       <c r="B385" s="19"/>
       <c r="C385" s="19"/>
       <c r="D385" s="19"/>
-      <c r="E385" s="24"/>
-      <c r="F385" s="24"/>
-      <c r="G385" s="24"/>
+      <c r="E385" s="22"/>
+      <c r="F385" s="22"/>
+      <c r="G385" s="22"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="18"/>
       <c r="B386" s="19"/>
       <c r="C386" s="19"/>
       <c r="D386" s="19"/>
-      <c r="E386" s="24"/>
-      <c r="F386" s="24"/>
-      <c r="G386" s="24"/>
+      <c r="E386" s="22"/>
+      <c r="F386" s="22"/>
+      <c r="G386" s="22"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="18"/>
       <c r="B387" s="19"/>
       <c r="C387" s="19"/>
       <c r="D387" s="19"/>
-      <c r="E387" s="24"/>
-      <c r="F387" s="24"/>
-      <c r="G387" s="24"/>
+      <c r="E387" s="22"/>
+      <c r="F387" s="22"/>
+      <c r="G387" s="22"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="18"/>
       <c r="B388" s="19"/>
       <c r="C388" s="19"/>
       <c r="D388" s="19"/>
-      <c r="E388" s="24"/>
-      <c r="F388" s="24"/>
-      <c r="G388" s="24"/>
+      <c r="E388" s="22"/>
+      <c r="F388" s="22"/>
+      <c r="G388" s="22"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="18"/>
       <c r="B389" s="19"/>
       <c r="C389" s="19"/>
       <c r="D389" s="19"/>
-      <c r="E389" s="24"/>
-      <c r="F389" s="24"/>
-      <c r="G389" s="24"/>
+      <c r="E389" s="22"/>
+      <c r="F389" s="22"/>
+      <c r="G389" s="22"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="18"/>
       <c r="B390" s="19"/>
       <c r="C390" s="19"/>
       <c r="D390" s="19"/>
-      <c r="E390" s="24"/>
-      <c r="F390" s="24"/>
-      <c r="G390" s="24"/>
+      <c r="E390" s="22"/>
+      <c r="F390" s="22"/>
+      <c r="G390" s="22"/>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
-      <c r="E391" s="25"/>
-      <c r="F391" s="25"/>
-      <c r="G391" s="25"/>
+      <c r="E391" s="23"/>
+      <c r="F391" s="23"/>
+      <c r="G391" s="23"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
-      <c r="E392" s="25"/>
-      <c r="F392" s="25"/>
-      <c r="G392" s="25"/>
+      <c r="E392" s="23"/>
+      <c r="F392" s="23"/>
+      <c r="G392" s="23"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
-      <c r="E393" s="25"/>
-      <c r="F393" s="25"/>
-      <c r="G393" s="25"/>
+      <c r="E393" s="23"/>
+      <c r="F393" s="23"/>
+      <c r="G393" s="23"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
-      <c r="E394" s="25"/>
-      <c r="F394" s="25"/>
-      <c r="G394" s="25"/>
+      <c r="E394" s="23"/>
+      <c r="F394" s="23"/>
+      <c r="G394" s="23"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
-      <c r="E395" s="25"/>
-      <c r="F395" s="25"/>
-      <c r="G395" s="25"/>
+      <c r="E395" s="23"/>
+      <c r="F395" s="23"/>
+      <c r="G395" s="23"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
-      <c r="E396" s="25"/>
-      <c r="F396" s="25"/>
-      <c r="G396" s="25"/>
+      <c r="E396" s="23"/>
+      <c r="F396" s="23"/>
+      <c r="G396" s="23"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
-      <c r="E397" s="25"/>
-      <c r="F397" s="25"/>
-      <c r="G397" s="25"/>
+      <c r="E397" s="23"/>
+      <c r="F397" s="23"/>
+      <c r="G397" s="23"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
-      <c r="E398" s="25"/>
-      <c r="F398" s="25"/>
-      <c r="G398" s="25"/>
+      <c r="E398" s="23"/>
+      <c r="F398" s="23"/>
+      <c r="G398" s="23"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
-      <c r="E399" s="25"/>
-      <c r="F399" s="25"/>
-      <c r="G399" s="25"/>
+      <c r="E399" s="23"/>
+      <c r="F399" s="23"/>
+      <c r="G399" s="23"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
-      <c r="E400" s="25"/>
-      <c r="F400" s="25"/>
-      <c r="G400" s="25"/>
+      <c r="E400" s="23"/>
+      <c r="F400" s="23"/>
+      <c r="G400" s="23"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
-      <c r="E401" s="25"/>
-      <c r="F401" s="25"/>
-      <c r="G401" s="25"/>
+      <c r="E401" s="23"/>
+      <c r="F401" s="23"/>
+      <c r="G401" s="23"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
-      <c r="E402" s="25"/>
-      <c r="F402" s="25"/>
-      <c r="G402" s="25"/>
+      <c r="E402" s="23"/>
+      <c r="F402" s="23"/>
+      <c r="G402" s="23"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
-      <c r="E403" s="25"/>
-      <c r="F403" s="25"/>
-      <c r="G403" s="25"/>
+      <c r="E403" s="23"/>
+      <c r="F403" s="23"/>
+      <c r="G403" s="23"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
-      <c r="E404" s="25"/>
-      <c r="F404" s="25"/>
-      <c r="G404" s="25"/>
+      <c r="E404" s="23"/>
+      <c r="F404" s="23"/>
+      <c r="G404" s="23"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
-      <c r="E405" s="25"/>
-      <c r="F405" s="25"/>
-      <c r="G405" s="25"/>
+      <c r="E405" s="23"/>
+      <c r="F405" s="23"/>
+      <c r="G405" s="23"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
-      <c r="E406" s="25"/>
-      <c r="F406" s="25"/>
-      <c r="G406" s="25"/>
+      <c r="E406" s="23"/>
+      <c r="F406" s="23"/>
+      <c r="G406" s="23"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
-      <c r="E407" s="25"/>
-      <c r="F407" s="25"/>
-      <c r="G407" s="25"/>
+      <c r="E407" s="23"/>
+      <c r="F407" s="23"/>
+      <c r="G407" s="23"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
-      <c r="E408" s="25"/>
-      <c r="F408" s="25"/>
-      <c r="G408" s="25"/>
+      <c r="E408" s="23"/>
+      <c r="F408" s="23"/>
+      <c r="G408" s="23"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
-      <c r="E409" s="25"/>
-      <c r="F409" s="25"/>
-      <c r="G409" s="25"/>
+      <c r="E409" s="23"/>
+      <c r="F409" s="23"/>
+      <c r="G409" s="23"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
-      <c r="E410" s="25"/>
-      <c r="F410" s="25"/>
-      <c r="G410" s="25"/>
+      <c r="E410" s="23"/>
+      <c r="F410" s="23"/>
+      <c r="G410" s="23"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
-      <c r="E411" s="25"/>
-      <c r="F411" s="25"/>
-      <c r="G411" s="25"/>
+      <c r="E411" s="23"/>
+      <c r="F411" s="23"/>
+      <c r="G411" s="23"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
-      <c r="E412" s="25"/>
-      <c r="F412" s="25"/>
-      <c r="G412" s="25"/>
+      <c r="E412" s="23"/>
+      <c r="F412" s="23"/>
+      <c r="G412" s="23"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
-      <c r="E413" s="25"/>
-      <c r="F413" s="25"/>
-      <c r="G413" s="25"/>
+      <c r="E413" s="23"/>
+      <c r="F413" s="23"/>
+      <c r="G413" s="23"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
-      <c r="E414" s="25"/>
-      <c r="F414" s="25"/>
-      <c r="G414" s="25"/>
+      <c r="E414" s="23"/>
+      <c r="F414" s="23"/>
+      <c r="G414" s="23"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
-      <c r="E415" s="25"/>
-      <c r="F415" s="25"/>
-      <c r="G415" s="25"/>
+      <c r="E415" s="23"/>
+      <c r="F415" s="23"/>
+      <c r="G415" s="23"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
-      <c r="E416" s="25"/>
-      <c r="F416" s="25"/>
-      <c r="G416" s="25"/>
+      <c r="E416" s="23"/>
+      <c r="F416" s="23"/>
+      <c r="G416" s="23"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
-      <c r="E417" s="25"/>
-      <c r="F417" s="25"/>
-      <c r="G417" s="25"/>
+      <c r="E417" s="23"/>
+      <c r="F417" s="23"/>
+      <c r="G417" s="23"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
-      <c r="E418" s="25"/>
-      <c r="F418" s="25"/>
-      <c r="G418" s="25"/>
+      <c r="E418" s="23"/>
+      <c r="F418" s="23"/>
+      <c r="G418" s="23"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
-      <c r="E419" s="25"/>
-      <c r="F419" s="25"/>
-      <c r="G419" s="25"/>
+      <c r="E419" s="23"/>
+      <c r="F419" s="23"/>
+      <c r="G419" s="23"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
-      <c r="E420" s="25"/>
-      <c r="F420" s="25"/>
-      <c r="G420" s="25"/>
+      <c r="E420" s="23"/>
+      <c r="F420" s="23"/>
+      <c r="G420" s="23"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
-      <c r="E421" s="25"/>
-      <c r="F421" s="25"/>
-      <c r="G421" s="25"/>
+      <c r="E421" s="23"/>
+      <c r="F421" s="23"/>
+      <c r="G421" s="23"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
-      <c r="E422" s="25"/>
-      <c r="F422" s="25"/>
-      <c r="G422" s="25"/>
+      <c r="E422" s="23"/>
+      <c r="F422" s="23"/>
+      <c r="G422" s="23"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
-      <c r="E423" s="25"/>
-      <c r="F423" s="25"/>
-      <c r="G423" s="25"/>
+      <c r="E423" s="23"/>
+      <c r="F423" s="23"/>
+      <c r="G423" s="23"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
-      <c r="E424" s="25"/>
-      <c r="F424" s="25"/>
-      <c r="G424" s="25"/>
+      <c r="E424" s="23"/>
+      <c r="F424" s="23"/>
+      <c r="G424" s="23"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
-      <c r="E425" s="25"/>
-      <c r="F425" s="25"/>
-      <c r="G425" s="25"/>
+      <c r="E425" s="23"/>
+      <c r="F425" s="23"/>
+      <c r="G425" s="23"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
-      <c r="E426" s="25"/>
-      <c r="F426" s="25"/>
-      <c r="G426" s="25"/>
+      <c r="E426" s="23"/>
+      <c r="F426" s="23"/>
+      <c r="G426" s="23"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
-      <c r="E427" s="25"/>
-      <c r="F427" s="25"/>
-      <c r="G427" s="25"/>
+      <c r="E427" s="23"/>
+      <c r="F427" s="23"/>
+      <c r="G427" s="23"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
-      <c r="E428" s="25"/>
-      <c r="F428" s="25"/>
-      <c r="G428" s="25"/>
+      <c r="E428" s="23"/>
+      <c r="F428" s="23"/>
+      <c r="G428" s="23"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
-      <c r="E429" s="25"/>
-      <c r="F429" s="25"/>
-      <c r="G429" s="25"/>
+      <c r="E429" s="23"/>
+      <c r="F429" s="23"/>
+      <c r="G429" s="23"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
-      <c r="E430" s="25"/>
-      <c r="F430" s="25"/>
-      <c r="G430" s="25"/>
+      <c r="E430" s="23"/>
+      <c r="F430" s="23"/>
+      <c r="G430" s="23"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
-      <c r="E431" s="25"/>
-      <c r="F431" s="25"/>
-      <c r="G431" s="25"/>
+      <c r="E431" s="23"/>
+      <c r="F431" s="23"/>
+      <c r="G431" s="23"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
-      <c r="E432" s="25"/>
-      <c r="F432" s="25"/>
-      <c r="G432" s="25"/>
+      <c r="E432" s="23"/>
+      <c r="F432" s="23"/>
+      <c r="G432" s="23"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
-      <c r="E433" s="25"/>
-      <c r="F433" s="25"/>
-      <c r="G433" s="25"/>
+      <c r="E433" s="23"/>
+      <c r="F433" s="23"/>
+      <c r="G433" s="23"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
-      <c r="E434" s="25"/>
-      <c r="F434" s="25"/>
-      <c r="G434" s="25"/>
+      <c r="E434" s="23"/>
+      <c r="F434" s="23"/>
+      <c r="G434" s="23"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
-      <c r="E435" s="25"/>
-      <c r="F435" s="25"/>
-      <c r="G435" s="25"/>
+      <c r="E435" s="23"/>
+      <c r="F435" s="23"/>
+      <c r="G435" s="23"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
-      <c r="E436" s="25"/>
-      <c r="F436" s="25"/>
-      <c r="G436" s="25"/>
+      <c r="E436" s="23"/>
+      <c r="F436" s="23"/>
+      <c r="G436" s="23"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
-      <c r="E437" s="25"/>
-      <c r="F437" s="25"/>
-      <c r="G437" s="25"/>
+      <c r="E437" s="23"/>
+      <c r="F437" s="23"/>
+      <c r="G437" s="23"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
-      <c r="E438" s="25"/>
-      <c r="F438" s="25"/>
-      <c r="G438" s="25"/>
+      <c r="E438" s="23"/>
+      <c r="F438" s="23"/>
+      <c r="G438" s="23"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
-      <c r="E439" s="25"/>
-      <c r="F439" s="25"/>
-      <c r="G439" s="25"/>
+      <c r="E439" s="23"/>
+      <c r="F439" s="23"/>
+      <c r="G439" s="23"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
-      <c r="E440" s="25"/>
-      <c r="F440" s="25"/>
-      <c r="G440" s="25"/>
+      <c r="E440" s="23"/>
+      <c r="F440" s="23"/>
+      <c r="G440" s="23"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
-      <c r="E441" s="25"/>
-      <c r="F441" s="25"/>
-      <c r="G441" s="25"/>
+      <c r="E441" s="23"/>
+      <c r="F441" s="23"/>
+      <c r="G441" s="23"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
-      <c r="E442" s="25"/>
-      <c r="F442" s="25"/>
-      <c r="G442" s="25"/>
+      <c r="E442" s="23"/>
+      <c r="F442" s="23"/>
+      <c r="G442" s="23"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
-      <c r="E443" s="25"/>
-      <c r="F443" s="25"/>
-      <c r="G443" s="25"/>
+      <c r="E443" s="23"/>
+      <c r="F443" s="23"/>
+      <c r="G443" s="23"/>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
-      <c r="E444" s="25"/>
-      <c r="F444" s="25"/>
-      <c r="G444" s="25"/>
+      <c r="E444" s="23"/>
+      <c r="F444" s="23"/>
+      <c r="G444" s="23"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
-      <c r="E445" s="25"/>
-      <c r="F445" s="25"/>
-      <c r="G445" s="25"/>
+      <c r="E445" s="23"/>
+      <c r="F445" s="23"/>
+      <c r="G445" s="23"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
-      <c r="E446" s="25"/>
-      <c r="F446" s="25"/>
-      <c r="G446" s="25"/>
+      <c r="E446" s="23"/>
+      <c r="F446" s="23"/>
+      <c r="G446" s="23"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
-      <c r="E447" s="25"/>
-      <c r="F447" s="25"/>
-      <c r="G447" s="25"/>
+      <c r="E447" s="23"/>
+      <c r="F447" s="23"/>
+      <c r="G447" s="23"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
-      <c r="E448" s="25"/>
-      <c r="F448" s="25"/>
-      <c r="G448" s="25"/>
+      <c r="E448" s="23"/>
+      <c r="F448" s="23"/>
+      <c r="G448" s="23"/>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
-      <c r="E449" s="25"/>
-      <c r="F449" s="25"/>
-      <c r="G449" s="25"/>
+      <c r="E449" s="23"/>
+      <c r="F449" s="23"/>
+      <c r="G449" s="23"/>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
-      <c r="E450" s="25"/>
-      <c r="F450" s="25"/>
-      <c r="G450" s="25"/>
+      <c r="E450" s="23"/>
+      <c r="F450" s="23"/>
+      <c r="G450" s="23"/>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
-      <c r="E451" s="25"/>
-      <c r="F451" s="25"/>
-      <c r="G451" s="25"/>
+      <c r="E451" s="23"/>
+      <c r="F451" s="23"/>
+      <c r="G451" s="23"/>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
-      <c r="E452" s="25"/>
-      <c r="F452" s="25"/>
-      <c r="G452" s="25"/>
+      <c r="E452" s="23"/>
+      <c r="F452" s="23"/>
+      <c r="G452" s="23"/>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
-      <c r="E453" s="25"/>
-      <c r="F453" s="25"/>
-      <c r="G453" s="25"/>
+      <c r="E453" s="23"/>
+      <c r="F453" s="23"/>
+      <c r="G453" s="23"/>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
       <c r="D454" s="5"/>
-      <c r="E454" s="25"/>
-      <c r="F454" s="25"/>
-      <c r="G454" s="25"/>
+      <c r="E454" s="23"/>
+      <c r="F454" s="23"/>
+      <c r="G454" s="23"/>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
       <c r="D455" s="5"/>
-      <c r="E455" s="25"/>
-      <c r="F455" s="25"/>
-      <c r="G455" s="25"/>
+      <c r="E455" s="23"/>
+      <c r="F455" s="23"/>
+      <c r="G455" s="23"/>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
       <c r="D456" s="5"/>
-      <c r="E456" s="25"/>
-      <c r="F456" s="25"/>
-      <c r="G456" s="25"/>
+      <c r="E456" s="23"/>
+      <c r="F456" s="23"/>
+      <c r="G456" s="23"/>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
-      <c r="E457" s="25"/>
-      <c r="F457" s="25"/>
-      <c r="G457" s="25"/>
+      <c r="E457" s="23"/>
+      <c r="F457" s="23"/>
+      <c r="G457" s="23"/>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
-      <c r="E458" s="25"/>
-      <c r="F458" s="25"/>
-      <c r="G458" s="25"/>
+      <c r="E458" s="23"/>
+      <c r="F458" s="23"/>
+      <c r="G458" s="23"/>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
-      <c r="E459" s="25"/>
-      <c r="F459" s="25"/>
-      <c r="G459" s="25"/>
+      <c r="E459" s="23"/>
+      <c r="F459" s="23"/>
+      <c r="G459" s="23"/>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
-      <c r="E460" s="25"/>
-      <c r="F460" s="25"/>
-      <c r="G460" s="25"/>
+      <c r="E460" s="23"/>
+      <c r="F460" s="23"/>
+      <c r="G460" s="23"/>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
-      <c r="E461" s="25"/>
-      <c r="F461" s="25"/>
-      <c r="G461" s="25"/>
+      <c r="E461" s="23"/>
+      <c r="F461" s="23"/>
+      <c r="G461" s="23"/>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
-      <c r="E462" s="25"/>
-      <c r="F462" s="25"/>
-      <c r="G462" s="25"/>
+      <c r="E462" s="23"/>
+      <c r="F462" s="23"/>
+      <c r="G462" s="23"/>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
-      <c r="E463" s="25"/>
-      <c r="F463" s="25"/>
-      <c r="G463" s="25"/>
+      <c r="E463" s="23"/>
+      <c r="F463" s="23"/>
+      <c r="G463" s="23"/>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
-      <c r="E464" s="25"/>
-      <c r="F464" s="25"/>
-      <c r="G464" s="25"/>
+      <c r="E464" s="23"/>
+      <c r="F464" s="23"/>
+      <c r="G464" s="23"/>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
-      <c r="E465" s="25"/>
-      <c r="F465" s="25"/>
-      <c r="G465" s="25"/>
+      <c r="E465" s="23"/>
+      <c r="F465" s="23"/>
+      <c r="G465" s="23"/>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
-      <c r="E466" s="25"/>
-      <c r="F466" s="25"/>
-      <c r="G466" s="25"/>
+      <c r="E466" s="23"/>
+      <c r="F466" s="23"/>
+      <c r="G466" s="23"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
-      <c r="E467" s="25"/>
-      <c r="F467" s="25"/>
-      <c r="G467" s="25"/>
+      <c r="E467" s="23"/>
+      <c r="F467" s="23"/>
+      <c r="G467" s="23"/>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
-      <c r="E468" s="25"/>
-      <c r="F468" s="25"/>
-      <c r="G468" s="25"/>
+      <c r="E468" s="23"/>
+      <c r="F468" s="23"/>
+      <c r="G468" s="23"/>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
-      <c r="E469" s="25"/>
-      <c r="F469" s="25"/>
-      <c r="G469" s="25"/>
+      <c r="E469" s="23"/>
+      <c r="F469" s="23"/>
+      <c r="G469" s="23"/>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
-      <c r="E470" s="25"/>
-      <c r="F470" s="25"/>
-      <c r="G470" s="25"/>
+      <c r="E470" s="23"/>
+      <c r="F470" s="23"/>
+      <c r="G470" s="23"/>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
-      <c r="E471" s="25"/>
-      <c r="F471" s="25"/>
-      <c r="G471" s="25"/>
+      <c r="E471" s="23"/>
+      <c r="F471" s="23"/>
+      <c r="G471" s="23"/>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
-      <c r="E472" s="25"/>
-      <c r="F472" s="25"/>
-      <c r="G472" s="25"/>
+      <c r="E472" s="23"/>
+      <c r="F472" s="23"/>
+      <c r="G472" s="23"/>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
-      <c r="E473" s="25"/>
-      <c r="F473" s="25"/>
-      <c r="G473" s="25"/>
+      <c r="E473" s="23"/>
+      <c r="F473" s="23"/>
+      <c r="G473" s="23"/>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
-      <c r="E474" s="25"/>
-      <c r="F474" s="25"/>
-      <c r="G474" s="25"/>
+      <c r="E474" s="23"/>
+      <c r="F474" s="23"/>
+      <c r="G474" s="23"/>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
-      <c r="E475" s="25"/>
-      <c r="F475" s="25"/>
-      <c r="G475" s="25"/>
+      <c r="E475" s="23"/>
+      <c r="F475" s="23"/>
+      <c r="G475" s="23"/>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
-      <c r="E476" s="25"/>
-      <c r="F476" s="25"/>
-      <c r="G476" s="25"/>
+      <c r="E476" s="23"/>
+      <c r="F476" s="23"/>
+      <c r="G476" s="23"/>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
-      <c r="E477" s="25"/>
-      <c r="F477" s="25"/>
-      <c r="G477" s="25"/>
+      <c r="E477" s="23"/>
+      <c r="F477" s="23"/>
+      <c r="G477" s="23"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
       <c r="D478" s="5"/>
-      <c r="E478" s="25"/>
-      <c r="F478" s="25"/>
-      <c r="G478" s="25"/>
+      <c r="E478" s="23"/>
+      <c r="F478" s="23"/>
+      <c r="G478" s="23"/>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
       <c r="D479" s="5"/>
-      <c r="E479" s="25"/>
-      <c r="F479" s="25"/>
-      <c r="G479" s="25"/>
+      <c r="E479" s="23"/>
+      <c r="F479" s="23"/>
+      <c r="G479" s="23"/>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
-      <c r="E480" s="25"/>
-      <c r="F480" s="25"/>
-      <c r="G480" s="25"/>
+      <c r="E480" s="23"/>
+      <c r="F480" s="23"/>
+      <c r="G480" s="23"/>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
-      <c r="E481" s="25"/>
-      <c r="F481" s="25"/>
-      <c r="G481" s="25"/>
+      <c r="E481" s="23"/>
+      <c r="F481" s="23"/>
+      <c r="G481" s="23"/>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
-      <c r="E482" s="25"/>
-      <c r="F482" s="25"/>
-      <c r="G482" s="25"/>
+      <c r="E482" s="23"/>
+      <c r="F482" s="23"/>
+      <c r="G482" s="23"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
       <c r="D483" s="5"/>
-      <c r="E483" s="25"/>
-      <c r="F483" s="25"/>
-      <c r="G483" s="25"/>
+      <c r="E483" s="23"/>
+      <c r="F483" s="23"/>
+      <c r="G483" s="23"/>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
       <c r="D484" s="5"/>
-      <c r="E484" s="25"/>
-      <c r="F484" s="25"/>
-      <c r="G484" s="25"/>
+      <c r="E484" s="23"/>
+      <c r="F484" s="23"/>
+      <c r="G484" s="23"/>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
       <c r="D485" s="5"/>
-      <c r="E485" s="25"/>
-      <c r="F485" s="25"/>
-      <c r="G485" s="25"/>
+      <c r="E485" s="23"/>
+      <c r="F485" s="23"/>
+      <c r="G485" s="23"/>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
       <c r="D486" s="5"/>
-      <c r="E486" s="25"/>
-      <c r="F486" s="25"/>
-      <c r="G486" s="25"/>
+      <c r="E486" s="23"/>
+      <c r="F486" s="23"/>
+      <c r="G486" s="23"/>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
-      <c r="E487" s="25"/>
-      <c r="F487" s="25"/>
-      <c r="G487" s="25"/>
+      <c r="E487" s="23"/>
+      <c r="F487" s="23"/>
+      <c r="G487" s="23"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
-      <c r="E488" s="25"/>
-      <c r="F488" s="25"/>
-      <c r="G488" s="25"/>
+      <c r="E488" s="23"/>
+      <c r="F488" s="23"/>
+      <c r="G488" s="23"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
-      <c r="E489" s="25"/>
-      <c r="F489" s="25"/>
-      <c r="G489" s="25"/>
+      <c r="E489" s="23"/>
+      <c r="F489" s="23"/>
+      <c r="G489" s="23"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
       <c r="D490" s="5"/>
-      <c r="E490" s="25"/>
-      <c r="F490" s="25"/>
-      <c r="G490" s="25"/>
+      <c r="E490" s="23"/>
+      <c r="F490" s="23"/>
+      <c r="G490" s="23"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
       <c r="D491" s="5"/>
-      <c r="E491" s="25"/>
-      <c r="F491" s="25"/>
-      <c r="G491" s="25"/>
+      <c r="E491" s="23"/>
+      <c r="F491" s="23"/>
+      <c r="G491" s="23"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
       <c r="D492" s="5"/>
-      <c r="E492" s="25"/>
-      <c r="F492" s="25"/>
-      <c r="G492" s="25"/>
+      <c r="E492" s="23"/>
+      <c r="F492" s="23"/>
+      <c r="G492" s="23"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
       <c r="D493" s="5"/>
-      <c r="E493" s="25"/>
-      <c r="F493" s="25"/>
-      <c r="G493" s="25"/>
+      <c r="E493" s="23"/>
+      <c r="F493" s="23"/>
+      <c r="G493" s="23"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
       <c r="D494" s="5"/>
-      <c r="E494" s="25"/>
-      <c r="F494" s="25"/>
-      <c r="G494" s="25"/>
+      <c r="E494" s="23"/>
+      <c r="F494" s="23"/>
+      <c r="G494" s="23"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
       <c r="D495" s="5"/>
-      <c r="E495" s="25"/>
-      <c r="F495" s="25"/>
-      <c r="G495" s="25"/>
+      <c r="E495" s="23"/>
+      <c r="F495" s="23"/>
+      <c r="G495" s="23"/>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
       <c r="D496" s="5"/>
-      <c r="E496" s="25"/>
-      <c r="F496" s="25"/>
-      <c r="G496" s="25"/>
+      <c r="E496" s="23"/>
+      <c r="F496" s="23"/>
+      <c r="G496" s="23"/>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
       <c r="D497" s="5"/>
-      <c r="E497" s="25"/>
-      <c r="F497" s="25"/>
-      <c r="G497" s="25"/>
+      <c r="E497" s="23"/>
+      <c r="F497" s="23"/>
+      <c r="G497" s="23"/>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
       <c r="D498" s="5"/>
-      <c r="E498" s="25"/>
-      <c r="F498" s="25"/>
-      <c r="G498" s="25"/>
+      <c r="E498" s="23"/>
+      <c r="F498" s="23"/>
+      <c r="G498" s="23"/>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
-      <c r="E499" s="25"/>
-      <c r="F499" s="25"/>
-      <c r="G499" s="25"/>
+      <c r="E499" s="23"/>
+      <c r="F499" s="23"/>
+      <c r="G499" s="23"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
       <c r="D500" s="5"/>
-      <c r="E500" s="25"/>
-      <c r="F500" s="25"/>
-      <c r="G500" s="25"/>
+      <c r="E500" s="23"/>
+      <c r="F500" s="23"/>
+      <c r="G500" s="23"/>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
       <c r="D501" s="5"/>
-      <c r="E501" s="25"/>
-      <c r="F501" s="25"/>
-      <c r="G501" s="25"/>
+      <c r="E501" s="23"/>
+      <c r="F501" s="23"/>
+      <c r="G501" s="23"/>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
       <c r="D502" s="5"/>
-      <c r="E502" s="25"/>
-      <c r="F502" s="25"/>
-      <c r="G502" s="25"/>
+      <c r="E502" s="23"/>
+      <c r="F502" s="23"/>
+      <c r="G502" s="23"/>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
       <c r="D503" s="5"/>
-      <c r="E503" s="25"/>
-      <c r="F503" s="25"/>
-      <c r="G503" s="25"/>
+      <c r="E503" s="23"/>
+      <c r="F503" s="23"/>
+      <c r="G503" s="23"/>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
       <c r="D504" s="5"/>
-      <c r="E504" s="25"/>
-      <c r="F504" s="25"/>
-      <c r="G504" s="25"/>
+      <c r="E504" s="23"/>
+      <c r="F504" s="23"/>
+      <c r="G504" s="23"/>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
-      <c r="E505" s="25"/>
-      <c r="F505" s="25"/>
-      <c r="G505" s="25"/>
+      <c r="E505" s="23"/>
+      <c r="F505" s="23"/>
+      <c r="G505" s="23"/>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
       <c r="D506" s="5"/>
-      <c r="E506" s="25"/>
-      <c r="F506" s="25"/>
-      <c r="G506" s="25"/>
+      <c r="E506" s="23"/>
+      <c r="F506" s="23"/>
+      <c r="G506" s="23"/>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
       <c r="D507" s="5"/>
-      <c r="E507" s="25"/>
-      <c r="F507" s="25"/>
-      <c r="G507" s="25"/>
+      <c r="E507" s="23"/>
+      <c r="F507" s="23"/>
+      <c r="G507" s="23"/>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
       <c r="D508" s="5"/>
-      <c r="E508" s="25"/>
-      <c r="F508" s="25"/>
-      <c r="G508" s="25"/>
+      <c r="E508" s="23"/>
+      <c r="F508" s="23"/>
+      <c r="G508" s="23"/>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
-      <c r="E509" s="25"/>
-      <c r="F509" s="25"/>
-      <c r="G509" s="25"/>
+      <c r="E509" s="23"/>
+      <c r="F509" s="23"/>
+      <c r="G509" s="23"/>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
       <c r="D510" s="5"/>
-      <c r="E510" s="25"/>
-      <c r="F510" s="25"/>
-      <c r="G510" s="25"/>
+      <c r="E510" s="23"/>
+      <c r="F510" s="23"/>
+      <c r="G510" s="23"/>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
       <c r="D511" s="5"/>
-      <c r="E511" s="25"/>
-      <c r="F511" s="25"/>
-      <c r="G511" s="25"/>
+      <c r="E511" s="23"/>
+      <c r="F511" s="23"/>
+      <c r="G511" s="23"/>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
       <c r="D512" s="5"/>
-      <c r="E512" s="25"/>
-      <c r="F512" s="25"/>
-      <c r="G512" s="25"/>
+      <c r="E512" s="23"/>
+      <c r="F512" s="23"/>
+      <c r="G512" s="23"/>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
       <c r="D513" s="5"/>
-      <c r="E513" s="25"/>
-      <c r="F513" s="25"/>
-      <c r="G513" s="25"/>
+      <c r="E513" s="23"/>
+      <c r="F513" s="23"/>
+      <c r="G513" s="23"/>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
       <c r="D514" s="5"/>
-      <c r="E514" s="25"/>
-      <c r="F514" s="25"/>
-      <c r="G514" s="25"/>
+      <c r="E514" s="23"/>
+      <c r="F514" s="23"/>
+      <c r="G514" s="23"/>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
       <c r="D515" s="5"/>
-      <c r="E515" s="25"/>
-      <c r="F515" s="25"/>
-      <c r="G515" s="25"/>
+      <c r="E515" s="23"/>
+      <c r="F515" s="23"/>
+      <c r="G515" s="23"/>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
       <c r="D516" s="5"/>
-      <c r="E516" s="25"/>
-      <c r="F516" s="25"/>
-      <c r="G516" s="25"/>
+      <c r="E516" s="23"/>
+      <c r="F516" s="23"/>
+      <c r="G516" s="23"/>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
       <c r="D517" s="5"/>
-      <c r="E517" s="25"/>
-      <c r="F517" s="25"/>
-      <c r="G517" s="25"/>
+      <c r="E517" s="23"/>
+      <c r="F517" s="23"/>
+      <c r="G517" s="23"/>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
       <c r="D518" s="5"/>
-      <c r="E518" s="25"/>
-      <c r="F518" s="25"/>
-      <c r="G518" s="25"/>
+      <c r="E518" s="23"/>
+      <c r="F518" s="23"/>
+      <c r="G518" s="23"/>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
-      <c r="E519" s="25"/>
-      <c r="F519" s="25"/>
-      <c r="G519" s="25"/>
+      <c r="E519" s="23"/>
+      <c r="F519" s="23"/>
+      <c r="G519" s="23"/>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
       <c r="D520" s="5"/>
-      <c r="E520" s="25"/>
-      <c r="F520" s="25"/>
-      <c r="G520" s="25"/>
+      <c r="E520" s="23"/>
+      <c r="F520" s="23"/>
+      <c r="G520" s="23"/>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
       <c r="D521" s="5"/>
-      <c r="E521" s="25"/>
-      <c r="F521" s="25"/>
-      <c r="G521" s="25"/>
+      <c r="E521" s="23"/>
+      <c r="F521" s="23"/>
+      <c r="G521" s="23"/>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
       <c r="D522" s="5"/>
-      <c r="E522" s="25"/>
-      <c r="F522" s="25"/>
-      <c r="G522" s="25"/>
+      <c r="E522" s="23"/>
+      <c r="F522" s="23"/>
+      <c r="G522" s="23"/>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
       <c r="D523" s="5"/>
-      <c r="E523" s="25"/>
-      <c r="F523" s="25"/>
-      <c r="G523" s="25"/>
+      <c r="E523" s="23"/>
+      <c r="F523" s="23"/>
+      <c r="G523" s="23"/>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
       <c r="D524" s="5"/>
-      <c r="E524" s="25"/>
-      <c r="F524" s="25"/>
-      <c r="G524" s="25"/>
+      <c r="E524" s="23"/>
+      <c r="F524" s="23"/>
+      <c r="G524" s="23"/>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
       <c r="D525" s="5"/>
-      <c r="E525" s="25"/>
-      <c r="F525" s="25"/>
-      <c r="G525" s="25"/>
+      <c r="E525" s="23"/>
+      <c r="F525" s="23"/>
+      <c r="G525" s="23"/>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
       <c r="D526" s="5"/>
-      <c r="E526" s="25"/>
-      <c r="F526" s="25"/>
-      <c r="G526" s="25"/>
+      <c r="E526" s="23"/>
+      <c r="F526" s="23"/>
+      <c r="G526" s="23"/>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
       <c r="D527" s="5"/>
-      <c r="E527" s="25"/>
-      <c r="F527" s="25"/>
-      <c r="G527" s="25"/>
+      <c r="E527" s="23"/>
+      <c r="F527" s="23"/>
+      <c r="G527" s="23"/>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
       <c r="D528" s="5"/>
-      <c r="E528" s="25"/>
-      <c r="F528" s="25"/>
-      <c r="G528" s="25"/>
+      <c r="E528" s="23"/>
+      <c r="F528" s="23"/>
+      <c r="G528" s="23"/>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
       <c r="D529" s="5"/>
-      <c r="E529" s="25"/>
-      <c r="F529" s="25"/>
-      <c r="G529" s="25"/>
+      <c r="E529" s="23"/>
+      <c r="F529" s="23"/>
+      <c r="G529" s="23"/>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
       <c r="D530" s="5"/>
-      <c r="E530" s="25"/>
-      <c r="F530" s="25"/>
-      <c r="G530" s="25"/>
+      <c r="E530" s="23"/>
+      <c r="F530" s="23"/>
+      <c r="G530" s="23"/>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
       <c r="D531" s="5"/>
-      <c r="E531" s="25"/>
-      <c r="F531" s="25"/>
-      <c r="G531" s="25"/>
+      <c r="E531" s="23"/>
+      <c r="F531" s="23"/>
+      <c r="G531" s="23"/>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
-      <c r="E532" s="25"/>
-      <c r="F532" s="25"/>
-      <c r="G532" s="25"/>
+      <c r="E532" s="23"/>
+      <c r="F532" s="23"/>
+      <c r="G532" s="23"/>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
       <c r="D533" s="5"/>
-      <c r="E533" s="25"/>
-      <c r="F533" s="25"/>
-      <c r="G533" s="25"/>
+      <c r="E533" s="23"/>
+      <c r="F533" s="23"/>
+      <c r="G533" s="23"/>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
       <c r="D534" s="5"/>
-      <c r="E534" s="25"/>
-      <c r="F534" s="25"/>
-      <c r="G534" s="25"/>
+      <c r="E534" s="23"/>
+      <c r="F534" s="23"/>
+      <c r="G534" s="23"/>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
       <c r="D535" s="5"/>
-      <c r="E535" s="25"/>
-      <c r="F535" s="25"/>
-      <c r="G535" s="25"/>
+      <c r="E535" s="23"/>
+      <c r="F535" s="23"/>
+      <c r="G535" s="23"/>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
       <c r="D536" s="5"/>
-      <c r="E536" s="25"/>
-      <c r="F536" s="25"/>
-      <c r="G536" s="25"/>
+      <c r="E536" s="23"/>
+      <c r="F536" s="23"/>
+      <c r="G536" s="23"/>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
-      <c r="E537" s="25"/>
-      <c r="F537" s="25"/>
-      <c r="G537" s="25"/>
+      <c r="E537" s="23"/>
+      <c r="F537" s="23"/>
+      <c r="G537" s="23"/>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
       <c r="D538" s="5"/>
-      <c r="E538" s="25"/>
-      <c r="F538" s="25"/>
-      <c r="G538" s="25"/>
+      <c r="E538" s="23"/>
+      <c r="F538" s="23"/>
+      <c r="G538" s="23"/>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
       <c r="D539" s="5"/>
-      <c r="E539" s="25"/>
-      <c r="F539" s="25"/>
-      <c r="G539" s="25"/>
+      <c r="E539" s="23"/>
+      <c r="F539" s="23"/>
+      <c r="G539" s="23"/>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
       <c r="D540" s="5"/>
-      <c r="E540" s="25"/>
-      <c r="F540" s="25"/>
-      <c r="G540" s="25"/>
+      <c r="E540" s="23"/>
+      <c r="F540" s="23"/>
+      <c r="G540" s="23"/>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
       <c r="D541" s="5"/>
-      <c r="E541" s="25"/>
-      <c r="F541" s="25"/>
-      <c r="G541" s="25"/>
+      <c r="E541" s="23"/>
+      <c r="F541" s="23"/>
+      <c r="G541" s="23"/>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
       <c r="D542" s="5"/>
-      <c r="E542" s="25"/>
-      <c r="F542" s="25"/>
-      <c r="G542" s="25"/>
+      <c r="E542" s="23"/>
+      <c r="F542" s="23"/>
+      <c r="G542" s="23"/>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
       <c r="D543" s="5"/>
-      <c r="E543" s="25"/>
-      <c r="F543" s="25"/>
-      <c r="G543" s="25"/>
+      <c r="E543" s="23"/>
+      <c r="F543" s="23"/>
+      <c r="G543" s="23"/>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
       <c r="D544" s="5"/>
-      <c r="E544" s="25"/>
-      <c r="F544" s="25"/>
-      <c r="G544" s="25"/>
+      <c r="E544" s="23"/>
+      <c r="F544" s="23"/>
+      <c r="G544" s="23"/>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
       <c r="D545" s="5"/>
-      <c r="E545" s="25"/>
-      <c r="F545" s="25"/>
-      <c r="G545" s="25"/>
+      <c r="E545" s="23"/>
+      <c r="F545" s="23"/>
+      <c r="G545" s="23"/>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
-      <c r="E546" s="25"/>
-      <c r="F546" s="25"/>
-      <c r="G546" s="25"/>
+      <c r="E546" s="23"/>
+      <c r="F546" s="23"/>
+      <c r="G546" s="23"/>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
-      <c r="E547" s="25"/>
-      <c r="F547" s="25"/>
-      <c r="G547" s="25"/>
+      <c r="E547" s="23"/>
+      <c r="F547" s="23"/>
+      <c r="G547" s="23"/>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
       <c r="D548" s="5"/>
-      <c r="E548" s="25"/>
-      <c r="F548" s="25"/>
-      <c r="G548" s="25"/>
+      <c r="E548" s="23"/>
+      <c r="F548" s="23"/>
+      <c r="G548" s="23"/>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
       <c r="D549" s="5"/>
-      <c r="E549" s="25"/>
-      <c r="F549" s="25"/>
-      <c r="G549" s="25"/>
+      <c r="E549" s="23"/>
+      <c r="F549" s="23"/>
+      <c r="G549" s="23"/>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
       <c r="D550" s="5"/>
-      <c r="E550" s="25"/>
-      <c r="F550" s="25"/>
-      <c r="G550" s="25"/>
+      <c r="E550" s="23"/>
+      <c r="F550" s="23"/>
+      <c r="G550" s="23"/>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
       <c r="D551" s="5"/>
-      <c r="E551" s="25"/>
-      <c r="F551" s="25"/>
-      <c r="G551" s="25"/>
+      <c r="E551" s="23"/>
+      <c r="F551" s="23"/>
+      <c r="G551" s="23"/>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
       <c r="D552" s="5"/>
-      <c r="E552" s="25"/>
-      <c r="F552" s="25"/>
-      <c r="G552" s="25"/>
+      <c r="E552" s="23"/>
+      <c r="F552" s="23"/>
+      <c r="G552" s="23"/>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
       <c r="D553" s="5"/>
-      <c r="E553" s="25"/>
-      <c r="F553" s="25"/>
-      <c r="G553" s="25"/>
+      <c r="E553" s="23"/>
+      <c r="F553" s="23"/>
+      <c r="G553" s="23"/>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
       <c r="D554" s="5"/>
-      <c r="E554" s="25"/>
-      <c r="F554" s="25"/>
-      <c r="G554" s="25"/>
+      <c r="E554" s="23"/>
+      <c r="F554" s="23"/>
+      <c r="G554" s="23"/>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
       <c r="D555" s="5"/>
-      <c r="E555" s="25"/>
-      <c r="F555" s="25"/>
-      <c r="G555" s="25"/>
+      <c r="E555" s="23"/>
+      <c r="F555" s="23"/>
+      <c r="G555" s="23"/>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
       <c r="D556" s="5"/>
-      <c r="E556" s="25"/>
-      <c r="F556" s="25"/>
-      <c r="G556" s="25"/>
+      <c r="E556" s="23"/>
+      <c r="F556" s="23"/>
+      <c r="G556" s="23"/>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
       <c r="D557" s="5"/>
-      <c r="E557" s="25"/>
-      <c r="F557" s="25"/>
-      <c r="G557" s="25"/>
+      <c r="E557" s="23"/>
+      <c r="F557" s="23"/>
+      <c r="G557" s="23"/>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
       <c r="D558" s="5"/>
-      <c r="E558" s="25"/>
-      <c r="F558" s="25"/>
-      <c r="G558" s="25"/>
+      <c r="E558" s="23"/>
+      <c r="F558" s="23"/>
+      <c r="G558" s="23"/>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
       <c r="D559" s="5"/>
-      <c r="E559" s="25"/>
-      <c r="F559" s="25"/>
-      <c r="G559" s="25"/>
+      <c r="E559" s="23"/>
+      <c r="F559" s="23"/>
+      <c r="G559" s="23"/>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
       <c r="D560" s="5"/>
-      <c r="E560" s="25"/>
-      <c r="F560" s="25"/>
-      <c r="G560" s="25"/>
+      <c r="E560" s="23"/>
+      <c r="F560" s="23"/>
+      <c r="G560" s="23"/>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
       <c r="D561" s="5"/>
-      <c r="E561" s="25"/>
-      <c r="F561" s="25"/>
-      <c r="G561" s="25"/>
+      <c r="E561" s="23"/>
+      <c r="F561" s="23"/>
+      <c r="G561" s="23"/>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
       <c r="D562" s="5"/>
-      <c r="E562" s="25"/>
-      <c r="F562" s="25"/>
-      <c r="G562" s="25"/>
+      <c r="E562" s="23"/>
+      <c r="F562" s="23"/>
+      <c r="G562" s="23"/>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
       <c r="D563" s="5"/>
-      <c r="E563" s="25"/>
-      <c r="F563" s="25"/>
-      <c r="G563" s="25"/>
+      <c r="E563" s="23"/>
+      <c r="F563" s="23"/>
+      <c r="G563" s="23"/>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
       <c r="D564" s="5"/>
-      <c r="E564" s="25"/>
-      <c r="F564" s="25"/>
-      <c r="G564" s="25"/>
+      <c r="E564" s="23"/>
+      <c r="F564" s="23"/>
+      <c r="G564" s="23"/>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
       <c r="D565" s="5"/>
-      <c r="E565" s="25"/>
-      <c r="F565" s="25"/>
-      <c r="G565" s="25"/>
+      <c r="E565" s="23"/>
+      <c r="F565" s="23"/>
+      <c r="G565" s="23"/>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
       <c r="D566" s="5"/>
-      <c r="E566" s="25"/>
-      <c r="F566" s="25"/>
-      <c r="G566" s="25"/>
+      <c r="E566" s="23"/>
+      <c r="F566" s="23"/>
+      <c r="G566" s="23"/>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
       <c r="D567" s="5"/>
-      <c r="E567" s="25"/>
-      <c r="F567" s="25"/>
-      <c r="G567" s="25"/>
+      <c r="E567" s="23"/>
+      <c r="F567" s="23"/>
+      <c r="G567" s="23"/>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
       <c r="D568" s="5"/>
-      <c r="E568" s="25"/>
-      <c r="F568" s="25"/>
-      <c r="G568" s="25"/>
+      <c r="E568" s="23"/>
+      <c r="F568" s="23"/>
+      <c r="G568" s="23"/>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
       <c r="D569" s="5"/>
-      <c r="E569" s="25"/>
-      <c r="F569" s="25"/>
-      <c r="G569" s="25"/>
+      <c r="E569" s="23"/>
+      <c r="F569" s="23"/>
+      <c r="G569" s="23"/>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
       <c r="D570" s="5"/>
-      <c r="E570" s="25"/>
-      <c r="F570" s="25"/>
-      <c r="G570" s="25"/>
+      <c r="E570" s="23"/>
+      <c r="F570" s="23"/>
+      <c r="G570" s="23"/>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
       <c r="D571" s="5"/>
-      <c r="E571" s="25"/>
-      <c r="F571" s="25"/>
-      <c r="G571" s="25"/>
+      <c r="E571" s="23"/>
+      <c r="F571" s="23"/>
+      <c r="G571" s="23"/>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
       <c r="D572" s="5"/>
-      <c r="E572" s="25"/>
-      <c r="F572" s="25"/>
-      <c r="G572" s="25"/>
+      <c r="E572" s="23"/>
+      <c r="F572" s="23"/>
+      <c r="G572" s="23"/>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
       <c r="D573" s="5"/>
-      <c r="E573" s="25"/>
-      <c r="F573" s="25"/>
-      <c r="G573" s="25"/>
+      <c r="E573" s="23"/>
+      <c r="F573" s="23"/>
+      <c r="G573" s="23"/>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
       <c r="D574" s="5"/>
-      <c r="E574" s="25"/>
-      <c r="F574" s="25"/>
-      <c r="G574" s="25"/>
+      <c r="E574" s="23"/>
+      <c r="F574" s="23"/>
+      <c r="G574" s="23"/>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
       <c r="D575" s="5"/>
-      <c r="E575" s="25"/>
-      <c r="F575" s="25"/>
-      <c r="G575" s="25"/>
+      <c r="E575" s="23"/>
+      <c r="F575" s="23"/>
+      <c r="G575" s="23"/>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
       <c r="D576" s="5"/>
-      <c r="E576" s="25"/>
-      <c r="F576" s="25"/>
-      <c r="G576" s="25"/>
+      <c r="E576" s="23"/>
+      <c r="F576" s="23"/>
+      <c r="G576" s="23"/>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
       <c r="D577" s="5"/>
-      <c r="E577" s="25"/>
-      <c r="F577" s="25"/>
-      <c r="G577" s="25"/>
+      <c r="E577" s="23"/>
+      <c r="F577" s="23"/>
+      <c r="G577" s="23"/>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
       <c r="D578" s="5"/>
-      <c r="E578" s="25"/>
-      <c r="F578" s="25"/>
-      <c r="G578" s="25"/>
+      <c r="E578" s="23"/>
+      <c r="F578" s="23"/>
+      <c r="G578" s="23"/>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
       <c r="D579" s="5"/>
-      <c r="E579" s="25"/>
-      <c r="F579" s="25"/>
-      <c r="G579" s="25"/>
+      <c r="E579" s="23"/>
+      <c r="F579" s="23"/>
+      <c r="G579" s="23"/>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
       <c r="D580" s="5"/>
-      <c r="E580" s="25"/>
-      <c r="F580" s="25"/>
-      <c r="G580" s="25"/>
+      <c r="E580" s="23"/>
+      <c r="F580" s="23"/>
+      <c r="G580" s="23"/>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
       <c r="D581" s="5"/>
-      <c r="E581" s="25"/>
-      <c r="F581" s="25"/>
-      <c r="G581" s="25"/>
+      <c r="E581" s="23"/>
+      <c r="F581" s="23"/>
+      <c r="G581" s="23"/>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
       <c r="D582" s="5"/>
-      <c r="E582" s="25"/>
-      <c r="F582" s="25"/>
-      <c r="G582" s="25"/>
+      <c r="E582" s="23"/>
+      <c r="F582" s="23"/>
+      <c r="G582" s="23"/>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
       <c r="D583" s="5"/>
-      <c r="E583" s="25"/>
-      <c r="F583" s="25"/>
-      <c r="G583" s="25"/>
+      <c r="E583" s="23"/>
+      <c r="F583" s="23"/>
+      <c r="G583" s="23"/>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
       <c r="D584" s="5"/>
-      <c r="E584" s="25"/>
-      <c r="F584" s="25"/>
-      <c r="G584" s="25"/>
+      <c r="E584" s="23"/>
+      <c r="F584" s="23"/>
+      <c r="G584" s="23"/>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
       <c r="D585" s="5"/>
-      <c r="E585" s="25"/>
-      <c r="F585" s="25"/>
-      <c r="G585" s="25"/>
+      <c r="E585" s="23"/>
+      <c r="F585" s="23"/>
+      <c r="G585" s="23"/>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
       <c r="D586" s="5"/>
-      <c r="E586" s="25"/>
-      <c r="F586" s="25"/>
-      <c r="G586" s="25"/>
+      <c r="E586" s="23"/>
+      <c r="F586" s="23"/>
+      <c r="G586" s="23"/>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
       <c r="D587" s="5"/>
-      <c r="E587" s="25"/>
-      <c r="F587" s="25"/>
-      <c r="G587" s="25"/>
+      <c r="E587" s="23"/>
+      <c r="F587" s="23"/>
+      <c r="G587" s="23"/>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
       <c r="D588" s="5"/>
-      <c r="E588" s="25"/>
-      <c r="F588" s="25"/>
-      <c r="G588" s="25"/>
+      <c r="E588" s="23"/>
+      <c r="F588" s="23"/>
+      <c r="G588" s="23"/>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
       <c r="D589" s="5"/>
-      <c r="E589" s="25"/>
-      <c r="F589" s="25"/>
-      <c r="G589" s="25"/>
+      <c r="E589" s="23"/>
+      <c r="F589" s="23"/>
+      <c r="G589" s="23"/>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
       <c r="D590" s="5"/>
-      <c r="E590" s="25"/>
-      <c r="F590" s="25"/>
-      <c r="G590" s="25"/>
+      <c r="E590" s="23"/>
+      <c r="F590" s="23"/>
+      <c r="G590" s="23"/>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
       <c r="D591" s="5"/>
-      <c r="E591" s="25"/>
-      <c r="F591" s="25"/>
-      <c r="G591" s="25"/>
+      <c r="E591" s="23"/>
+      <c r="F591" s="23"/>
+      <c r="G591" s="23"/>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
       <c r="D592" s="5"/>
-      <c r="E592" s="25"/>
-      <c r="F592" s="25"/>
-      <c r="G592" s="25"/>
+      <c r="E592" s="23"/>
+      <c r="F592" s="23"/>
+      <c r="G592" s="23"/>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
       <c r="D593" s="5"/>
-      <c r="E593" s="25"/>
-      <c r="F593" s="25"/>
-      <c r="G593" s="25"/>
+      <c r="E593" s="23"/>
+      <c r="F593" s="23"/>
+      <c r="G593" s="23"/>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
       <c r="D594" s="5"/>
-      <c r="E594" s="25"/>
-      <c r="F594" s="25"/>
-      <c r="G594" s="25"/>
+      <c r="E594" s="23"/>
+      <c r="F594" s="23"/>
+      <c r="G594" s="23"/>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
       <c r="D595" s="5"/>
-      <c r="E595" s="25"/>
-      <c r="F595" s="25"/>
-      <c r="G595" s="25"/>
+      <c r="E595" s="23"/>
+      <c r="F595" s="23"/>
+      <c r="G595" s="23"/>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
       <c r="D596" s="5"/>
-      <c r="E596" s="25"/>
-      <c r="F596" s="25"/>
-      <c r="G596" s="25"/>
+      <c r="E596" s="23"/>
+      <c r="F596" s="23"/>
+      <c r="G596" s="23"/>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
       <c r="D597" s="5"/>
-      <c r="E597" s="25"/>
-      <c r="F597" s="25"/>
-      <c r="G597" s="25"/>
+      <c r="E597" s="23"/>
+      <c r="F597" s="23"/>
+      <c r="G597" s="23"/>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
       <c r="D598" s="5"/>
-      <c r="E598" s="25"/>
-      <c r="F598" s="25"/>
-      <c r="G598" s="25"/>
+      <c r="E598" s="23"/>
+      <c r="F598" s="23"/>
+      <c r="G598" s="23"/>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
       <c r="D599" s="5"/>
-      <c r="E599" s="25"/>
-      <c r="F599" s="25"/>
-      <c r="G599" s="25"/>
+      <c r="E599" s="23"/>
+      <c r="F599" s="23"/>
+      <c r="G599" s="23"/>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
       <c r="D600" s="5"/>
-      <c r="E600" s="25"/>
-      <c r="F600" s="25"/>
-      <c r="G600" s="25"/>
+      <c r="E600" s="23"/>
+      <c r="F600" s="23"/>
+      <c r="G600" s="23"/>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
       <c r="D601" s="5"/>
-      <c r="E601" s="25"/>
-      <c r="F601" s="25"/>
-      <c r="G601" s="25"/>
+      <c r="E601" s="23"/>
+      <c r="F601" s="23"/>
+      <c r="G601" s="23"/>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
       <c r="D602" s="5"/>
-      <c r="E602" s="25"/>
-      <c r="F602" s="25"/>
-      <c r="G602" s="25"/>
+      <c r="E602" s="23"/>
+      <c r="F602" s="23"/>
+      <c r="G602" s="23"/>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
       <c r="D603" s="5"/>
-      <c r="E603" s="25"/>
-      <c r="F603" s="25"/>
-      <c r="G603" s="25"/>
+      <c r="E603" s="23"/>
+      <c r="F603" s="23"/>
+      <c r="G603" s="23"/>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
       <c r="D604" s="5"/>
-      <c r="E604" s="25"/>
-      <c r="F604" s="25"/>
-      <c r="G604" s="25"/>
+      <c r="E604" s="23"/>
+      <c r="F604" s="23"/>
+      <c r="G604" s="23"/>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
       <c r="D605" s="5"/>
-      <c r="E605" s="25"/>
-      <c r="F605" s="25"/>
-      <c r="G605" s="25"/>
+      <c r="E605" s="23"/>
+      <c r="F605" s="23"/>
+      <c r="G605" s="23"/>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
       <c r="D606" s="5"/>
-      <c r="E606" s="25"/>
-      <c r="F606" s="25"/>
-      <c r="G606" s="25"/>
+      <c r="E606" s="23"/>
+      <c r="F606" s="23"/>
+      <c r="G606" s="23"/>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
       <c r="D607" s="5"/>
-      <c r="E607" s="25"/>
-      <c r="F607" s="25"/>
-      <c r="G607" s="25"/>
+      <c r="E607" s="23"/>
+      <c r="F607" s="23"/>
+      <c r="G607" s="23"/>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
       <c r="D608" s="5"/>
-      <c r="E608" s="25"/>
-      <c r="F608" s="25"/>
-      <c r="G608" s="25"/>
+      <c r="E608" s="23"/>
+      <c r="F608" s="23"/>
+      <c r="G608" s="23"/>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
       <c r="D609" s="5"/>
-      <c r="E609" s="25"/>
-      <c r="F609" s="25"/>
-      <c r="G609" s="25"/>
+      <c r="E609" s="23"/>
+      <c r="F609" s="23"/>
+      <c r="G609" s="23"/>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
       <c r="D610" s="5"/>
-      <c r="E610" s="25"/>
-      <c r="F610" s="25"/>
-      <c r="G610" s="25"/>
+      <c r="E610" s="23"/>
+      <c r="F610" s="23"/>
+      <c r="G610" s="23"/>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="4"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
       <c r="D611" s="5"/>
-      <c r="E611" s="25"/>
-      <c r="F611" s="25"/>
-      <c r="G611" s="25"/>
+      <c r="E611" s="23"/>
+      <c r="F611" s="23"/>
+      <c r="G611" s="23"/>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="4"/>
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
       <c r="D612" s="5"/>
-      <c r="E612" s="25"/>
-      <c r="F612" s="25"/>
-      <c r="G612" s="25"/>
+      <c r="E612" s="23"/>
+      <c r="F612" s="23"/>
+      <c r="G612" s="23"/>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="4"/>
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
       <c r="D613" s="5"/>
-      <c r="E613" s="25"/>
-      <c r="F613" s="25"/>
-      <c r="G613" s="25"/>
+      <c r="E613" s="23"/>
+      <c r="F613" s="23"/>
+      <c r="G613" s="23"/>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="4"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
       <c r="D614" s="5"/>
-      <c r="E614" s="25"/>
-      <c r="F614" s="25"/>
-      <c r="G614" s="25"/>
+      <c r="E614" s="23"/>
+      <c r="F614" s="23"/>
+      <c r="G614" s="23"/>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="4"/>
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
       <c r="D615" s="5"/>
-      <c r="E615" s="25"/>
-      <c r="F615" s="25"/>
-      <c r="G615" s="25"/>
+      <c r="E615" s="23"/>
+      <c r="F615" s="23"/>
+      <c r="G615" s="23"/>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="4"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
       <c r="D616" s="5"/>
-      <c r="E616" s="25"/>
-      <c r="F616" s="25"/>
-      <c r="G616" s="25"/>
+      <c r="E616" s="23"/>
+      <c r="F616" s="23"/>
+      <c r="G616" s="23"/>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="4"/>
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
       <c r="D617" s="5"/>
-      <c r="E617" s="25"/>
-      <c r="F617" s="25"/>
-      <c r="G617" s="25"/>
+      <c r="E617" s="23"/>
+      <c r="F617" s="23"/>
+      <c r="G617" s="23"/>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="4"/>
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
       <c r="D618" s="5"/>
-      <c r="E618" s="25"/>
-      <c r="F618" s="25"/>
-      <c r="G618" s="25"/>
+      <c r="E618" s="23"/>
+      <c r="F618" s="23"/>
+      <c r="G618" s="23"/>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="4"/>
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
       <c r="D619" s="5"/>
-      <c r="E619" s="25"/>
-      <c r="F619" s="25"/>
-      <c r="G619" s="25"/>
+      <c r="E619" s="23"/>
+      <c r="F619" s="23"/>
+      <c r="G619" s="23"/>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="4"/>
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
       <c r="D620" s="5"/>
-      <c r="E620" s="25"/>
-      <c r="F620" s="25"/>
-      <c r="G620" s="25"/>
+      <c r="E620" s="23"/>
+      <c r="F620" s="23"/>
+      <c r="G620" s="23"/>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="4"/>
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
       <c r="D621" s="5"/>
-      <c r="E621" s="25"/>
-      <c r="F621" s="25"/>
-      <c r="G621" s="25"/>
+      <c r="E621" s="23"/>
+      <c r="F621" s="23"/>
+      <c r="G621" s="23"/>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="4"/>
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
       <c r="D622" s="5"/>
-      <c r="E622" s="25"/>
-      <c r="F622" s="25"/>
-      <c r="G622" s="25"/>
+      <c r="E622" s="23"/>
+      <c r="F622" s="23"/>
+      <c r="G622" s="23"/>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="4"/>
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
       <c r="D623" s="5"/>
-      <c r="E623" s="25"/>
-      <c r="F623" s="25"/>
-      <c r="G623" s="25"/>
+      <c r="E623" s="23"/>
+      <c r="F623" s="23"/>
+      <c r="G623" s="23"/>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="4"/>
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
-      <c r="E624" s="25"/>
-      <c r="F624" s="25"/>
-      <c r="G624" s="25"/>
+      <c r="E624" s="23"/>
+      <c r="F624" s="23"/>
+      <c r="G624" s="23"/>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="4"/>
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
       <c r="D625" s="5"/>
-      <c r="E625" s="25"/>
-      <c r="F625" s="25"/>
-      <c r="G625" s="25"/>
+      <c r="E625" s="23"/>
+      <c r="F625" s="23"/>
+      <c r="G625" s="23"/>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="4"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
       <c r="D626" s="5"/>
-      <c r="E626" s="25"/>
-      <c r="F626" s="25"/>
-      <c r="G626" s="25"/>
+      <c r="E626" s="23"/>
+      <c r="F626" s="23"/>
+      <c r="G626" s="23"/>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="4"/>
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
       <c r="D627" s="5"/>
-      <c r="E627" s="25"/>
-      <c r="F627" s="25"/>
-      <c r="G627" s="25"/>
+      <c r="E627" s="23"/>
+      <c r="F627" s="23"/>
+      <c r="G627" s="23"/>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="4"/>
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
       <c r="D628" s="5"/>
-      <c r="E628" s="25"/>
-      <c r="F628" s="25"/>
-      <c r="G628" s="25"/>
+      <c r="E628" s="23"/>
+      <c r="F628" s="23"/>
+      <c r="G628" s="23"/>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="4"/>
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
       <c r="D629" s="5"/>
-      <c r="E629" s="25"/>
-      <c r="F629" s="25"/>
-      <c r="G629" s="25"/>
+      <c r="E629" s="23"/>
+      <c r="F629" s="23"/>
+      <c r="G629" s="23"/>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="4"/>
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
       <c r="D630" s="5"/>
-      <c r="E630" s="25"/>
-      <c r="F630" s="25"/>
-      <c r="G630" s="25"/>
+      <c r="E630" s="23"/>
+      <c r="F630" s="23"/>
+      <c r="G630" s="23"/>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="4"/>
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
       <c r="D631" s="5"/>
-      <c r="E631" s="25"/>
-      <c r="F631" s="25"/>
-      <c r="G631" s="25"/>
+      <c r="E631" s="23"/>
+      <c r="F631" s="23"/>
+      <c r="G631" s="23"/>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="4"/>
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
       <c r="D632" s="5"/>
-      <c r="E632" s="25"/>
-      <c r="F632" s="25"/>
-      <c r="G632" s="25"/>
+      <c r="E632" s="23"/>
+      <c r="F632" s="23"/>
+      <c r="G632" s="23"/>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="4"/>
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
       <c r="D633" s="5"/>
-      <c r="E633" s="25"/>
-      <c r="F633" s="25"/>
-      <c r="G633" s="25"/>
+      <c r="E633" s="23"/>
+      <c r="F633" s="23"/>
+      <c r="G633" s="23"/>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="4"/>
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
       <c r="D634" s="5"/>
-      <c r="E634" s="25"/>
-      <c r="F634" s="25"/>
-      <c r="G634" s="25"/>
+      <c r="E634" s="23"/>
+      <c r="F634" s="23"/>
+      <c r="G634" s="23"/>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="4"/>
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
       <c r="D635" s="5"/>
-      <c r="E635" s="25"/>
-      <c r="F635" s="25"/>
-      <c r="G635" s="25"/>
+      <c r="E635" s="23"/>
+      <c r="F635" s="23"/>
+      <c r="G635" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:G5" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/web/excel/book_bank/book_bank_format.xlsx
+++ b/web/excel/book_bank/book_bank_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-admon\web\excel\book_bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427B037C-D3E0-4E1A-A75B-719F25F90392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D07D07E-BC51-470A-B078-34C5783B3BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIBRO DE BANCO" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LIBRO DE BANCO'!$A$5:$G$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +69,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-1009]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="mm\-dd\-yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="mm\-dd\-yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -220,29 +219,29 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,12 +525,13 @@
   <dimension ref="A1:G635"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="26" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.140625" customWidth="1"/>
     <col min="4" max="4" width="58.85546875" customWidth="1"/>
@@ -541,45 +541,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="22"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="13"/>
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -602,7 +602,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
@@ -611,7 +611,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -620,7 +620,7 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
@@ -629,7 +629,7 @@
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -638,7 +638,7 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -647,7 +647,7 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -656,7 +656,7 @@
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -665,7 +665,7 @@
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -674,7 +674,7 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -683,7 +683,7 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -692,7 +692,7 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -701,7 +701,7 @@
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -710,7 +710,7 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -719,7 +719,7 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -728,7 +728,7 @@
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -737,7 +737,7 @@
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -746,7 +746,7 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -755,7 +755,7 @@
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -764,7 +764,7 @@
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -773,7 +773,7 @@
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -782,7 +782,7 @@
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -791,7 +791,7 @@
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -800,7 +800,7 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -809,7 +809,7 @@
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -818,7 +818,7 @@
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -827,7 +827,7 @@
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -836,7 +836,7 @@
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -845,7 +845,7 @@
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -854,7 +854,7 @@
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -863,7 +863,7 @@
       <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -872,7 +872,7 @@
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -881,7 +881,7 @@
       <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -890,7 +890,7 @@
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -899,7 +899,7 @@
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -908,7 +908,7 @@
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -917,7 +917,7 @@
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -926,7 +926,7 @@
       <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -935,7 +935,7 @@
       <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -944,7 +944,7 @@
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -953,7 +953,7 @@
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -962,7 +962,7 @@
       <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -971,7 +971,7 @@
       <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -980,7 +980,7 @@
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -989,7 +989,7 @@
       <c r="G48" s="15"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -998,7 +998,7 @@
       <c r="G49" s="15"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -1007,7 +1007,7 @@
       <c r="G50" s="15"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -1016,7 +1016,7 @@
       <c r="G51" s="15"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -1025,7 +1025,7 @@
       <c r="G52" s="15"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -1034,7 +1034,7 @@
       <c r="G53" s="15"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -1043,7 +1043,7 @@
       <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -1052,7 +1052,7 @@
       <c r="G55" s="15"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -1061,7 +1061,7 @@
       <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -1070,7 +1070,7 @@
       <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -1079,7 +1079,7 @@
       <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -1088,7 +1088,7 @@
       <c r="G59" s="15"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -1097,7 +1097,7 @@
       <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -1106,7 +1106,7 @@
       <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -1115,7 +1115,7 @@
       <c r="G62" s="15"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -1124,7 +1124,7 @@
       <c r="G63" s="15"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -1133,7 +1133,7 @@
       <c r="G64" s="15"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -1142,7 +1142,7 @@
       <c r="G65" s="15"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -1151,7 +1151,7 @@
       <c r="G66" s="15"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -1160,7 +1160,7 @@
       <c r="G67" s="15"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -1169,7 +1169,7 @@
       <c r="G68" s="15"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -1178,7 +1178,7 @@
       <c r="G69" s="15"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -1187,7 +1187,7 @@
       <c r="G70" s="15"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -1196,7 +1196,7 @@
       <c r="G71" s="15"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -1205,7 +1205,7 @@
       <c r="G72" s="15"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -1214,7 +1214,7 @@
       <c r="G73" s="15"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -1223,7 +1223,7 @@
       <c r="G74" s="15"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -1232,7 +1232,7 @@
       <c r="G75" s="15"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -1241,7 +1241,7 @@
       <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -1250,7 +1250,7 @@
       <c r="G77" s="15"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -1259,7 +1259,7 @@
       <c r="G78" s="15"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -1268,7 +1268,7 @@
       <c r="G79" s="15"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -1277,7 +1277,7 @@
       <c r="G80" s="15"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
@@ -1286,7 +1286,7 @@
       <c r="G81" s="15"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -1295,7 +1295,7 @@
       <c r="G82" s="15"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -1304,7 +1304,7 @@
       <c r="G83" s="15"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
+      <c r="A84" s="24"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -1313,7 +1313,7 @@
       <c r="G84" s="15"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
@@ -1322,7 +1322,7 @@
       <c r="G85" s="15"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
@@ -1331,7 +1331,7 @@
       <c r="G86" s="15"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
+      <c r="A87" s="24"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -1340,7 +1340,7 @@
       <c r="G87" s="15"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
+      <c r="A88" s="24"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
@@ -1349,7 +1349,7 @@
       <c r="G88" s="15"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
+      <c r="A89" s="24"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
@@ -1358,7 +1358,7 @@
       <c r="G89" s="15"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
+      <c r="A90" s="24"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
@@ -1367,7 +1367,7 @@
       <c r="G90" s="15"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
+      <c r="A91" s="24"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
@@ -1376,7 +1376,7 @@
       <c r="G91" s="15"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
+      <c r="A92" s="24"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
@@ -1385,7 +1385,7 @@
       <c r="G92" s="15"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
+      <c r="A93" s="24"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
@@ -1394,7 +1394,7 @@
       <c r="G93" s="15"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
+      <c r="A94" s="24"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -1403,7 +1403,7 @@
       <c r="G94" s="15"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
+      <c r="A95" s="24"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
@@ -1412,7 +1412,7 @@
       <c r="G95" s="15"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
+      <c r="A96" s="24"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
@@ -1421,7 +1421,7 @@
       <c r="G96" s="15"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
+      <c r="A97" s="24"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
@@ -1430,7 +1430,7 @@
       <c r="G97" s="15"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
+      <c r="A98" s="24"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
@@ -1439,7 +1439,7 @@
       <c r="G98" s="15"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
+      <c r="A99" s="24"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
@@ -1448,7 +1448,7 @@
       <c r="G99" s="15"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="26"/>
+      <c r="A100" s="24"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
@@ -1457,7 +1457,7 @@
       <c r="G100" s="15"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
+      <c r="A101" s="24"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
@@ -1466,7 +1466,7 @@
       <c r="G101" s="15"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
+      <c r="A102" s="24"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
@@ -1475,7 +1475,7 @@
       <c r="G102" s="15"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="26"/>
+      <c r="A103" s="24"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
@@ -1484,7 +1484,7 @@
       <c r="G103" s="15"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="26"/>
+      <c r="A104" s="24"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
@@ -1493,7 +1493,7 @@
       <c r="G104" s="15"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
+      <c r="A105" s="24"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
@@ -1502,7 +1502,7 @@
       <c r="G105" s="15"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="26"/>
+      <c r="A106" s="24"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
@@ -1511,7 +1511,7 @@
       <c r="G106" s="15"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
+      <c r="A107" s="24"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
@@ -1520,7 +1520,7 @@
       <c r="G107" s="15"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
+      <c r="A108" s="24"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
@@ -1529,7 +1529,7 @@
       <c r="G108" s="15"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
+      <c r="A109" s="24"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
@@ -1538,7 +1538,7 @@
       <c r="G109" s="15"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
+      <c r="A110" s="24"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
@@ -1547,7 +1547,7 @@
       <c r="G110" s="15"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="26"/>
+      <c r="A111" s="24"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
@@ -1556,7 +1556,7 @@
       <c r="G111" s="15"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="26"/>
+      <c r="A112" s="24"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
@@ -1565,7 +1565,7 @@
       <c r="G112" s="15"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="26"/>
+      <c r="A113" s="24"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
@@ -1574,7 +1574,7 @@
       <c r="G113" s="15"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="26"/>
+      <c r="A114" s="24"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
@@ -1583,7 +1583,7 @@
       <c r="G114" s="15"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="26"/>
+      <c r="A115" s="24"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
@@ -1592,7 +1592,7 @@
       <c r="G115" s="15"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="26"/>
+      <c r="A116" s="24"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
@@ -1601,7 +1601,7 @@
       <c r="G116" s="15"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="26"/>
+      <c r="A117" s="24"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
@@ -1610,7 +1610,7 @@
       <c r="G117" s="15"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="26"/>
+      <c r="A118" s="24"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
@@ -1619,7 +1619,7 @@
       <c r="G118" s="15"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="26"/>
+      <c r="A119" s="24"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
@@ -1628,7 +1628,7 @@
       <c r="G119" s="15"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="26"/>
+      <c r="A120" s="24"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
@@ -1637,7 +1637,7 @@
       <c r="G120" s="15"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="26"/>
+      <c r="A121" s="24"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
@@ -1646,7 +1646,7 @@
       <c r="G121" s="15"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="26"/>
+      <c r="A122" s="24"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
@@ -1655,7 +1655,7 @@
       <c r="G122" s="15"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="26"/>
+      <c r="A123" s="24"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
@@ -1664,7 +1664,7 @@
       <c r="G123" s="15"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="26"/>
+      <c r="A124" s="24"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
@@ -1673,7 +1673,7 @@
       <c r="G124" s="15"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="26"/>
+      <c r="A125" s="24"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
@@ -1682,7 +1682,7 @@
       <c r="G125" s="15"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="26"/>
+      <c r="A126" s="24"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
@@ -1691,7 +1691,7 @@
       <c r="G126" s="15"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="26"/>
+      <c r="A127" s="24"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
@@ -1700,7 +1700,7 @@
       <c r="G127" s="15"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="26"/>
+      <c r="A128" s="24"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
@@ -1709,7 +1709,7 @@
       <c r="G128" s="15"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="26"/>
+      <c r="A129" s="24"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
@@ -1718,7 +1718,7 @@
       <c r="G129" s="15"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="26"/>
+      <c r="A130" s="24"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
@@ -1727,7 +1727,7 @@
       <c r="G130" s="15"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
+      <c r="A131" s="24"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
@@ -1736,7 +1736,7 @@
       <c r="G131" s="15"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="26"/>
+      <c r="A132" s="24"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
@@ -1745,7 +1745,7 @@
       <c r="G132" s="15"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
+      <c r="A133" s="24"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
       <c r="D133" s="12"/>
@@ -1754,7 +1754,7 @@
       <c r="G133" s="15"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="26"/>
+      <c r="A134" s="24"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
@@ -1763,7 +1763,7 @@
       <c r="G134" s="15"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="26"/>
+      <c r="A135" s="24"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
@@ -1772,7 +1772,7 @@
       <c r="G135" s="15"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="26"/>
+      <c r="A136" s="24"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
@@ -1781,7 +1781,7 @@
       <c r="G136" s="15"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="26"/>
+      <c r="A137" s="24"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
@@ -1790,7 +1790,7 @@
       <c r="G137" s="15"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="26"/>
+      <c r="A138" s="24"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
@@ -1799,7 +1799,7 @@
       <c r="G138" s="15"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="26"/>
+      <c r="A139" s="24"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
@@ -1808,7 +1808,7 @@
       <c r="G139" s="15"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="26"/>
+      <c r="A140" s="24"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
@@ -1817,7 +1817,7 @@
       <c r="G140" s="15"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="26"/>
+      <c r="A141" s="24"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
@@ -1826,7 +1826,7 @@
       <c r="G141" s="15"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="26"/>
+      <c r="A142" s="24"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
@@ -1835,7 +1835,7 @@
       <c r="G142" s="15"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="26"/>
+      <c r="A143" s="24"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
@@ -1844,7 +1844,7 @@
       <c r="G143" s="15"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="26"/>
+      <c r="A144" s="24"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
@@ -1853,7 +1853,7 @@
       <c r="G144" s="15"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="26"/>
+      <c r="A145" s="24"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
@@ -1862,7 +1862,7 @@
       <c r="G145" s="15"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="26"/>
+      <c r="A146" s="24"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
@@ -1871,7 +1871,7 @@
       <c r="G146" s="15"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="26"/>
+      <c r="A147" s="24"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
@@ -1880,7 +1880,7 @@
       <c r="G147" s="15"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="26"/>
+      <c r="A148" s="24"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
@@ -1889,7 +1889,7 @@
       <c r="G148" s="15"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="26"/>
+      <c r="A149" s="24"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
@@ -1898,7 +1898,7 @@
       <c r="G149" s="15"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="26"/>
+      <c r="A150" s="24"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
@@ -1907,7 +1907,7 @@
       <c r="G150" s="15"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="26"/>
+      <c r="A151" s="24"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
@@ -1916,7 +1916,7 @@
       <c r="G151" s="15"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="26"/>
+      <c r="A152" s="24"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
@@ -1925,7 +1925,7 @@
       <c r="G152" s="15"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="26"/>
+      <c r="A153" s="24"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
@@ -1934,7 +1934,7 @@
       <c r="G153" s="15"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="26"/>
+      <c r="A154" s="24"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
@@ -1943,7 +1943,7 @@
       <c r="G154" s="15"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="26"/>
+      <c r="A155" s="24"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
@@ -1952,7 +1952,7 @@
       <c r="G155" s="15"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="26"/>
+      <c r="A156" s="24"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12"/>
@@ -1961,7 +1961,7 @@
       <c r="G156" s="15"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="26"/>
+      <c r="A157" s="24"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
       <c r="D157" s="12"/>
@@ -1970,7 +1970,7 @@
       <c r="G157" s="15"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="26"/>
+      <c r="A158" s="24"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
       <c r="D158" s="12"/>
@@ -1979,7 +1979,7 @@
       <c r="G158" s="15"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="26"/>
+      <c r="A159" s="24"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
@@ -1988,7 +1988,7 @@
       <c r="G159" s="15"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="26"/>
+      <c r="A160" s="24"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
       <c r="D160" s="12"/>
@@ -1997,7 +1997,7 @@
       <c r="G160" s="15"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="26"/>
+      <c r="A161" s="24"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
       <c r="D161" s="12"/>
@@ -2006,7 +2006,7 @@
       <c r="G161" s="15"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="26"/>
+      <c r="A162" s="24"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
@@ -2015,7 +2015,7 @@
       <c r="G162" s="15"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="26"/>
+      <c r="A163" s="24"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
       <c r="D163" s="12"/>
@@ -2024,7 +2024,7 @@
       <c r="G163" s="15"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="26"/>
+      <c r="A164" s="24"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
       <c r="D164" s="12"/>
@@ -2033,7 +2033,7 @@
       <c r="G164" s="15"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="26"/>
+      <c r="A165" s="24"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
       <c r="D165" s="12"/>
@@ -2042,7 +2042,7 @@
       <c r="G165" s="15"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="26"/>
+      <c r="A166" s="24"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
@@ -2051,7 +2051,7 @@
       <c r="G166" s="15"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="26"/>
+      <c r="A167" s="24"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
       <c r="D167" s="12"/>
@@ -2060,7 +2060,7 @@
       <c r="G167" s="15"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="26"/>
+      <c r="A168" s="24"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
       <c r="D168" s="12"/>
@@ -2069,7 +2069,7 @@
       <c r="G168" s="15"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="26"/>
+      <c r="A169" s="24"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
       <c r="D169" s="12"/>
@@ -2078,7 +2078,7 @@
       <c r="G169" s="15"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="26"/>
+      <c r="A170" s="24"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
       <c r="D170" s="12"/>
@@ -2087,7 +2087,7 @@
       <c r="G170" s="15"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="26"/>
+      <c r="A171" s="24"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
       <c r="D171" s="12"/>
@@ -2096,7 +2096,7 @@
       <c r="G171" s="15"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="26"/>
+      <c r="A172" s="24"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
@@ -2105,7 +2105,7 @@
       <c r="G172" s="15"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="26"/>
+      <c r="A173" s="24"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
       <c r="D173" s="12"/>
@@ -2114,7 +2114,7 @@
       <c r="G173" s="15"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="26"/>
+      <c r="A174" s="24"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
       <c r="D174" s="12"/>
@@ -2123,7 +2123,7 @@
       <c r="G174" s="15"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="26"/>
+      <c r="A175" s="24"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
       <c r="D175" s="12"/>
@@ -2132,7 +2132,7 @@
       <c r="G175" s="15"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="26"/>
+      <c r="A176" s="24"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
       <c r="D176" s="12"/>
@@ -2141,7 +2141,7 @@
       <c r="G176" s="15"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="26"/>
+      <c r="A177" s="24"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
       <c r="D177" s="12"/>
@@ -2150,7 +2150,7 @@
       <c r="G177" s="15"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="26"/>
+      <c r="A178" s="24"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
       <c r="D178" s="12"/>
@@ -2159,7 +2159,7 @@
       <c r="G178" s="15"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="26"/>
+      <c r="A179" s="24"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
       <c r="D179" s="12"/>
@@ -2168,7 +2168,7 @@
       <c r="G179" s="15"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="26"/>
+      <c r="A180" s="24"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
       <c r="D180" s="12"/>
@@ -2177,7 +2177,7 @@
       <c r="G180" s="15"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="26"/>
+      <c r="A181" s="24"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
       <c r="D181" s="12"/>
@@ -2186,7 +2186,7 @@
       <c r="G181" s="15"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="26"/>
+      <c r="A182" s="24"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
       <c r="D182" s="12"/>
@@ -2195,7 +2195,7 @@
       <c r="G182" s="15"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="26"/>
+      <c r="A183" s="24"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
       <c r="D183" s="12"/>
@@ -2204,7 +2204,7 @@
       <c r="G183" s="15"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="26"/>
+      <c r="A184" s="24"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
       <c r="D184" s="12"/>
@@ -2213,7 +2213,7 @@
       <c r="G184" s="15"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="26"/>
+      <c r="A185" s="24"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
       <c r="D185" s="12"/>
@@ -2222,7 +2222,7 @@
       <c r="G185" s="15"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="26"/>
+      <c r="A186" s="24"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
       <c r="D186" s="12"/>
@@ -2231,7 +2231,7 @@
       <c r="G186" s="15"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="26"/>
+      <c r="A187" s="24"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
       <c r="D187" s="12"/>
@@ -2240,7 +2240,7 @@
       <c r="G187" s="15"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="26"/>
+      <c r="A188" s="24"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
       <c r="D188" s="12"/>
@@ -2249,7 +2249,7 @@
       <c r="G188" s="15"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="26"/>
+      <c r="A189" s="24"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
       <c r="D189" s="12"/>
@@ -2258,7 +2258,7 @@
       <c r="G189" s="15"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="26"/>
+      <c r="A190" s="24"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
       <c r="D190" s="12"/>
@@ -2267,7 +2267,7 @@
       <c r="G190" s="15"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="26"/>
+      <c r="A191" s="24"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
       <c r="D191" s="12"/>
@@ -2276,7 +2276,7 @@
       <c r="G191" s="15"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="26"/>
+      <c r="A192" s="24"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
       <c r="D192" s="12"/>
@@ -2285,7 +2285,7 @@
       <c r="G192" s="15"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="26"/>
+      <c r="A193" s="24"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
       <c r="D193" s="12"/>
@@ -2294,7 +2294,7 @@
       <c r="G193" s="15"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="26"/>
+      <c r="A194" s="24"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
       <c r="D194" s="12"/>
@@ -2303,7 +2303,7 @@
       <c r="G194" s="15"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="26"/>
+      <c r="A195" s="24"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
       <c r="D195" s="12"/>
@@ -2312,7 +2312,7 @@
       <c r="G195" s="15"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="26"/>
+      <c r="A196" s="24"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
       <c r="D196" s="12"/>
@@ -2321,7 +2321,7 @@
       <c r="G196" s="15"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="26"/>
+      <c r="A197" s="24"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
       <c r="D197" s="12"/>
@@ -2330,7 +2330,7 @@
       <c r="G197" s="15"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="26"/>
+      <c r="A198" s="24"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
       <c r="D198" s="12"/>
@@ -2339,7 +2339,7 @@
       <c r="G198" s="15"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="26"/>
+      <c r="A199" s="24"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
       <c r="D199" s="12"/>
@@ -2348,7 +2348,7 @@
       <c r="G199" s="15"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="26"/>
+      <c r="A200" s="24"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
       <c r="D200" s="12"/>
@@ -2357,7 +2357,7 @@
       <c r="G200" s="15"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="26"/>
+      <c r="A201" s="24"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
       <c r="D201" s="12"/>
@@ -2366,7 +2366,7 @@
       <c r="G201" s="15"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="26"/>
+      <c r="A202" s="24"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
       <c r="D202" s="12"/>
@@ -2375,7 +2375,7 @@
       <c r="G202" s="15"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="26"/>
+      <c r="A203" s="24"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
       <c r="D203" s="12"/>
@@ -2384,7 +2384,7 @@
       <c r="G203" s="15"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="26"/>
+      <c r="A204" s="24"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
       <c r="D204" s="12"/>
@@ -2393,7 +2393,7 @@
       <c r="G204" s="15"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="26"/>
+      <c r="A205" s="24"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
       <c r="D205" s="12"/>
@@ -2402,7 +2402,7 @@
       <c r="G205" s="15"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="26"/>
+      <c r="A206" s="24"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
       <c r="D206" s="12"/>
@@ -2411,7 +2411,7 @@
       <c r="G206" s="15"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="26"/>
+      <c r="A207" s="24"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
       <c r="D207" s="12"/>
@@ -2420,7 +2420,7 @@
       <c r="G207" s="15"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="26"/>
+      <c r="A208" s="24"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
       <c r="D208" s="12"/>
@@ -2429,7 +2429,7 @@
       <c r="G208" s="15"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="26"/>
+      <c r="A209" s="24"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
       <c r="D209" s="12"/>
@@ -2438,7 +2438,7 @@
       <c r="G209" s="15"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="26"/>
+      <c r="A210" s="24"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
       <c r="D210" s="12"/>
@@ -2447,7 +2447,7 @@
       <c r="G210" s="15"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="26"/>
+      <c r="A211" s="24"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
       <c r="D211" s="12"/>
@@ -2456,7 +2456,7 @@
       <c r="G211" s="15"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="26"/>
+      <c r="A212" s="24"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
       <c r="D212" s="12"/>
@@ -2465,7 +2465,7 @@
       <c r="G212" s="15"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="26"/>
+      <c r="A213" s="24"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
       <c r="D213" s="12"/>
@@ -2474,7 +2474,7 @@
       <c r="G213" s="15"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="26"/>
+      <c r="A214" s="24"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
       <c r="D214" s="12"/>
@@ -2483,7 +2483,7 @@
       <c r="G214" s="15"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="26"/>
+      <c r="A215" s="24"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
       <c r="D215" s="12"/>
@@ -2492,7 +2492,7 @@
       <c r="G215" s="15"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="26"/>
+      <c r="A216" s="24"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
       <c r="D216" s="12"/>
@@ -2501,7 +2501,7 @@
       <c r="G216" s="15"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="26"/>
+      <c r="A217" s="24"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
       <c r="D217" s="12"/>
@@ -2510,7 +2510,7 @@
       <c r="G217" s="15"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="26"/>
+      <c r="A218" s="24"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
       <c r="D218" s="12"/>
@@ -2519,7 +2519,7 @@
       <c r="G218" s="15"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="26"/>
+      <c r="A219" s="24"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
       <c r="D219" s="12"/>
@@ -2528,7 +2528,7 @@
       <c r="G219" s="15"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="26"/>
+      <c r="A220" s="24"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
       <c r="D220" s="12"/>
@@ -2537,7 +2537,7 @@
       <c r="G220" s="15"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="26"/>
+      <c r="A221" s="24"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
       <c r="D221" s="12"/>
@@ -2546,7 +2546,7 @@
       <c r="G221" s="15"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="26"/>
+      <c r="A222" s="24"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
       <c r="D222" s="12"/>
@@ -2555,7 +2555,7 @@
       <c r="G222" s="15"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="26"/>
+      <c r="A223" s="24"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
       <c r="D223" s="12"/>
@@ -2564,7 +2564,7 @@
       <c r="G223" s="15"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="26"/>
+      <c r="A224" s="24"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
       <c r="D224" s="12"/>
@@ -2573,7 +2573,7 @@
       <c r="G224" s="15"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="26"/>
+      <c r="A225" s="24"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
       <c r="D225" s="12"/>
@@ -2582,7 +2582,7 @@
       <c r="G225" s="15"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="26"/>
+      <c r="A226" s="24"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
       <c r="D226" s="12"/>
@@ -2591,7 +2591,7 @@
       <c r="G226" s="15"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="26"/>
+      <c r="A227" s="24"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
       <c r="D227" s="12"/>
@@ -2600,7 +2600,7 @@
       <c r="G227" s="15"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="26"/>
+      <c r="A228" s="24"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
       <c r="D228" s="12"/>
@@ -2609,7 +2609,7 @@
       <c r="G228" s="15"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="26"/>
+      <c r="A229" s="24"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
       <c r="D229" s="12"/>
@@ -2618,7 +2618,7 @@
       <c r="G229" s="15"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="26"/>
+      <c r="A230" s="24"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
       <c r="D230" s="12"/>
@@ -2627,7 +2627,7 @@
       <c r="G230" s="15"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="26"/>
+      <c r="A231" s="24"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
       <c r="D231" s="12"/>
@@ -2636,7 +2636,7 @@
       <c r="G231" s="15"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="26"/>
+      <c r="A232" s="24"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
       <c r="D232" s="12"/>
@@ -2645,7 +2645,7 @@
       <c r="G232" s="15"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="26"/>
+      <c r="A233" s="24"/>
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
       <c r="D233" s="12"/>
@@ -2654,7 +2654,7 @@
       <c r="G233" s="15"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="26"/>
+      <c r="A234" s="24"/>
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
       <c r="D234" s="12"/>
@@ -2663,7 +2663,7 @@
       <c r="G234" s="15"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="26"/>
+      <c r="A235" s="24"/>
       <c r="B235" s="12"/>
       <c r="C235" s="12"/>
       <c r="D235" s="12"/>
@@ -2672,7 +2672,7 @@
       <c r="G235" s="15"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="26"/>
+      <c r="A236" s="24"/>
       <c r="B236" s="12"/>
       <c r="C236" s="12"/>
       <c r="D236" s="12"/>
@@ -2681,7 +2681,7 @@
       <c r="G236" s="15"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="26"/>
+      <c r="A237" s="24"/>
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
       <c r="D237" s="12"/>
@@ -2690,7 +2690,7 @@
       <c r="G237" s="15"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="26"/>
+      <c r="A238" s="24"/>
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
       <c r="D238" s="12"/>
@@ -2699,7 +2699,7 @@
       <c r="G238" s="15"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="26"/>
+      <c r="A239" s="24"/>
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
       <c r="D239" s="12"/>
@@ -2708,7 +2708,7 @@
       <c r="G239" s="15"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="26"/>
+      <c r="A240" s="24"/>
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
       <c r="D240" s="12"/>
@@ -2717,7 +2717,7 @@
       <c r="G240" s="15"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="26"/>
+      <c r="A241" s="24"/>
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
       <c r="D241" s="12"/>
@@ -2726,7 +2726,7 @@
       <c r="G241" s="15"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="26"/>
+      <c r="A242" s="24"/>
       <c r="B242" s="12"/>
       <c r="C242" s="12"/>
       <c r="D242" s="12"/>
@@ -2735,7 +2735,7 @@
       <c r="G242" s="15"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="26"/>
+      <c r="A243" s="24"/>
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
       <c r="D243" s="12"/>
@@ -2744,7 +2744,7 @@
       <c r="G243" s="15"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="26"/>
+      <c r="A244" s="24"/>
       <c r="B244" s="12"/>
       <c r="C244" s="12"/>
       <c r="D244" s="12"/>
@@ -2753,7 +2753,7 @@
       <c r="G244" s="15"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="26"/>
+      <c r="A245" s="24"/>
       <c r="B245" s="12"/>
       <c r="C245" s="12"/>
       <c r="D245" s="12"/>
@@ -2762,7 +2762,7 @@
       <c r="G245" s="15"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="26"/>
+      <c r="A246" s="24"/>
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
       <c r="D246" s="12"/>
@@ -2771,7 +2771,7 @@
       <c r="G246" s="15"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="26"/>
+      <c r="A247" s="24"/>
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
       <c r="D247" s="12"/>
@@ -2780,7 +2780,7 @@
       <c r="G247" s="15"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="26"/>
+      <c r="A248" s="24"/>
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
       <c r="D248" s="12"/>
@@ -2789,7 +2789,7 @@
       <c r="G248" s="15"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="26"/>
+      <c r="A249" s="24"/>
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
       <c r="D249" s="12"/>
@@ -2798,7 +2798,7 @@
       <c r="G249" s="15"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="26"/>
+      <c r="A250" s="24"/>
       <c r="B250" s="12"/>
       <c r="C250" s="12"/>
       <c r="D250" s="12"/>
@@ -2807,7 +2807,7 @@
       <c r="G250" s="15"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="26"/>
+      <c r="A251" s="24"/>
       <c r="B251" s="12"/>
       <c r="C251" s="12"/>
       <c r="D251" s="12"/>
@@ -2816,7 +2816,7 @@
       <c r="G251" s="15"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="26"/>
+      <c r="A252" s="24"/>
       <c r="B252" s="12"/>
       <c r="C252" s="12"/>
       <c r="D252" s="12"/>
@@ -2825,7 +2825,7 @@
       <c r="G252" s="15"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="26"/>
+      <c r="A253" s="24"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
       <c r="D253" s="12"/>
@@ -2834,7 +2834,7 @@
       <c r="G253" s="15"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="26"/>
+      <c r="A254" s="24"/>
       <c r="B254" s="12"/>
       <c r="C254" s="12"/>
       <c r="D254" s="12"/>
@@ -2843,7 +2843,7 @@
       <c r="G254" s="15"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="26"/>
+      <c r="A255" s="24"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
       <c r="D255" s="12"/>
@@ -2852,7 +2852,7 @@
       <c r="G255" s="15"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="26"/>
+      <c r="A256" s="24"/>
       <c r="B256" s="12"/>
       <c r="C256" s="12"/>
       <c r="D256" s="12"/>
@@ -2861,7 +2861,7 @@
       <c r="G256" s="15"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="26"/>
+      <c r="A257" s="24"/>
       <c r="B257" s="12"/>
       <c r="C257" s="12"/>
       <c r="D257" s="12"/>
@@ -2870,7 +2870,7 @@
       <c r="G257" s="15"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="26"/>
+      <c r="A258" s="24"/>
       <c r="B258" s="12"/>
       <c r="C258" s="12"/>
       <c r="D258" s="12"/>
@@ -2879,7 +2879,7 @@
       <c r="G258" s="15"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="26"/>
+      <c r="A259" s="24"/>
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
       <c r="D259" s="12"/>
@@ -2888,7 +2888,7 @@
       <c r="G259" s="15"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="26"/>
+      <c r="A260" s="24"/>
       <c r="B260" s="12"/>
       <c r="C260" s="12"/>
       <c r="D260" s="12"/>
@@ -2897,7 +2897,7 @@
       <c r="G260" s="15"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="26"/>
+      <c r="A261" s="24"/>
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
       <c r="D261" s="12"/>
@@ -2906,7 +2906,7 @@
       <c r="G261" s="15"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="26"/>
+      <c r="A262" s="24"/>
       <c r="B262" s="12"/>
       <c r="C262" s="12"/>
       <c r="D262" s="12"/>
@@ -2915,7 +2915,7 @@
       <c r="G262" s="15"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="26"/>
+      <c r="A263" s="24"/>
       <c r="B263" s="12"/>
       <c r="C263" s="12"/>
       <c r="D263" s="12"/>
@@ -2924,7 +2924,7 @@
       <c r="G263" s="15"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="26"/>
+      <c r="A264" s="24"/>
       <c r="B264" s="12"/>
       <c r="C264" s="12"/>
       <c r="D264" s="12"/>
@@ -2933,7 +2933,7 @@
       <c r="G264" s="15"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="26"/>
+      <c r="A265" s="24"/>
       <c r="B265" s="12"/>
       <c r="C265" s="12"/>
       <c r="D265" s="12"/>
@@ -2942,7 +2942,7 @@
       <c r="G265" s="15"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="26"/>
+      <c r="A266" s="24"/>
       <c r="B266" s="12"/>
       <c r="C266" s="12"/>
       <c r="D266" s="12"/>
@@ -2951,7 +2951,7 @@
       <c r="G266" s="15"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="26"/>
+      <c r="A267" s="24"/>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
       <c r="D267" s="12"/>
@@ -2960,7 +2960,7 @@
       <c r="G267" s="15"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="26"/>
+      <c r="A268" s="24"/>
       <c r="B268" s="12"/>
       <c r="C268" s="12"/>
       <c r="D268" s="12"/>
@@ -2969,7 +2969,7 @@
       <c r="G268" s="15"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="26"/>
+      <c r="A269" s="24"/>
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
       <c r="D269" s="12"/>
@@ -2978,7 +2978,7 @@
       <c r="G269" s="15"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="26"/>
+      <c r="A270" s="24"/>
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
       <c r="D270" s="12"/>
@@ -2987,7 +2987,7 @@
       <c r="G270" s="15"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="26"/>
+      <c r="A271" s="24"/>
       <c r="B271" s="12"/>
       <c r="C271" s="12"/>
       <c r="D271" s="12"/>
@@ -2996,7 +2996,7 @@
       <c r="G271" s="15"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="26"/>
+      <c r="A272" s="24"/>
       <c r="B272" s="12"/>
       <c r="C272" s="12"/>
       <c r="D272" s="12"/>
@@ -3005,7 +3005,7 @@
       <c r="G272" s="15"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="26"/>
+      <c r="A273" s="24"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
       <c r="D273" s="12"/>
@@ -3014,7 +3014,7 @@
       <c r="G273" s="15"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="26"/>
+      <c r="A274" s="24"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
       <c r="D274" s="12"/>
@@ -3023,7 +3023,7 @@
       <c r="G274" s="15"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="26"/>
+      <c r="A275" s="24"/>
       <c r="B275" s="12"/>
       <c r="C275" s="12"/>
       <c r="D275" s="12"/>
@@ -3032,7 +3032,7 @@
       <c r="G275" s="15"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="26"/>
+      <c r="A276" s="24"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
       <c r="D276" s="12"/>
@@ -3041,7 +3041,7 @@
       <c r="G276" s="15"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="26"/>
+      <c r="A277" s="24"/>
       <c r="B277" s="12"/>
       <c r="C277" s="12"/>
       <c r="D277" s="12"/>
@@ -3050,7 +3050,7 @@
       <c r="G277" s="15"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="26"/>
+      <c r="A278" s="24"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
       <c r="D278" s="12"/>
@@ -3059,7 +3059,7 @@
       <c r="G278" s="15"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="26"/>
+      <c r="A279" s="24"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
       <c r="D279" s="12"/>
@@ -3068,7 +3068,7 @@
       <c r="G279" s="15"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="26"/>
+      <c r="A280" s="24"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
       <c r="D280" s="12"/>
@@ -3077,7 +3077,7 @@
       <c r="G280" s="15"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="26"/>
+      <c r="A281" s="24"/>
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
       <c r="D281" s="12"/>
@@ -3086,7 +3086,7 @@
       <c r="G281" s="15"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="26"/>
+      <c r="A282" s="24"/>
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
       <c r="D282" s="12"/>
@@ -3095,7 +3095,7 @@
       <c r="G282" s="15"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="26"/>
+      <c r="A283" s="24"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
       <c r="D283" s="12"/>
@@ -3104,7 +3104,7 @@
       <c r="G283" s="15"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="26"/>
+      <c r="A284" s="24"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
       <c r="D284" s="12"/>
@@ -3113,7 +3113,7 @@
       <c r="G284" s="15"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="26"/>
+      <c r="A285" s="24"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
       <c r="D285" s="12"/>
@@ -3122,7 +3122,7 @@
       <c r="G285" s="15"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="26"/>
+      <c r="A286" s="24"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
       <c r="D286" s="12"/>
@@ -3131,7 +3131,7 @@
       <c r="G286" s="15"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="26"/>
+      <c r="A287" s="24"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
       <c r="D287" s="12"/>
@@ -3140,7 +3140,7 @@
       <c r="G287" s="15"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="26"/>
+      <c r="A288" s="24"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
       <c r="D288" s="12"/>
@@ -3149,7 +3149,7 @@
       <c r="G288" s="15"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="26"/>
+      <c r="A289" s="24"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
       <c r="D289" s="12"/>
@@ -3158,7 +3158,7 @@
       <c r="G289" s="15"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="26"/>
+      <c r="A290" s="24"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
       <c r="D290" s="12"/>
@@ -3167,7 +3167,7 @@
       <c r="G290" s="15"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="26"/>
+      <c r="A291" s="24"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
       <c r="D291" s="12"/>
@@ -3176,7 +3176,7 @@
       <c r="G291" s="15"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="26"/>
+      <c r="A292" s="24"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
       <c r="D292" s="12"/>
@@ -3185,7 +3185,7 @@
       <c r="G292" s="15"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="26"/>
+      <c r="A293" s="24"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
       <c r="D293" s="12"/>
@@ -3194,7 +3194,7 @@
       <c r="G293" s="15"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="26"/>
+      <c r="A294" s="24"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
       <c r="D294" s="12"/>
@@ -3203,7 +3203,7 @@
       <c r="G294" s="15"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="26"/>
+      <c r="A295" s="24"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
       <c r="D295" s="12"/>
@@ -3212,7 +3212,7 @@
       <c r="G295" s="15"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="26"/>
+      <c r="A296" s="24"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
       <c r="D296" s="12"/>
@@ -3221,7 +3221,7 @@
       <c r="G296" s="15"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="26"/>
+      <c r="A297" s="24"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
       <c r="D297" s="12"/>
@@ -3230,7 +3230,7 @@
       <c r="G297" s="15"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="26"/>
+      <c r="A298" s="24"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
       <c r="D298" s="12"/>
@@ -3239,7 +3239,7 @@
       <c r="G298" s="15"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="26"/>
+      <c r="A299" s="24"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
       <c r="D299" s="12"/>
@@ -3248,7 +3248,7 @@
       <c r="G299" s="15"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="26"/>
+      <c r="A300" s="24"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
       <c r="D300" s="12"/>
@@ -3257,7 +3257,7 @@
       <c r="G300" s="15"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="26"/>
+      <c r="A301" s="24"/>
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
       <c r="D301" s="12"/>
@@ -3266,7 +3266,7 @@
       <c r="G301" s="15"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="26"/>
+      <c r="A302" s="24"/>
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
       <c r="D302" s="12"/>
@@ -3275,7 +3275,7 @@
       <c r="G302" s="15"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="26"/>
+      <c r="A303" s="24"/>
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
       <c r="D303" s="12"/>
@@ -3284,7 +3284,7 @@
       <c r="G303" s="15"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="26"/>
+      <c r="A304" s="24"/>
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
       <c r="D304" s="12"/>
@@ -3293,7 +3293,7 @@
       <c r="G304" s="15"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="26"/>
+      <c r="A305" s="24"/>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
       <c r="D305" s="12"/>
@@ -3302,7 +3302,7 @@
       <c r="G305" s="15"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="26"/>
+      <c r="A306" s="24"/>
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
       <c r="D306" s="12"/>
@@ -3311,7 +3311,7 @@
       <c r="G306" s="15"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="26"/>
+      <c r="A307" s="24"/>
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
       <c r="D307" s="12"/>
@@ -3320,7 +3320,7 @@
       <c r="G307" s="15"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="26"/>
+      <c r="A308" s="24"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
       <c r="D308" s="12"/>
@@ -3329,7 +3329,7 @@
       <c r="G308" s="15"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" s="26"/>
+      <c r="A309" s="24"/>
       <c r="B309" s="12"/>
       <c r="C309" s="12"/>
       <c r="D309" s="12"/>
@@ -3338,7 +3338,7 @@
       <c r="G309" s="15"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="26"/>
+      <c r="A310" s="24"/>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
       <c r="D310" s="12"/>
@@ -3347,7 +3347,7 @@
       <c r="G310" s="15"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" s="26"/>
+      <c r="A311" s="24"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
       <c r="D311" s="12"/>
@@ -3356,7 +3356,7 @@
       <c r="G311" s="15"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="26"/>
+      <c r="A312" s="24"/>
       <c r="B312" s="12"/>
       <c r="C312" s="12"/>
       <c r="D312" s="12"/>
@@ -3365,7 +3365,7 @@
       <c r="G312" s="15"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="26"/>
+      <c r="A313" s="24"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
       <c r="D313" s="12"/>
@@ -3374,7 +3374,7 @@
       <c r="G313" s="15"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="26"/>
+      <c r="A314" s="24"/>
       <c r="B314" s="12"/>
       <c r="C314" s="12"/>
       <c r="D314" s="12"/>
@@ -3383,7 +3383,7 @@
       <c r="G314" s="15"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="26"/>
+      <c r="A315" s="24"/>
       <c r="B315" s="12"/>
       <c r="C315" s="12"/>
       <c r="D315" s="12"/>
@@ -3392,7 +3392,7 @@
       <c r="G315" s="15"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" s="26"/>
+      <c r="A316" s="24"/>
       <c r="B316" s="12"/>
       <c r="C316" s="12"/>
       <c r="D316" s="12"/>
@@ -3401,7 +3401,7 @@
       <c r="G316" s="15"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="26"/>
+      <c r="A317" s="24"/>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
       <c r="D317" s="12"/>
@@ -3410,7 +3410,7 @@
       <c r="G317" s="15"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="26"/>
+      <c r="A318" s="24"/>
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
       <c r="D318" s="12"/>
@@ -3419,7 +3419,7 @@
       <c r="G318" s="15"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="26"/>
+      <c r="A319" s="24"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
       <c r="D319" s="12"/>
@@ -3428,7 +3428,7 @@
       <c r="G319" s="15"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="26"/>
+      <c r="A320" s="24"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
       <c r="D320" s="12"/>
@@ -3437,7 +3437,7 @@
       <c r="G320" s="15"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="26"/>
+      <c r="A321" s="24"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
       <c r="D321" s="12"/>
@@ -3446,7 +3446,7 @@
       <c r="G321" s="15"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="26"/>
+      <c r="A322" s="24"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
       <c r="D322" s="12"/>
@@ -3455,7 +3455,7 @@
       <c r="G322" s="15"/>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" s="26"/>
+      <c r="A323" s="24"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
       <c r="D323" s="12"/>
@@ -3464,7 +3464,7 @@
       <c r="G323" s="15"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" s="26"/>
+      <c r="A324" s="24"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
       <c r="D324" s="12"/>
@@ -3473,7 +3473,7 @@
       <c r="G324" s="15"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" s="26"/>
+      <c r="A325" s="24"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
       <c r="D325" s="12"/>
@@ -3482,7 +3482,7 @@
       <c r="G325" s="15"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" s="26"/>
+      <c r="A326" s="24"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
       <c r="D326" s="12"/>
@@ -3491,7 +3491,7 @@
       <c r="G326" s="15"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="26"/>
+      <c r="A327" s="24"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
       <c r="D327" s="12"/>
@@ -3500,7 +3500,7 @@
       <c r="G327" s="15"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="26"/>
+      <c r="A328" s="24"/>
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
       <c r="D328" s="12"/>
@@ -3509,7 +3509,7 @@
       <c r="G328" s="15"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="26"/>
+      <c r="A329" s="24"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
       <c r="D329" s="12"/>
@@ -3518,7 +3518,7 @@
       <c r="G329" s="15"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="26"/>
+      <c r="A330" s="24"/>
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
       <c r="D330" s="12"/>
@@ -3527,7 +3527,7 @@
       <c r="G330" s="15"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="26"/>
+      <c r="A331" s="24"/>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
       <c r="D331" s="12"/>
@@ -3536,7 +3536,7 @@
       <c r="G331" s="15"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" s="26"/>
+      <c r="A332" s="24"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
       <c r="D332" s="12"/>
@@ -3545,7 +3545,7 @@
       <c r="G332" s="15"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="26"/>
+      <c r="A333" s="24"/>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
       <c r="D333" s="12"/>
@@ -3554,7 +3554,7 @@
       <c r="G333" s="15"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="26"/>
+      <c r="A334" s="24"/>
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
       <c r="D334" s="12"/>
@@ -3563,7 +3563,7 @@
       <c r="G334" s="15"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="26"/>
+      <c r="A335" s="24"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
@@ -3572,7 +3572,7 @@
       <c r="G335" s="15"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="26"/>
+      <c r="A336" s="24"/>
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
       <c r="D336" s="12"/>
@@ -3581,7 +3581,7 @@
       <c r="G336" s="15"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="26"/>
+      <c r="A337" s="24"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
@@ -3590,7 +3590,7 @@
       <c r="G337" s="15"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="26"/>
+      <c r="A338" s="24"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
       <c r="D338" s="12"/>
@@ -3599,7 +3599,7 @@
       <c r="G338" s="15"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A339" s="26"/>
+      <c r="A339" s="24"/>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
       <c r="D339" s="12"/>
@@ -3608,7 +3608,7 @@
       <c r="G339" s="15"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" s="26"/>
+      <c r="A340" s="24"/>
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
       <c r="D340" s="12"/>
@@ -3617,7 +3617,7 @@
       <c r="G340" s="15"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A341" s="26"/>
+      <c r="A341" s="24"/>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
       <c r="D341" s="12"/>
@@ -3626,7 +3626,7 @@
       <c r="G341" s="15"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" s="26"/>
+      <c r="A342" s="24"/>
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
       <c r="D342" s="12"/>
@@ -3635,7 +3635,7 @@
       <c r="G342" s="15"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="26"/>
+      <c r="A343" s="24"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
       <c r="D343" s="12"/>
@@ -3644,7 +3644,7 @@
       <c r="G343" s="15"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="26"/>
+      <c r="A344" s="24"/>
       <c r="B344" s="12"/>
       <c r="C344" s="12"/>
       <c r="D344" s="12"/>
@@ -3653,7 +3653,7 @@
       <c r="G344" s="15"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="26"/>
+      <c r="A345" s="24"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
       <c r="D345" s="12"/>
@@ -3662,7 +3662,7 @@
       <c r="G345" s="15"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="26"/>
+      <c r="A346" s="24"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
       <c r="D346" s="12"/>
@@ -3671,7 +3671,7 @@
       <c r="G346" s="15"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A347" s="26"/>
+      <c r="A347" s="24"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
       <c r="D347" s="12"/>
@@ -3680,7 +3680,7 @@
       <c r="G347" s="15"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A348" s="26"/>
+      <c r="A348" s="24"/>
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
       <c r="D348" s="12"/>
@@ -3689,7 +3689,7 @@
       <c r="G348" s="15"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A349" s="26"/>
+      <c r="A349" s="24"/>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
       <c r="D349" s="12"/>
@@ -3698,7 +3698,7 @@
       <c r="G349" s="15"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A350" s="26"/>
+      <c r="A350" s="24"/>
       <c r="B350" s="12"/>
       <c r="C350" s="12"/>
       <c r="D350" s="12"/>
@@ -3707,7 +3707,7 @@
       <c r="G350" s="15"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" s="26"/>
+      <c r="A351" s="24"/>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
       <c r="D351" s="12"/>
@@ -3716,7 +3716,7 @@
       <c r="G351" s="15"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" s="26"/>
+      <c r="A352" s="24"/>
       <c r="B352" s="12"/>
       <c r="C352" s="12"/>
       <c r="D352" s="12"/>
@@ -3725,7 +3725,7 @@
       <c r="G352" s="15"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="26"/>
+      <c r="A353" s="24"/>
       <c r="B353" s="12"/>
       <c r="C353" s="12"/>
       <c r="D353" s="12"/>
@@ -3734,7 +3734,7 @@
       <c r="G353" s="15"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="26"/>
+      <c r="A354" s="24"/>
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
       <c r="D354" s="12"/>
@@ -3743,7 +3743,7 @@
       <c r="G354" s="15"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" s="26"/>
+      <c r="A355" s="24"/>
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
       <c r="D355" s="12"/>
@@ -3752,7 +3752,7 @@
       <c r="G355" s="15"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" s="26"/>
+      <c r="A356" s="24"/>
       <c r="B356" s="12"/>
       <c r="C356" s="12"/>
       <c r="D356" s="12"/>
@@ -3761,7 +3761,7 @@
       <c r="G356" s="15"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="26"/>
+      <c r="A357" s="24"/>
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
       <c r="D357" s="12"/>
@@ -3770,7 +3770,7 @@
       <c r="G357" s="15"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" s="26"/>
+      <c r="A358" s="24"/>
       <c r="B358" s="12"/>
       <c r="C358" s="12"/>
       <c r="D358" s="12"/>
@@ -3779,7 +3779,7 @@
       <c r="G358" s="15"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" s="26"/>
+      <c r="A359" s="24"/>
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
       <c r="D359" s="12"/>
@@ -3788,7 +3788,7 @@
       <c r="G359" s="15"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" s="26"/>
+      <c r="A360" s="24"/>
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
       <c r="D360" s="12"/>
@@ -3797,7 +3797,7 @@
       <c r="G360" s="15"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="26"/>
+      <c r="A361" s="24"/>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
       <c r="D361" s="12"/>
@@ -3806,7 +3806,7 @@
       <c r="G361" s="15"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="26"/>
+      <c r="A362" s="24"/>
       <c r="B362" s="12"/>
       <c r="C362" s="12"/>
       <c r="D362" s="12"/>
@@ -3815,7 +3815,7 @@
       <c r="G362" s="15"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="26"/>
+      <c r="A363" s="24"/>
       <c r="B363" s="12"/>
       <c r="C363" s="12"/>
       <c r="D363" s="12"/>
@@ -3824,7 +3824,7 @@
       <c r="G363" s="15"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A364" s="26"/>
+      <c r="A364" s="24"/>
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
       <c r="D364" s="12"/>
@@ -3833,7 +3833,7 @@
       <c r="G364" s="15"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365" s="26"/>
+      <c r="A365" s="24"/>
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
       <c r="D365" s="12"/>
@@ -3842,7 +3842,7 @@
       <c r="G365" s="15"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A366" s="26"/>
+      <c r="A366" s="24"/>
       <c r="B366" s="12"/>
       <c r="C366" s="12"/>
       <c r="D366" s="12"/>
@@ -3851,7 +3851,7 @@
       <c r="G366" s="15"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="26"/>
+      <c r="A367" s="24"/>
       <c r="B367" s="12"/>
       <c r="C367" s="12"/>
       <c r="D367" s="12"/>
@@ -3860,7 +3860,7 @@
       <c r="G367" s="15"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" s="26"/>
+      <c r="A368" s="24"/>
       <c r="B368" s="12"/>
       <c r="C368" s="12"/>
       <c r="D368" s="12"/>
@@ -3869,7 +3869,7 @@
       <c r="G368" s="15"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" s="26"/>
+      <c r="A369" s="24"/>
       <c r="B369" s="12"/>
       <c r="C369" s="12"/>
       <c r="D369" s="12"/>
@@ -3878,7 +3878,7 @@
       <c r="G369" s="15"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" s="26"/>
+      <c r="A370" s="24"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
       <c r="D370" s="12"/>
@@ -3887,7 +3887,7 @@
       <c r="G370" s="15"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="26"/>
+      <c r="A371" s="24"/>
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
       <c r="D371" s="12"/>
@@ -3896,7 +3896,7 @@
       <c r="G371" s="15"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="26"/>
+      <c r="A372" s="24"/>
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
       <c r="D372" s="12"/>
@@ -3905,7 +3905,7 @@
       <c r="G372" s="15"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" s="26"/>
+      <c r="A373" s="24"/>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
       <c r="D373" s="12"/>
@@ -3914,7 +3914,7 @@
       <c r="G373" s="15"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" s="26"/>
+      <c r="A374" s="24"/>
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
       <c r="D374" s="12"/>
@@ -3923,7 +3923,7 @@
       <c r="G374" s="15"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375" s="26"/>
+      <c r="A375" s="24"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
       <c r="D375" s="12"/>
@@ -3932,7 +3932,7 @@
       <c r="G375" s="15"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" s="26"/>
+      <c r="A376" s="24"/>
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
       <c r="D376" s="12"/>
@@ -3941,7 +3941,7 @@
       <c r="G376" s="15"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" s="26"/>
+      <c r="A377" s="24"/>
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
       <c r="D377" s="12"/>
@@ -3950,7 +3950,7 @@
       <c r="G377" s="15"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="26"/>
+      <c r="A378" s="24"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
       <c r="D378" s="12"/>
@@ -3959,7 +3959,7 @@
       <c r="G378" s="15"/>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379" s="26"/>
+      <c r="A379" s="24"/>
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
       <c r="D379" s="12"/>
@@ -3968,7 +3968,7 @@
       <c r="G379" s="15"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" s="26"/>
+      <c r="A380" s="24"/>
       <c r="B380" s="12"/>
       <c r="C380" s="12"/>
       <c r="D380" s="12"/>
@@ -3977,7 +3977,7 @@
       <c r="G380" s="15"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381" s="26"/>
+      <c r="A381" s="24"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
       <c r="D381" s="12"/>
@@ -3986,7 +3986,7 @@
       <c r="G381" s="15"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A382" s="26"/>
+      <c r="A382" s="24"/>
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
       <c r="D382" s="12"/>
@@ -3995,7 +3995,7 @@
       <c r="G382" s="15"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" s="26"/>
+      <c r="A383" s="24"/>
       <c r="B383" s="12"/>
       <c r="C383" s="12"/>
       <c r="D383" s="12"/>
@@ -4004,7 +4004,7 @@
       <c r="G383" s="15"/>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" s="26"/>
+      <c r="A384" s="24"/>
       <c r="B384" s="12"/>
       <c r="C384" s="12"/>
       <c r="D384" s="12"/>
@@ -4013,7 +4013,7 @@
       <c r="G384" s="15"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="26"/>
+      <c r="A385" s="24"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
       <c r="D385" s="12"/>
@@ -4022,7 +4022,7 @@
       <c r="G385" s="15"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="26"/>
+      <c r="A386" s="24"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
       <c r="D386" s="12"/>
@@ -4031,7 +4031,7 @@
       <c r="G386" s="15"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387" s="26"/>
+      <c r="A387" s="24"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
       <c r="D387" s="12"/>
@@ -4040,7 +4040,7 @@
       <c r="G387" s="15"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A388" s="26"/>
+      <c r="A388" s="24"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
       <c r="D388" s="12"/>
@@ -4049,7 +4049,7 @@
       <c r="G388" s="15"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A389" s="26"/>
+      <c r="A389" s="24"/>
       <c r="B389" s="12"/>
       <c r="C389" s="12"/>
       <c r="D389" s="12"/>
@@ -4058,7 +4058,7 @@
       <c r="G389" s="15"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A390" s="26"/>
+      <c r="A390" s="24"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
       <c r="D390" s="12"/>
@@ -4067,7 +4067,7 @@
       <c r="G390" s="15"/>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A391" s="27"/>
+      <c r="A391" s="25"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -4076,7 +4076,7 @@
       <c r="G391" s="16"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392" s="27"/>
+      <c r="A392" s="25"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -4085,7 +4085,7 @@
       <c r="G392" s="16"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="27"/>
+      <c r="A393" s="25"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -4094,7 +4094,7 @@
       <c r="G393" s="16"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A394" s="27"/>
+      <c r="A394" s="25"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -4103,7 +4103,7 @@
       <c r="G394" s="16"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A395" s="27"/>
+      <c r="A395" s="25"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -4112,7 +4112,7 @@
       <c r="G395" s="16"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A396" s="27"/>
+      <c r="A396" s="25"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -4121,7 +4121,7 @@
       <c r="G396" s="16"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A397" s="27"/>
+      <c r="A397" s="25"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -4130,7 +4130,7 @@
       <c r="G397" s="16"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A398" s="27"/>
+      <c r="A398" s="25"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -4139,7 +4139,7 @@
       <c r="G398" s="16"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A399" s="27"/>
+      <c r="A399" s="25"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -4148,7 +4148,7 @@
       <c r="G399" s="16"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="27"/>
+      <c r="A400" s="25"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -4157,7 +4157,7 @@
       <c r="G400" s="16"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="27"/>
+      <c r="A401" s="25"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -4166,7 +4166,7 @@
       <c r="G401" s="16"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" s="27"/>
+      <c r="A402" s="25"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -4175,7 +4175,7 @@
       <c r="G402" s="16"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A403" s="27"/>
+      <c r="A403" s="25"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -4184,7 +4184,7 @@
       <c r="G403" s="16"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404" s="27"/>
+      <c r="A404" s="25"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -4193,7 +4193,7 @@
       <c r="G404" s="16"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405" s="27"/>
+      <c r="A405" s="25"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -4202,7 +4202,7 @@
       <c r="G405" s="16"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" s="27"/>
+      <c r="A406" s="25"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -4211,7 +4211,7 @@
       <c r="G406" s="16"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" s="27"/>
+      <c r="A407" s="25"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -4220,7 +4220,7 @@
       <c r="G407" s="16"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A408" s="27"/>
+      <c r="A408" s="25"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -4229,7 +4229,7 @@
       <c r="G408" s="16"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A409" s="27"/>
+      <c r="A409" s="25"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -4238,7 +4238,7 @@
       <c r="G409" s="16"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410" s="27"/>
+      <c r="A410" s="25"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -4247,7 +4247,7 @@
       <c r="G410" s="16"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A411" s="27"/>
+      <c r="A411" s="25"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -4256,7 +4256,7 @@
       <c r="G411" s="16"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" s="27"/>
+      <c r="A412" s="25"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -4265,7 +4265,7 @@
       <c r="G412" s="16"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="27"/>
+      <c r="A413" s="25"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -4274,7 +4274,7 @@
       <c r="G413" s="16"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="27"/>
+      <c r="A414" s="25"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -4283,7 +4283,7 @@
       <c r="G414" s="16"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" s="27"/>
+      <c r="A415" s="25"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -4292,7 +4292,7 @@
       <c r="G415" s="16"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" s="27"/>
+      <c r="A416" s="25"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -4301,7 +4301,7 @@
       <c r="G416" s="16"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="27"/>
+      <c r="A417" s="25"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -4310,7 +4310,7 @@
       <c r="G417" s="16"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="27"/>
+      <c r="A418" s="25"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -4319,7 +4319,7 @@
       <c r="G418" s="16"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="27"/>
+      <c r="A419" s="25"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -4328,7 +4328,7 @@
       <c r="G419" s="16"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="27"/>
+      <c r="A420" s="25"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -4337,7 +4337,7 @@
       <c r="G420" s="16"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="27"/>
+      <c r="A421" s="25"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -4346,7 +4346,7 @@
       <c r="G421" s="16"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="27"/>
+      <c r="A422" s="25"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -4355,7 +4355,7 @@
       <c r="G422" s="16"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="27"/>
+      <c r="A423" s="25"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -4364,7 +4364,7 @@
       <c r="G423" s="16"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A424" s="27"/>
+      <c r="A424" s="25"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -4373,7 +4373,7 @@
       <c r="G424" s="16"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="27"/>
+      <c r="A425" s="25"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -4382,7 +4382,7 @@
       <c r="G425" s="16"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426" s="27"/>
+      <c r="A426" s="25"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -4391,7 +4391,7 @@
       <c r="G426" s="16"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="27"/>
+      <c r="A427" s="25"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -4400,7 +4400,7 @@
       <c r="G427" s="16"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="27"/>
+      <c r="A428" s="25"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -4409,7 +4409,7 @@
       <c r="G428" s="16"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A429" s="27"/>
+      <c r="A429" s="25"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -4418,7 +4418,7 @@
       <c r="G429" s="16"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A430" s="27"/>
+      <c r="A430" s="25"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -4427,7 +4427,7 @@
       <c r="G430" s="16"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A431" s="27"/>
+      <c r="A431" s="25"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -4436,7 +4436,7 @@
       <c r="G431" s="16"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A432" s="27"/>
+      <c r="A432" s="25"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -4445,7 +4445,7 @@
       <c r="G432" s="16"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A433" s="27"/>
+      <c r="A433" s="25"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -4454,7 +4454,7 @@
       <c r="G433" s="16"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A434" s="27"/>
+      <c r="A434" s="25"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -4463,7 +4463,7 @@
       <c r="G434" s="16"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435" s="27"/>
+      <c r="A435" s="25"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -4472,7 +4472,7 @@
       <c r="G435" s="16"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436" s="27"/>
+      <c r="A436" s="25"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -4481,7 +4481,7 @@
       <c r="G436" s="16"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A437" s="27"/>
+      <c r="A437" s="25"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -4490,7 +4490,7 @@
       <c r="G437" s="16"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A438" s="27"/>
+      <c r="A438" s="25"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -4499,7 +4499,7 @@
       <c r="G438" s="16"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A439" s="27"/>
+      <c r="A439" s="25"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -4508,7 +4508,7 @@
       <c r="G439" s="16"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A440" s="27"/>
+      <c r="A440" s="25"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -4517,7 +4517,7 @@
       <c r="G440" s="16"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A441" s="27"/>
+      <c r="A441" s="25"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -4526,7 +4526,7 @@
       <c r="G441" s="16"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" s="27"/>
+      <c r="A442" s="25"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -4535,7 +4535,7 @@
       <c r="G442" s="16"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A443" s="27"/>
+      <c r="A443" s="25"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -4544,7 +4544,7 @@
       <c r="G443" s="16"/>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A444" s="27"/>
+      <c r="A444" s="25"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -4553,7 +4553,7 @@
       <c r="G444" s="16"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A445" s="27"/>
+      <c r="A445" s="25"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -4562,7 +4562,7 @@
       <c r="G445" s="16"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A446" s="27"/>
+      <c r="A446" s="25"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -4571,7 +4571,7 @@
       <c r="G446" s="16"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A447" s="27"/>
+      <c r="A447" s="25"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
@@ -4580,7 +4580,7 @@
       <c r="G447" s="16"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A448" s="27"/>
+      <c r="A448" s="25"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -4589,7 +4589,7 @@
       <c r="G448" s="16"/>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A449" s="27"/>
+      <c r="A449" s="25"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -4598,7 +4598,7 @@
       <c r="G449" s="16"/>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A450" s="27"/>
+      <c r="A450" s="25"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -4607,7 +4607,7 @@
       <c r="G450" s="16"/>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A451" s="27"/>
+      <c r="A451" s="25"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -4616,7 +4616,7 @@
       <c r="G451" s="16"/>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A452" s="27"/>
+      <c r="A452" s="25"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -4625,7 +4625,7 @@
       <c r="G452" s="16"/>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A453" s="27"/>
+      <c r="A453" s="25"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -4634,7 +4634,7 @@
       <c r="G453" s="16"/>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A454" s="27"/>
+      <c r="A454" s="25"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -4643,7 +4643,7 @@
       <c r="G454" s="16"/>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A455" s="27"/>
+      <c r="A455" s="25"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -4652,7 +4652,7 @@
       <c r="G455" s="16"/>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A456" s="27"/>
+      <c r="A456" s="25"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -4661,7 +4661,7 @@
       <c r="G456" s="16"/>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A457" s="27"/>
+      <c r="A457" s="25"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -4670,7 +4670,7 @@
       <c r="G457" s="16"/>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A458" s="27"/>
+      <c r="A458" s="25"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -4679,7 +4679,7 @@
       <c r="G458" s="16"/>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A459" s="27"/>
+      <c r="A459" s="25"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -4688,7 +4688,7 @@
       <c r="G459" s="16"/>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A460" s="27"/>
+      <c r="A460" s="25"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -4697,7 +4697,7 @@
       <c r="G460" s="16"/>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A461" s="27"/>
+      <c r="A461" s="25"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -4706,7 +4706,7 @@
       <c r="G461" s="16"/>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A462" s="27"/>
+      <c r="A462" s="25"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -4715,7 +4715,7 @@
       <c r="G462" s="16"/>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A463" s="27"/>
+      <c r="A463" s="25"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -4724,7 +4724,7 @@
       <c r="G463" s="16"/>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A464" s="27"/>
+      <c r="A464" s="25"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -4733,7 +4733,7 @@
       <c r="G464" s="16"/>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A465" s="27"/>
+      <c r="A465" s="25"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -4742,7 +4742,7 @@
       <c r="G465" s="16"/>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A466" s="27"/>
+      <c r="A466" s="25"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -4751,7 +4751,7 @@
       <c r="G466" s="16"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A467" s="27"/>
+      <c r="A467" s="25"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -4760,7 +4760,7 @@
       <c r="G467" s="16"/>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A468" s="27"/>
+      <c r="A468" s="25"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -4769,7 +4769,7 @@
       <c r="G468" s="16"/>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A469" s="27"/>
+      <c r="A469" s="25"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -4778,7 +4778,7 @@
       <c r="G469" s="16"/>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A470" s="27"/>
+      <c r="A470" s="25"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -4787,7 +4787,7 @@
       <c r="G470" s="16"/>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A471" s="27"/>
+      <c r="A471" s="25"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -4796,7 +4796,7 @@
       <c r="G471" s="16"/>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A472" s="27"/>
+      <c r="A472" s="25"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -4805,7 +4805,7 @@
       <c r="G472" s="16"/>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A473" s="27"/>
+      <c r="A473" s="25"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -4814,7 +4814,7 @@
       <c r="G473" s="16"/>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A474" s="27"/>
+      <c r="A474" s="25"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -4823,7 +4823,7 @@
       <c r="G474" s="16"/>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A475" s="27"/>
+      <c r="A475" s="25"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -4832,7 +4832,7 @@
       <c r="G475" s="16"/>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A476" s="27"/>
+      <c r="A476" s="25"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -4841,7 +4841,7 @@
       <c r="G476" s="16"/>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A477" s="27"/>
+      <c r="A477" s="25"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -4850,7 +4850,7 @@
       <c r="G477" s="16"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A478" s="27"/>
+      <c r="A478" s="25"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -4859,7 +4859,7 @@
       <c r="G478" s="16"/>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A479" s="27"/>
+      <c r="A479" s="25"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -4868,7 +4868,7 @@
       <c r="G479" s="16"/>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A480" s="27"/>
+      <c r="A480" s="25"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -4877,7 +4877,7 @@
       <c r="G480" s="16"/>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A481" s="27"/>
+      <c r="A481" s="25"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -4886,7 +4886,7 @@
       <c r="G481" s="16"/>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A482" s="27"/>
+      <c r="A482" s="25"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -4895,7 +4895,7 @@
       <c r="G482" s="16"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A483" s="27"/>
+      <c r="A483" s="25"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -4904,7 +4904,7 @@
       <c r="G483" s="16"/>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A484" s="27"/>
+      <c r="A484" s="25"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -4913,7 +4913,7 @@
       <c r="G484" s="16"/>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A485" s="27"/>
+      <c r="A485" s="25"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -4922,7 +4922,7 @@
       <c r="G485" s="16"/>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A486" s="27"/>
+      <c r="A486" s="25"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -4931,7 +4931,7 @@
       <c r="G486" s="16"/>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A487" s="27"/>
+      <c r="A487" s="25"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -4940,7 +4940,7 @@
       <c r="G487" s="16"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A488" s="27"/>
+      <c r="A488" s="25"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -4949,7 +4949,7 @@
       <c r="G488" s="16"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A489" s="27"/>
+      <c r="A489" s="25"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -4958,7 +4958,7 @@
       <c r="G489" s="16"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A490" s="27"/>
+      <c r="A490" s="25"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -4967,7 +4967,7 @@
       <c r="G490" s="16"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A491" s="27"/>
+      <c r="A491" s="25"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -4976,7 +4976,7 @@
       <c r="G491" s="16"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A492" s="27"/>
+      <c r="A492" s="25"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -4985,7 +4985,7 @@
       <c r="G492" s="16"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A493" s="27"/>
+      <c r="A493" s="25"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -4994,7 +4994,7 @@
       <c r="G493" s="16"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A494" s="27"/>
+      <c r="A494" s="25"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -5003,7 +5003,7 @@
       <c r="G494" s="16"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A495" s="27"/>
+      <c r="A495" s="25"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -5012,7 +5012,7 @@
       <c r="G495" s="16"/>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A496" s="27"/>
+      <c r="A496" s="25"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -5021,7 +5021,7 @@
       <c r="G496" s="16"/>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A497" s="27"/>
+      <c r="A497" s="25"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -5030,7 +5030,7 @@
       <c r="G497" s="16"/>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A498" s="27"/>
+      <c r="A498" s="25"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -5039,7 +5039,7 @@
       <c r="G498" s="16"/>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A499" s="27"/>
+      <c r="A499" s="25"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -5048,7 +5048,7 @@
       <c r="G499" s="16"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A500" s="27"/>
+      <c r="A500" s="25"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -5057,7 +5057,7 @@
       <c r="G500" s="16"/>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A501" s="27"/>
+      <c r="A501" s="25"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -5066,7 +5066,7 @@
       <c r="G501" s="16"/>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A502" s="27"/>
+      <c r="A502" s="25"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -5075,7 +5075,7 @@
       <c r="G502" s="16"/>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A503" s="27"/>
+      <c r="A503" s="25"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -5084,7 +5084,7 @@
       <c r="G503" s="16"/>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A504" s="27"/>
+      <c r="A504" s="25"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -5093,7 +5093,7 @@
       <c r="G504" s="16"/>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A505" s="27"/>
+      <c r="A505" s="25"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -5102,7 +5102,7 @@
       <c r="G505" s="16"/>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A506" s="27"/>
+      <c r="A506" s="25"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -5111,7 +5111,7 @@
       <c r="G506" s="16"/>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A507" s="27"/>
+      <c r="A507" s="25"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -5120,7 +5120,7 @@
       <c r="G507" s="16"/>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A508" s="27"/>
+      <c r="A508" s="25"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -5129,7 +5129,7 @@
       <c r="G508" s="16"/>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A509" s="27"/>
+      <c r="A509" s="25"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -5138,7 +5138,7 @@
       <c r="G509" s="16"/>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A510" s="27"/>
+      <c r="A510" s="25"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -5147,7 +5147,7 @@
       <c r="G510" s="16"/>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A511" s="27"/>
+      <c r="A511" s="25"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -5156,7 +5156,7 @@
       <c r="G511" s="16"/>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A512" s="27"/>
+      <c r="A512" s="25"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -5165,7 +5165,7 @@
       <c r="G512" s="16"/>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A513" s="27"/>
+      <c r="A513" s="25"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -5174,7 +5174,7 @@
       <c r="G513" s="16"/>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A514" s="27"/>
+      <c r="A514" s="25"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -5183,7 +5183,7 @@
       <c r="G514" s="16"/>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A515" s="27"/>
+      <c r="A515" s="25"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -5192,7 +5192,7 @@
       <c r="G515" s="16"/>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A516" s="27"/>
+      <c r="A516" s="25"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -5201,7 +5201,7 @@
       <c r="G516" s="16"/>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A517" s="27"/>
+      <c r="A517" s="25"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -5210,7 +5210,7 @@
       <c r="G517" s="16"/>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A518" s="27"/>
+      <c r="A518" s="25"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -5219,7 +5219,7 @@
       <c r="G518" s="16"/>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A519" s="27"/>
+      <c r="A519" s="25"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -5228,7 +5228,7 @@
       <c r="G519" s="16"/>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A520" s="27"/>
+      <c r="A520" s="25"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -5237,7 +5237,7 @@
       <c r="G520" s="16"/>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A521" s="27"/>
+      <c r="A521" s="25"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -5246,7 +5246,7 @@
       <c r="G521" s="16"/>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A522" s="27"/>
+      <c r="A522" s="25"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -5255,7 +5255,7 @@
       <c r="G522" s="16"/>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A523" s="27"/>
+      <c r="A523" s="25"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -5264,7 +5264,7 @@
       <c r="G523" s="16"/>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A524" s="27"/>
+      <c r="A524" s="25"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -5273,7 +5273,7 @@
       <c r="G524" s="16"/>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A525" s="27"/>
+      <c r="A525" s="25"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -5282,7 +5282,7 @@
       <c r="G525" s="16"/>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A526" s="27"/>
+      <c r="A526" s="25"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -5291,7 +5291,7 @@
       <c r="G526" s="16"/>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A527" s="27"/>
+      <c r="A527" s="25"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -5300,7 +5300,7 @@
       <c r="G527" s="16"/>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A528" s="27"/>
+      <c r="A528" s="25"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -5309,7 +5309,7 @@
       <c r="G528" s="16"/>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A529" s="27"/>
+      <c r="A529" s="25"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -5318,7 +5318,7 @@
       <c r="G529" s="16"/>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A530" s="27"/>
+      <c r="A530" s="25"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -5327,7 +5327,7 @@
       <c r="G530" s="16"/>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A531" s="27"/>
+      <c r="A531" s="25"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -5336,7 +5336,7 @@
       <c r="G531" s="16"/>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A532" s="27"/>
+      <c r="A532" s="25"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -5345,7 +5345,7 @@
       <c r="G532" s="16"/>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A533" s="27"/>
+      <c r="A533" s="25"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -5354,7 +5354,7 @@
       <c r="G533" s="16"/>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A534" s="27"/>
+      <c r="A534" s="25"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -5363,7 +5363,7 @@
       <c r="G534" s="16"/>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A535" s="27"/>
+      <c r="A535" s="25"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -5372,7 +5372,7 @@
       <c r="G535" s="16"/>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A536" s="27"/>
+      <c r="A536" s="25"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -5381,7 +5381,7 @@
       <c r="G536" s="16"/>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A537" s="27"/>
+      <c r="A537" s="25"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -5390,7 +5390,7 @@
       <c r="G537" s="16"/>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A538" s="27"/>
+      <c r="A538" s="25"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -5399,7 +5399,7 @@
       <c r="G538" s="16"/>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A539" s="27"/>
+      <c r="A539" s="25"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -5408,7 +5408,7 @@
       <c r="G539" s="16"/>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A540" s="27"/>
+      <c r="A540" s="25"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -5417,7 +5417,7 @@
       <c r="G540" s="16"/>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A541" s="27"/>
+      <c r="A541" s="25"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -5426,7 +5426,7 @@
       <c r="G541" s="16"/>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A542" s="27"/>
+      <c r="A542" s="25"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -5435,7 +5435,7 @@
       <c r="G542" s="16"/>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A543" s="27"/>
+      <c r="A543" s="25"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -5444,7 +5444,7 @@
       <c r="G543" s="16"/>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A544" s="27"/>
+      <c r="A544" s="25"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -5453,7 +5453,7 @@
       <c r="G544" s="16"/>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A545" s="27"/>
+      <c r="A545" s="25"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -5462,7 +5462,7 @@
       <c r="G545" s="16"/>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A546" s="27"/>
+      <c r="A546" s="25"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -5471,7 +5471,7 @@
       <c r="G546" s="16"/>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A547" s="27"/>
+      <c r="A547" s="25"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -5480,7 +5480,7 @@
       <c r="G547" s="16"/>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A548" s="27"/>
+      <c r="A548" s="25"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -5489,7 +5489,7 @@
       <c r="G548" s="16"/>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A549" s="27"/>
+      <c r="A549" s="25"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -5498,7 +5498,7 @@
       <c r="G549" s="16"/>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A550" s="27"/>
+      <c r="A550" s="25"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -5507,7 +5507,7 @@
       <c r="G550" s="16"/>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A551" s="27"/>
+      <c r="A551" s="25"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -5516,7 +5516,7 @@
       <c r="G551" s="16"/>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A552" s="27"/>
+      <c r="A552" s="25"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -5525,7 +5525,7 @@
       <c r="G552" s="16"/>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A553" s="27"/>
+      <c r="A553" s="25"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -5534,7 +5534,7 @@
       <c r="G553" s="16"/>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A554" s="27"/>
+      <c r="A554" s="25"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -5543,7 +5543,7 @@
       <c r="G554" s="16"/>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A555" s="27"/>
+      <c r="A555" s="25"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -5552,7 +5552,7 @@
       <c r="G555" s="16"/>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A556" s="27"/>
+      <c r="A556" s="25"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -5561,7 +5561,7 @@
       <c r="G556" s="16"/>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A557" s="27"/>
+      <c r="A557" s="25"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -5570,7 +5570,7 @@
       <c r="G557" s="16"/>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A558" s="27"/>
+      <c r="A558" s="25"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -5579,7 +5579,7 @@
       <c r="G558" s="16"/>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A559" s="27"/>
+      <c r="A559" s="25"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -5588,7 +5588,7 @@
       <c r="G559" s="16"/>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A560" s="27"/>
+      <c r="A560" s="25"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -5597,7 +5597,7 @@
       <c r="G560" s="16"/>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A561" s="27"/>
+      <c r="A561" s="25"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -5606,7 +5606,7 @@
       <c r="G561" s="16"/>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A562" s="27"/>
+      <c r="A562" s="25"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -5615,7 +5615,7 @@
       <c r="G562" s="16"/>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A563" s="27"/>
+      <c r="A563" s="25"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -5624,7 +5624,7 @@
       <c r="G563" s="16"/>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A564" s="27"/>
+      <c r="A564" s="25"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -5633,7 +5633,7 @@
       <c r="G564" s="16"/>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A565" s="27"/>
+      <c r="A565" s="25"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -5642,7 +5642,7 @@
       <c r="G565" s="16"/>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A566" s="27"/>
+      <c r="A566" s="25"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -5651,7 +5651,7 @@
       <c r="G566" s="16"/>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A567" s="27"/>
+      <c r="A567" s="25"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -5660,7 +5660,7 @@
       <c r="G567" s="16"/>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A568" s="27"/>
+      <c r="A568" s="25"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -5669,7 +5669,7 @@
       <c r="G568" s="16"/>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A569" s="27"/>
+      <c r="A569" s="25"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -5678,7 +5678,7 @@
       <c r="G569" s="16"/>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A570" s="27"/>
+      <c r="A570" s="25"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -5687,7 +5687,7 @@
       <c r="G570" s="16"/>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A571" s="27"/>
+      <c r="A571" s="25"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -5696,7 +5696,7 @@
       <c r="G571" s="16"/>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A572" s="27"/>
+      <c r="A572" s="25"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -5705,7 +5705,7 @@
       <c r="G572" s="16"/>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A573" s="27"/>
+      <c r="A573" s="25"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -5714,7 +5714,7 @@
       <c r="G573" s="16"/>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A574" s="27"/>
+      <c r="A574" s="25"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -5723,7 +5723,7 @@
       <c r="G574" s="16"/>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A575" s="27"/>
+      <c r="A575" s="25"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -5732,7 +5732,7 @@
       <c r="G575" s="16"/>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A576" s="27"/>
+      <c r="A576" s="25"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -5741,7 +5741,7 @@
       <c r="G576" s="16"/>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A577" s="27"/>
+      <c r="A577" s="25"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -5750,7 +5750,7 @@
       <c r="G577" s="16"/>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A578" s="27"/>
+      <c r="A578" s="25"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -5759,7 +5759,7 @@
       <c r="G578" s="16"/>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A579" s="27"/>
+      <c r="A579" s="25"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -5768,7 +5768,7 @@
       <c r="G579" s="16"/>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A580" s="27"/>
+      <c r="A580" s="25"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -5777,7 +5777,7 @@
       <c r="G580" s="16"/>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A581" s="27"/>
+      <c r="A581" s="25"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -5786,7 +5786,7 @@
       <c r="G581" s="16"/>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A582" s="27"/>
+      <c r="A582" s="25"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -5795,7 +5795,7 @@
       <c r="G582" s="16"/>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A583" s="27"/>
+      <c r="A583" s="25"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -5804,7 +5804,7 @@
       <c r="G583" s="16"/>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A584" s="27"/>
+      <c r="A584" s="25"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -5813,7 +5813,7 @@
       <c r="G584" s="16"/>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A585" s="27"/>
+      <c r="A585" s="25"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -5822,7 +5822,7 @@
       <c r="G585" s="16"/>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A586" s="27"/>
+      <c r="A586" s="25"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -5831,7 +5831,7 @@
       <c r="G586" s="16"/>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A587" s="27"/>
+      <c r="A587" s="25"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -5840,7 +5840,7 @@
       <c r="G587" s="16"/>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A588" s="27"/>
+      <c r="A588" s="25"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -5849,7 +5849,7 @@
       <c r="G588" s="16"/>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A589" s="27"/>
+      <c r="A589" s="25"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -5858,7 +5858,7 @@
       <c r="G589" s="16"/>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A590" s="27"/>
+      <c r="A590" s="25"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -5867,7 +5867,7 @@
       <c r="G590" s="16"/>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A591" s="27"/>
+      <c r="A591" s="25"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -5876,7 +5876,7 @@
       <c r="G591" s="16"/>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A592" s="27"/>
+      <c r="A592" s="25"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -5885,7 +5885,7 @@
       <c r="G592" s="16"/>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A593" s="27"/>
+      <c r="A593" s="25"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -5894,7 +5894,7 @@
       <c r="G593" s="16"/>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A594" s="27"/>
+      <c r="A594" s="25"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -5903,7 +5903,7 @@
       <c r="G594" s="16"/>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A595" s="27"/>
+      <c r="A595" s="25"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -5912,7 +5912,7 @@
       <c r="G595" s="16"/>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A596" s="27"/>
+      <c r="A596" s="25"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -5921,7 +5921,7 @@
       <c r="G596" s="16"/>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A597" s="27"/>
+      <c r="A597" s="25"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -5930,7 +5930,7 @@
       <c r="G597" s="16"/>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A598" s="27"/>
+      <c r="A598" s="25"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -5939,7 +5939,7 @@
       <c r="G598" s="16"/>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A599" s="27"/>
+      <c r="A599" s="25"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -5948,7 +5948,7 @@
       <c r="G599" s="16"/>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A600" s="27"/>
+      <c r="A600" s="25"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -5957,7 +5957,7 @@
       <c r="G600" s="16"/>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A601" s="27"/>
+      <c r="A601" s="25"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -5966,7 +5966,7 @@
       <c r="G601" s="16"/>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A602" s="27"/>
+      <c r="A602" s="25"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -5975,7 +5975,7 @@
       <c r="G602" s="16"/>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A603" s="27"/>
+      <c r="A603" s="25"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -5984,7 +5984,7 @@
       <c r="G603" s="16"/>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A604" s="27"/>
+      <c r="A604" s="25"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -5993,7 +5993,7 @@
       <c r="G604" s="16"/>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A605" s="27"/>
+      <c r="A605" s="25"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -6002,7 +6002,7 @@
       <c r="G605" s="16"/>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A606" s="27"/>
+      <c r="A606" s="25"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -6011,7 +6011,7 @@
       <c r="G606" s="16"/>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A607" s="27"/>
+      <c r="A607" s="25"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -6020,7 +6020,7 @@
       <c r="G607" s="16"/>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A608" s="27"/>
+      <c r="A608" s="25"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -6029,7 +6029,7 @@
       <c r="G608" s="16"/>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A609" s="27"/>
+      <c r="A609" s="25"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -6038,7 +6038,7 @@
       <c r="G609" s="16"/>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A610" s="27"/>
+      <c r="A610" s="25"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -6047,7 +6047,7 @@
       <c r="G610" s="16"/>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A611" s="27"/>
+      <c r="A611" s="25"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -6056,7 +6056,7 @@
       <c r="G611" s="16"/>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A612" s="27"/>
+      <c r="A612" s="25"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -6065,7 +6065,7 @@
       <c r="G612" s="16"/>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A613" s="27"/>
+      <c r="A613" s="25"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -6074,7 +6074,7 @@
       <c r="G613" s="16"/>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A614" s="27"/>
+      <c r="A614" s="25"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -6083,7 +6083,7 @@
       <c r="G614" s="16"/>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A615" s="27"/>
+      <c r="A615" s="25"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -6092,7 +6092,7 @@
       <c r="G615" s="16"/>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A616" s="27"/>
+      <c r="A616" s="25"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -6101,7 +6101,7 @@
       <c r="G616" s="16"/>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A617" s="27"/>
+      <c r="A617" s="25"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -6110,7 +6110,7 @@
       <c r="G617" s="16"/>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A618" s="27"/>
+      <c r="A618" s="25"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -6119,7 +6119,7 @@
       <c r="G618" s="16"/>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A619" s="27"/>
+      <c r="A619" s="25"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -6128,7 +6128,7 @@
       <c r="G619" s="16"/>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A620" s="27"/>
+      <c r="A620" s="25"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -6137,7 +6137,7 @@
       <c r="G620" s="16"/>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A621" s="27"/>
+      <c r="A621" s="25"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -6146,7 +6146,7 @@
       <c r="G621" s="16"/>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A622" s="27"/>
+      <c r="A622" s="25"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -6155,7 +6155,7 @@
       <c r="G622" s="16"/>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A623" s="27"/>
+      <c r="A623" s="25"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -6164,7 +6164,7 @@
       <c r="G623" s="16"/>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A624" s="27"/>
+      <c r="A624" s="25"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -6173,7 +6173,7 @@
       <c r="G624" s="16"/>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A625" s="27"/>
+      <c r="A625" s="25"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -6182,7 +6182,7 @@
       <c r="G625" s="16"/>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A626" s="27"/>
+      <c r="A626" s="25"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -6191,7 +6191,7 @@
       <c r="G626" s="16"/>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A627" s="27"/>
+      <c r="A627" s="25"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -6200,7 +6200,7 @@
       <c r="G627" s="16"/>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A628" s="27"/>
+      <c r="A628" s="25"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -6209,7 +6209,7 @@
       <c r="G628" s="16"/>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A629" s="27"/>
+      <c r="A629" s="25"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -6218,7 +6218,7 @@
       <c r="G629" s="16"/>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A630" s="27"/>
+      <c r="A630" s="25"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -6227,7 +6227,7 @@
       <c r="G630" s="16"/>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A631" s="27"/>
+      <c r="A631" s="25"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -6236,7 +6236,7 @@
       <c r="G631" s="16"/>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A632" s="27"/>
+      <c r="A632" s="25"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -6245,7 +6245,7 @@
       <c r="G632" s="16"/>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A633" s="27"/>
+      <c r="A633" s="25"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -6254,7 +6254,7 @@
       <c r="G633" s="16"/>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A634" s="27"/>
+      <c r="A634" s="25"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -6263,7 +6263,7 @@
       <c r="G634" s="16"/>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A635" s="27"/>
+      <c r="A635" s="25"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
